--- a/mapf汇总.xlsx
+++ b/mapf汇总.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4825" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="1080">
   <si>
     <t>Model</t>
   </si>
@@ -15537,10 +15537,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R199"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17375,19 +17375,19 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="7" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C48" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -17414,19 +17414,19 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="7" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C49" s="3">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -17440,10 +17440,10 @@
         <v>9</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>895</v>
+        <v>456</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>253</v>
+        <v>457</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -17453,7 +17453,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="7" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>878</v>
@@ -17462,13 +17462,17 @@
         <v>2023</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>901</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+        <v>904</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>906</v>
+      </c>
       <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
@@ -17479,10 +17483,10 @@
         <v>9</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>456</v>
+        <v>895</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -17492,26 +17496,22 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="7" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C51" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>904</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>905</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>906</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="2" t="s">
         <v>8</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>9</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>253</v>
@@ -17533,21 +17533,21 @@
         <v>863</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:16">
       <c r="A52" s="7" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C52" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>908</v>
+        <v>2023</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>912</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -17561,32 +17561,35 @@
         <v>9</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>253</v>
+        <v>457</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="15" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52" s="15" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="7" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C53" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -17600,23 +17603,20 @@
         <v>9</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>914</v>
+        <v>315</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>457</v>
+        <v>186</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="P53" s="15" t="s">
-        <v>915</v>
-      </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="7" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>878</v>
@@ -17624,11 +17624,11 @@
       <c r="C54" s="3">
         <v>2024</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>917</v>
+      <c r="D54" s="7" t="s">
+        <v>920</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -17642,10 +17642,10 @@
         <v>9</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>315</v>
+        <v>456</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -17655,19 +17655,19 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="7" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C55" s="3">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -17681,10 +17681,10 @@
         <v>9</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>457</v>
+        <v>625</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -17694,19 +17694,19 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="7" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C56" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -17720,10 +17720,10 @@
         <v>9</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>541</v>
+        <v>928</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>625</v>
+        <v>253</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -17733,7 +17733,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="7" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>878</v>
@@ -17742,10 +17742,10 @@
         <v>2022</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -17759,10 +17759,10 @@
         <v>9</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>928</v>
+        <v>315</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="7" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>878</v>
@@ -17781,10 +17781,10 @@
         <v>2022</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -17798,10 +17798,10 @@
         <v>9</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>315</v>
+        <v>456</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -17811,19 +17811,19 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="7" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C59" s="3">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -17837,10 +17837,10 @@
         <v>9</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>456</v>
+        <v>938</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -17850,22 +17850,26 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="7" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C60" s="3">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+        <v>941</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>943</v>
+      </c>
       <c r="H60" s="2" t="s">
         <v>8</v>
       </c>
@@ -17876,10 +17880,10 @@
         <v>9</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>938</v>
+        <v>315</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -17889,26 +17893,22 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="7" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C61" s="3">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>941</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>942</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>943</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
       <c r="H61" s="2" t="s">
         <v>8</v>
       </c>
@@ -17919,10 +17919,10 @@
         <v>9</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>315</v>
+        <v>914</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -17932,7 +17932,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>878</v>
@@ -17941,13 +17941,17 @@
         <v>2024</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>945</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+        <v>948</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>950</v>
+      </c>
       <c r="H62" s="2" t="s">
         <v>8</v>
       </c>
@@ -17958,7 +17962,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>914</v>
+        <v>456</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>457</v>
@@ -17971,7 +17975,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="7" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>878</v>
@@ -17980,17 +17984,13 @@
         <v>2024</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>948</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>949</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>950</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
       <c r="H63" s="2" t="s">
         <v>8</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>9</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>456</v>
+        <v>914</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>457</v>
@@ -18014,7 +18014,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="7" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>878</v>
@@ -18023,15 +18023,19 @@
         <v>2024</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>953</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+        <v>956</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>958</v>
+      </c>
       <c r="H64" s="2" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>23</v>
@@ -18040,10 +18044,10 @@
         <v>9</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>914</v>
+        <v>223</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>457</v>
+        <v>174</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -18053,28 +18057,24 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="7" t="s">
-        <v>954</v>
+        <v>896</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C65" s="3">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>955</v>
+        <v>897</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>956</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>958</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>23</v>
@@ -18083,10 +18083,10 @@
         <v>9</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>223</v>
+        <v>895</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -18096,19 +18096,19 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="7" t="s">
-        <v>896</v>
+        <v>959</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C66" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -18135,19 +18135,19 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="7" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C67" s="3">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>893</v>
+        <v>961</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>894</v>
+        <v>962</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -18161,7 +18161,7 @@
         <v>9</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>895</v>
+        <v>963</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>253</v>
@@ -18174,19 +18174,19 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="7" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C68" s="3">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -18200,7 +18200,7 @@
         <v>9</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>253</v>
@@ -18213,19 +18213,19 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="7" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C69" s="3">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -18236,13 +18236,13 @@
         <v>23</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>967</v>
+        <v>541</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>253</v>
+        <v>625</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -18252,7 +18252,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="7" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>878</v>
@@ -18261,10 +18261,10 @@
         <v>2024</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>969</v>
+        <v>920</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>970</v>
+        <v>921</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -18275,13 +18275,13 @@
         <v>23</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>541</v>
+        <v>456</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>625</v>
+        <v>457</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -18291,19 +18291,19 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>878</v>
       </c>
       <c r="C71" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>920</v>
+        <v>973</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>921</v>
+        <v>974</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -18317,10 +18317,10 @@
         <v>9</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>456</v>
+        <v>975</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -18328,67 +18328,71 @@
         <v>863</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="7" t="s">
-        <v>972</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>973</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>975</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="15" t="s">
-        <v>863</v>
+    <row r="72" spans="1:17">
+      <c r="A72" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="19"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="N72" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="O72" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="23" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="19" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C73" s="21">
-        <v>2021</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>170</v>
+        <v>2015</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>172</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
       <c r="H73" s="20" t="s">
         <v>8</v>
       </c>
@@ -18398,25 +18402,25 @@
       <c r="J73" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K73" s="19"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="N73" s="32" t="s">
+      <c r="K73" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L73" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="O73" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="23" t="s">
-        <v>175</v>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>169</v>
@@ -18425,10 +18429,10 @@
         <v>2015</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
@@ -18442,36 +18446,36 @@
         <v>9</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L74" s="20" t="s">
-        <v>174</v>
+        <v>185</v>
+      </c>
+      <c r="L74" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
       <c r="O74" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="P74" s="20"/>
+        <v>187</v>
+      </c>
+      <c r="P74" s="31"/>
       <c r="Q74" s="21" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="19" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C75" s="21">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
@@ -18493,16 +18497,16 @@
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
       <c r="O75" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="P75" s="31"/>
+        <v>192</v>
+      </c>
+      <c r="P75" s="20"/>
       <c r="Q75" s="21" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="19" t="s">
-        <v>189</v>
+      <c r="A76" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>169</v>
@@ -18511,10 +18515,10 @@
         <v>2018</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>196</v>
       </c>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
@@ -18528,36 +18532,36 @@
         <v>9</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L76" s="31" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="L76" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
       <c r="O76" s="31" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P76" s="20"/>
       <c r="Q76" s="21" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="23" t="s">
-        <v>194</v>
+      <c r="A77" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C77" s="21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -18579,16 +18583,16 @@
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
       <c r="O77" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="P77" s="20"/>
+        <v>202</v>
+      </c>
+      <c r="P77" s="31"/>
       <c r="Q77" s="21" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="19" t="s">
-        <v>199</v>
+      <c r="A78" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>169</v>
@@ -18597,10 +18601,10 @@
         <v>2019</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -18614,24 +18618,24 @@
         <v>9</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L78" s="20" t="s">
-        <v>174</v>
+        <v>185</v>
+      </c>
+      <c r="L78" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
       <c r="O78" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="P78" s="31"/>
+        <v>207</v>
+      </c>
+      <c r="P78" s="20"/>
       <c r="Q78" s="21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="24" t="s">
-        <v>204</v>
+      <c r="A79" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>169</v>
@@ -18640,10 +18644,10 @@
         <v>2019</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
@@ -18657,24 +18661,24 @@
         <v>9</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L79" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="L79" s="20" t="s">
         <v>186</v>
       </c>
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
       <c r="O79" s="31" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P79" s="20"/>
       <c r="Q79" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="19" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>169</v>
@@ -18683,10 +18687,10 @@
         <v>2019</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
@@ -18708,16 +18712,16 @@
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
       <c r="O80" s="31" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P80" s="20"/>
       <c r="Q80" s="21" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="19" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>169</v>
@@ -18725,11 +18729,11 @@
       <c r="C81" s="21">
         <v>2019</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>217</v>
+      <c r="D81" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -18743,24 +18747,24 @@
         <v>9</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="L81" s="20" t="s">
-        <v>186</v>
+        <v>223</v>
+      </c>
+      <c r="L81" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
       <c r="O81" s="31" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P81" s="20"/>
       <c r="Q81" s="21" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:17">
-      <c r="A82" s="19" t="s">
-        <v>220</v>
+      <c r="A82" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>169</v>
@@ -18768,11 +18772,11 @@
       <c r="C82" s="21">
         <v>2019</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>222</v>
+      <c r="D82" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
@@ -18794,16 +18798,16 @@
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
       <c r="O82" s="31" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P82" s="20"/>
       <c r="Q82" s="21" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="25" t="s">
-        <v>226</v>
+      <c r="A83" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>169</v>
@@ -18812,10 +18816,10 @@
         <v>2019</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
@@ -18823,7 +18827,7 @@
         <v>8</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J83" s="20" t="s">
         <v>9</v>
@@ -18836,29 +18840,27 @@
       </c>
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
-      <c r="O83" s="31" t="s">
-        <v>229</v>
-      </c>
+      <c r="O83" s="20"/>
       <c r="P83" s="20"/>
       <c r="Q83" s="21" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="24" t="s">
-        <v>231</v>
+      <c r="A84" s="27" t="s">
+        <v>235</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C84" s="21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
@@ -18866,28 +18868,30 @@
         <v>8</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J84" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="L84" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="L84" s="20" t="s">
         <v>174</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
+      <c r="O84" s="31" t="s">
+        <v>238</v>
+      </c>
       <c r="P84" s="20"/>
       <c r="Q84" s="21" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="27" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>169</v>
@@ -18895,11 +18899,11 @@
       <c r="C85" s="21">
         <v>2020</v>
       </c>
-      <c r="D85" s="26" t="s">
-        <v>236</v>
+      <c r="D85" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
@@ -18921,16 +18925,16 @@
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
       <c r="O85" s="31" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="P85" s="20"/>
       <c r="Q85" s="21" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="27" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>169</v>
@@ -18939,10 +18943,10 @@
         <v>2020</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
@@ -18956,24 +18960,24 @@
         <v>9</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L86" s="20" t="s">
-        <v>174</v>
+        <v>185</v>
+      </c>
+      <c r="L86" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
       <c r="O86" s="31" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="P86" s="20"/>
       <c r="Q86" s="21" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="27" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>169</v>
@@ -18981,11 +18985,11 @@
       <c r="C87" s="21">
         <v>2020</v>
       </c>
-      <c r="D87" s="21" t="s">
-        <v>245</v>
+      <c r="D87" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
@@ -18999,24 +19003,22 @@
         <v>9</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L87" s="31" t="s">
-        <v>186</v>
+        <v>252</v>
+      </c>
+      <c r="L87" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
-      <c r="O87" s="31" t="s">
-        <v>247</v>
-      </c>
+      <c r="O87" s="21"/>
       <c r="P87" s="20"/>
       <c r="Q87" s="21" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>169</v>
@@ -19025,10 +19027,10 @@
         <v>2020</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
@@ -19036,28 +19038,28 @@
         <v>8</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J88" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="22" t="s">
-        <v>252</v>
+      <c r="K88" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="L88" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
-      <c r="O88" s="21"/>
+      <c r="O88" s="20"/>
       <c r="P88" s="20"/>
       <c r="Q88" s="21" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="27" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>169</v>
@@ -19066,10 +19068,10 @@
         <v>2020</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
@@ -19077,40 +19079,42 @@
         <v>8</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J89" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K89" s="26" t="s">
-        <v>258</v>
+      <c r="K89" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="L89" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M89" s="20"/>
       <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
+      <c r="O89" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="P89" s="20"/>
       <c r="Q89" s="21" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="27" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C90" s="21">
-        <v>2020</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>261</v>
+        <v>2021</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
@@ -19118,30 +19122,28 @@
         <v>8</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J90" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="L90" s="20" t="s">
-        <v>253</v>
+        <v>223</v>
+      </c>
+      <c r="L90" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
-      <c r="O90" s="20" t="s">
-        <v>37</v>
-      </c>
+      <c r="O90" s="20"/>
       <c r="P90" s="20"/>
       <c r="Q90" s="21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="27" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B91" s="20" t="s">
         <v>169</v>
@@ -19149,11 +19151,11 @@
       <c r="C91" s="21">
         <v>2021</v>
       </c>
-      <c r="D91" s="21" t="s">
-        <v>266</v>
+      <c r="D91" s="26" t="s">
+        <v>270</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
@@ -19161,28 +19163,30 @@
         <v>8</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J91" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="L91" s="31" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
+      <c r="O91" s="31" t="s">
+        <v>272</v>
+      </c>
       <c r="P91" s="20"/>
       <c r="Q91" s="21" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="27" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>169</v>
@@ -19191,10 +19195,10 @@
         <v>2021</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
@@ -19202,30 +19206,30 @@
         <v>8</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J92" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="L92" s="31" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M92" s="20"/>
       <c r="N92" s="20"/>
       <c r="O92" s="31" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="P92" s="20"/>
       <c r="Q92" s="21" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="27" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>169</v>
@@ -19234,10 +19238,10 @@
         <v>2021</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
@@ -19248,7 +19252,7 @@
         <v>23</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K93" s="22" t="s">
         <v>223</v>
@@ -19259,16 +19263,16 @@
       <c r="M93" s="20"/>
       <c r="N93" s="20"/>
       <c r="O93" s="31" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P93" s="20"/>
       <c r="Q93" s="21" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="27" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>169</v>
@@ -19277,10 +19281,10 @@
         <v>2021</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
@@ -19291,7 +19295,7 @@
         <v>23</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K94" s="22" t="s">
         <v>223</v>
@@ -19302,16 +19306,16 @@
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
       <c r="O94" s="31" t="s">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c r="P94" s="20"/>
       <c r="Q94" s="21" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="27" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>169</v>
@@ -19319,11 +19323,11 @@
       <c r="C95" s="21">
         <v>2021</v>
       </c>
-      <c r="D95" s="26" t="s">
-        <v>283</v>
+      <c r="D95" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
@@ -19337,36 +19341,36 @@
         <v>9</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="L95" s="31" t="s">
-        <v>174</v>
+        <v>252</v>
+      </c>
+      <c r="L95" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="M95" s="20"/>
       <c r="N95" s="20"/>
       <c r="O95" s="31" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="P95" s="20"/>
       <c r="Q95" s="21" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="27" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C96" s="21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
@@ -19374,30 +19378,32 @@
         <v>8</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J96" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="L96" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="N96" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="O96" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P96" s="20"/>
+        <v>294</v>
+      </c>
+      <c r="P96" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="Q96" s="21" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="27" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>169</v>
@@ -19406,10 +19412,10 @@
         <v>2022</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
@@ -19420,29 +19426,25 @@
         <v>7</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K97" s="21"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="N97" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="O97" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="P97" s="31" t="s">
-        <v>295</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K97" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="L97" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
       <c r="Q97" s="21" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="27" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>169</v>
@@ -19450,11 +19452,11 @@
       <c r="C98" s="21">
         <v>2022</v>
       </c>
-      <c r="D98" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="E98" s="28" t="s">
-        <v>299</v>
+      <c r="D98" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
@@ -19465,25 +19467,27 @@
         <v>7</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="L98" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M98" s="20"/>
       <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
+      <c r="O98" s="31" t="s">
+        <v>305</v>
+      </c>
       <c r="P98" s="20"/>
-      <c r="Q98" s="21" t="s">
-        <v>301</v>
+      <c r="Q98" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="27" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>169</v>
@@ -19491,11 +19495,11 @@
       <c r="C99" s="21">
         <v>2022</v>
       </c>
-      <c r="D99" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>304</v>
+      <c r="D99" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
@@ -19503,7 +19507,7 @@
         <v>8</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J99" s="20" t="s">
         <v>9</v>
@@ -19517,16 +19521,16 @@
       <c r="M99" s="20"/>
       <c r="N99" s="20"/>
       <c r="O99" s="31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P99" s="20"/>
-      <c r="Q99" s="7" t="s">
-        <v>306</v>
+      <c r="Q99" s="22" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="27" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>169</v>
@@ -19535,10 +19539,10 @@
         <v>2022</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="E100" s="28" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
@@ -19546,30 +19550,32 @@
         <v>8</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="L100" s="20" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M100" s="20"/>
       <c r="N100" s="20"/>
       <c r="O100" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="P100" s="20"/>
+        <v>316</v>
+      </c>
+      <c r="P100" s="31" t="s">
+        <v>317</v>
+      </c>
       <c r="Q100" s="22" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="27" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>169</v>
@@ -19578,10 +19584,10 @@
         <v>2022</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
@@ -19589,13 +19595,13 @@
         <v>8</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J101" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="L101" s="20" t="s">
         <v>186</v>
@@ -19603,18 +19609,18 @@
       <c r="M101" s="20"/>
       <c r="N101" s="20"/>
       <c r="O101" s="31" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P101" s="31" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q101" s="22" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="27" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>169</v>
@@ -19623,13 +19629,17 @@
         <v>2022</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
+        <v>326</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>328</v>
+      </c>
       <c r="H102" s="20" t="s">
         <v>8</v>
       </c>
@@ -19640,26 +19650,24 @@
         <v>9</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L102" s="20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M102" s="20"/>
       <c r="N102" s="20"/>
       <c r="O102" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="P102" s="31" t="s">
-        <v>323</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P102" s="20"/>
       <c r="Q102" s="22" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="27" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>169</v>
@@ -19667,18 +19675,14 @@
       <c r="C103" s="21">
         <v>2022</v>
       </c>
-      <c r="D103" s="22" t="s">
-        <v>326</v>
+      <c r="D103" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>328</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
       <c r="H103" s="20" t="s">
         <v>8</v>
       </c>
@@ -19696,17 +19700,15 @@
       </c>
       <c r="M103" s="20"/>
       <c r="N103" s="20"/>
-      <c r="O103" s="31" t="s">
-        <v>65</v>
-      </c>
+      <c r="O103" s="20"/>
       <c r="P103" s="20"/>
       <c r="Q103" s="22" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="27" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>169</v>
@@ -19714,11 +19716,11 @@
       <c r="C104" s="21">
         <v>2022</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>331</v>
+      <c r="D104" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
@@ -19739,58 +19741,64 @@
       </c>
       <c r="M104" s="20"/>
       <c r="N104" s="20"/>
-      <c r="O104" s="20"/>
+      <c r="O104" s="31" t="s">
+        <v>337</v>
+      </c>
       <c r="P104" s="20"/>
       <c r="Q104" s="22" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="27" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C105" s="21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E105" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
+        <v>340</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="H105" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I105" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J105" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="L105" s="20" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="M105" s="20"/>
       <c r="N105" s="20"/>
       <c r="O105" s="31" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="P105" s="20"/>
       <c r="Q105" s="22" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="27" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>169</v>
@@ -19799,17 +19807,13 @@
         <v>2023</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="F106" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>342</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
       <c r="H106" s="20" t="s">
         <v>8</v>
       </c>
@@ -19819,25 +19823,27 @@
       <c r="J106" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K106" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="L106" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="N106" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="O106" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="P106" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="P106" s="31" t="s">
+        <v>349</v>
+      </c>
       <c r="Q106" s="22" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="27" t="s">
-        <v>346</v>
+      <c r="A107" s="34" t="s">
+        <v>351</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>169</v>
@@ -19845,11 +19851,11 @@
       <c r="C107" s="21">
         <v>2023</v>
       </c>
-      <c r="D107" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>348</v>
+      <c r="D107" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>353</v>
       </c>
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
@@ -19857,32 +19863,30 @@
         <v>8</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J107" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K107" s="21"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N107" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="K107" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L107" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
       <c r="O107" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="P107" s="31" t="s">
-        <v>349</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="P107" s="20"/>
       <c r="Q107" s="22" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="34" t="s">
-        <v>351</v>
+      <c r="A108" s="27" t="s">
+        <v>356</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>169</v>
@@ -19890,11 +19894,11 @@
       <c r="C108" s="21">
         <v>2023</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>352</v>
+      <c r="D108" s="35" t="s">
+        <v>357</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
@@ -19902,7 +19906,7 @@
         <v>8</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J108" s="20" t="s">
         <v>9</v>
@@ -19915,17 +19919,15 @@
       </c>
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
-      <c r="O108" s="31" t="s">
-        <v>354</v>
-      </c>
+      <c r="O108" s="20"/>
       <c r="P108" s="20"/>
       <c r="Q108" s="22" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="27" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>169</v>
@@ -19933,11 +19935,11 @@
       <c r="C109" s="21">
         <v>2023</v>
       </c>
-      <c r="D109" s="35" t="s">
-        <v>357</v>
+      <c r="D109" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
@@ -19958,15 +19960,17 @@
       </c>
       <c r="M109" s="20"/>
       <c r="N109" s="20"/>
-      <c r="O109" s="20"/>
+      <c r="O109" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="P109" s="20"/>
       <c r="Q109" s="22" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="27" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>169</v>
@@ -19974,11 +19978,11 @@
       <c r="C110" s="21">
         <v>2023</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>361</v>
+      <c r="D110" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="E110" s="28" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
@@ -20000,16 +20004,16 @@
       <c r="M110" s="20"/>
       <c r="N110" s="20"/>
       <c r="O110" s="31" t="s">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="P110" s="20"/>
       <c r="Q110" s="22" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="27" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>169</v>
@@ -20018,18 +20022,18 @@
         <v>2023</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
       <c r="H111" s="20" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J111" s="20" t="s">
         <v>9</v>
@@ -20042,17 +20046,17 @@
       </c>
       <c r="M111" s="20"/>
       <c r="N111" s="20"/>
-      <c r="O111" s="31" t="s">
-        <v>367</v>
+      <c r="O111" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="P111" s="20"/>
       <c r="Q111" s="22" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="27" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>169</v>
@@ -20061,10 +20065,10 @@
         <v>2023</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
@@ -20078,39 +20082,43 @@
         <v>9</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="L112" s="20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M112" s="20"/>
       <c r="N112" s="20"/>
-      <c r="O112" s="7" t="s">
-        <v>372</v>
+      <c r="O112" s="31" t="s">
+        <v>377</v>
       </c>
       <c r="P112" s="20"/>
       <c r="Q112" s="22" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="27" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C113" s="21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
+        <v>381</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>383</v>
+      </c>
       <c r="H113" s="20" t="s">
         <v>77</v>
       </c>
@@ -20121,24 +20129,22 @@
         <v>9</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="L113" s="20" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="M113" s="20"/>
       <c r="N113" s="20"/>
-      <c r="O113" s="31" t="s">
-        <v>377</v>
-      </c>
+      <c r="O113" s="20"/>
       <c r="P113" s="20"/>
       <c r="Q113" s="22" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="27" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>169</v>
@@ -20147,43 +20153,47 @@
         <v>2024</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="E114" s="28" t="s">
-        <v>381</v>
+        <v>386</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>387</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>382</v>
+        <v>86</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="J114" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="L114" s="20" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="M114" s="20"/>
       <c r="N114" s="20"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20"/>
+      <c r="O114" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="P114" s="31" t="s">
+        <v>390</v>
+      </c>
       <c r="Q114" s="22" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="27" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B115" s="20" t="s">
         <v>169</v>
@@ -20191,18 +20201,14 @@
       <c r="C115" s="21">
         <v>2024</v>
       </c>
-      <c r="D115" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="F115" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>388</v>
-      </c>
+      <c r="D115" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
       <c r="H115" s="20" t="s">
         <v>8</v>
       </c>
@@ -20210,29 +20216,27 @@
         <v>23</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="L115" s="20" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="M115" s="20"/>
       <c r="N115" s="20"/>
-      <c r="O115" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="P115" s="31" t="s">
-        <v>390</v>
-      </c>
+      <c r="O115" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="P115" s="20"/>
       <c r="Q115" s="22" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="27" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>169</v>
@@ -20240,14 +20244,18 @@
       <c r="C116" s="21">
         <v>2024</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>393</v>
+      <c r="D116" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
+        <v>399</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="H116" s="20" t="s">
         <v>8</v>
       </c>
@@ -20255,7 +20263,7 @@
         <v>23</v>
       </c>
       <c r="J116" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K116" s="22" t="s">
         <v>252</v>
@@ -20265,17 +20273,17 @@
       </c>
       <c r="M116" s="20"/>
       <c r="N116" s="20"/>
-      <c r="O116" s="15" t="s">
-        <v>395</v>
+      <c r="O116" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="P116" s="20"/>
       <c r="Q116" s="22" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="27" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>169</v>
@@ -20284,45 +20292,45 @@
         <v>2024</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F117" s="28" t="s">
-        <v>96</v>
+        <v>405</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="H117" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I117" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J117" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="L117" s="20" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M117" s="20"/>
       <c r="N117" s="20"/>
       <c r="O117" s="31" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="P117" s="20"/>
       <c r="Q117" s="22" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="27" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B118" s="20" t="s">
         <v>169</v>
@@ -20331,22 +20339,18 @@
         <v>2024</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="F118" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>406</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
       <c r="H118" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I118" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J118" s="20" t="s">
         <v>9</v>
@@ -20360,16 +20364,18 @@
       <c r="M118" s="20"/>
       <c r="N118" s="20"/>
       <c r="O118" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="P118" s="20"/>
+        <v>412</v>
+      </c>
+      <c r="P118" s="31" t="s">
+        <v>413</v>
+      </c>
       <c r="Q118" s="22" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="27" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>169</v>
@@ -20378,10 +20384,10 @@
         <v>2024</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
@@ -20403,18 +20409,18 @@
       <c r="M119" s="20"/>
       <c r="N119" s="20"/>
       <c r="O119" s="31" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="P119" s="31" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q119" s="22" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="27" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>169</v>
@@ -20423,13 +20429,17 @@
         <v>2024</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="E120" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
+        <v>422</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F120" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>425</v>
+      </c>
       <c r="H120" s="20" t="s">
         <v>8</v>
       </c>
@@ -20439,27 +20449,25 @@
       <c r="J120" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K120" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L120" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="M120" s="20"/>
-      <c r="N120" s="20"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="N120" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="O120" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="P120" s="31" t="s">
-        <v>419</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="P120" s="20"/>
       <c r="Q120" s="22" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="27" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>169</v>
@@ -20468,17 +20476,13 @@
         <v>2024</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="G121" s="22" t="s">
-        <v>425</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
       <c r="H121" s="20" t="s">
         <v>8</v>
       </c>
@@ -20488,25 +20492,25 @@
       <c r="J121" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K121" s="21"/>
-      <c r="L121" s="20"/>
-      <c r="M121" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="N121" s="20" t="s">
-        <v>253</v>
-      </c>
+      <c r="K121" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L121" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M121" s="20"/>
+      <c r="N121" s="20"/>
       <c r="O121" s="31" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P121" s="20"/>
       <c r="Q121" s="22" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="27" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>169</v>
@@ -20514,14 +20518,18 @@
       <c r="C122" s="21">
         <v>2024</v>
       </c>
-      <c r="D122" s="22" t="s">
-        <v>430</v>
+      <c r="D122" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="E122" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
+        <v>436</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>437</v>
+      </c>
       <c r="H122" s="20" t="s">
         <v>8</v>
       </c>
@@ -20532,42 +20540,44 @@
         <v>9</v>
       </c>
       <c r="K122" s="22" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L122" s="20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M122" s="20"/>
       <c r="N122" s="20"/>
       <c r="O122" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="P122" s="20"/>
+        <v>438</v>
+      </c>
+      <c r="P122" s="31" t="s">
+        <v>439</v>
+      </c>
       <c r="Q122" s="22" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="27" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B123" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C123" s="21">
-        <v>2024</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>435</v>
+        <v>2019</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>442</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="F123" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H123" s="20" t="s">
         <v>8</v>
@@ -20579,7 +20589,7 @@
         <v>9</v>
       </c>
       <c r="K123" s="22" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="L123" s="20" t="s">
         <v>174</v>
@@ -20587,36 +20597,34 @@
       <c r="M123" s="20"/>
       <c r="N123" s="20"/>
       <c r="O123" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="P123" s="31" t="s">
-        <v>439</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P123" s="20"/>
       <c r="Q123" s="22" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="27" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B124" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C124" s="21">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>442</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F124" s="28" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H124" s="20" t="s">
         <v>8</v>
@@ -20628,7 +20636,7 @@
         <v>9</v>
       </c>
       <c r="K124" s="22" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="L124" s="20" t="s">
         <v>174</v>
@@ -20636,16 +20644,18 @@
       <c r="M124" s="20"/>
       <c r="N124" s="20"/>
       <c r="O124" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="P124" s="20"/>
+        <v>449</v>
+      </c>
+      <c r="P124" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="Q124" s="22" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="27" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B125" s="20" t="s">
         <v>169</v>
@@ -20656,14 +20666,14 @@
       <c r="D125" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="E125" s="28" t="s">
-        <v>447</v>
+      <c r="E125" s="22" t="s">
+        <v>453</v>
       </c>
       <c r="F125" s="28" t="s">
-        <v>105</v>
+        <v>454</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H125" s="20" t="s">
         <v>8</v>
@@ -20675,26 +20685,22 @@
         <v>9</v>
       </c>
       <c r="K125" s="22" t="s">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="L125" s="20" t="s">
-        <v>174</v>
+        <v>457</v>
       </c>
       <c r="M125" s="20"/>
       <c r="N125" s="20"/>
-      <c r="O125" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="P125" s="31" t="s">
-        <v>450</v>
-      </c>
+      <c r="O125" s="20"/>
+      <c r="P125" s="20"/>
       <c r="Q125" s="22" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="27" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B126" s="20" t="s">
         <v>169</v>
@@ -20703,16 +20709,16 @@
         <v>2021</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>453</v>
+        <v>460</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>461</v>
       </c>
       <c r="F126" s="28" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H126" s="20" t="s">
         <v>8</v>
@@ -20723,41 +20729,41 @@
       <c r="J126" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K126" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="L126" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="M126" s="20"/>
-      <c r="N126" s="20"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="N126" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="O126" s="20"/>
       <c r="P126" s="20"/>
       <c r="Q126" s="22" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="27" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C127" s="21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>461</v>
+        <v>467</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>468</v>
       </c>
       <c r="F127" s="28" t="s">
-        <v>462</v>
+        <v>116</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H127" s="20" t="s">
         <v>8</v>
@@ -20771,38 +20777,40 @@
       <c r="K127" s="21"/>
       <c r="L127" s="20"/>
       <c r="M127" s="31" t="s">
-        <v>464</v>
+        <v>173</v>
       </c>
       <c r="N127" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="O127" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="O127" s="31" t="s">
+        <v>103</v>
+      </c>
       <c r="P127" s="20"/>
       <c r="Q127" s="22" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:17">
-      <c r="A128" s="27" t="s">
-        <v>466</v>
+      <c r="A128" s="34" t="s">
+        <v>471</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C128" s="21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>468</v>
+        <v>472</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>473</v>
       </c>
       <c r="F128" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>469</v>
+        <v>474</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>475</v>
       </c>
       <c r="H128" s="20" t="s">
         <v>8</v>
@@ -20813,25 +20821,25 @@
       <c r="J128" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K128" s="21"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N128" s="20" t="s">
+      <c r="K128" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L128" s="20" t="s">
         <v>174</v>
       </c>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
       <c r="O128" s="31" t="s">
-        <v>103</v>
+        <v>476</v>
       </c>
       <c r="P128" s="20"/>
       <c r="Q128" s="22" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:17">
-      <c r="A129" s="34" t="s">
-        <v>471</v>
+      <c r="A129" s="27" t="s">
+        <v>478</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>169</v>
@@ -20840,16 +20848,16 @@
         <v>2023</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F129" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="G129" s="21" t="s">
-        <v>475</v>
+        <v>481</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>482</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>8</v>
@@ -20869,16 +20877,16 @@
       <c r="M129" s="20"/>
       <c r="N129" s="20"/>
       <c r="O129" s="31" t="s">
-        <v>476</v>
+        <v>113</v>
       </c>
       <c r="P129" s="20"/>
       <c r="Q129" s="22" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="27" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B130" s="20" t="s">
         <v>169</v>
@@ -20887,16 +20895,16 @@
         <v>2023</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F130" s="28" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H130" s="20" t="s">
         <v>8</v>
@@ -20907,25 +20915,25 @@
       <c r="J130" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K130" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="L130" s="20" t="s">
+      <c r="K130" s="21"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="N130" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="M130" s="20"/>
-      <c r="N130" s="20"/>
       <c r="O130" s="31" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="P130" s="20"/>
-      <c r="Q130" s="22" t="s">
-        <v>483</v>
+      <c r="Q130" s="21" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="27" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B131" s="20" t="s">
         <v>169</v>
@@ -20934,16 +20942,16 @@
         <v>2023</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F131" s="28" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H131" s="20" t="s">
         <v>8</v>
@@ -20954,25 +20962,25 @@
       <c r="J131" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K131" s="21"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N131" s="20" t="s">
+      <c r="K131" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L131" s="20" t="s">
         <v>174</v>
       </c>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
       <c r="O131" s="31" t="s">
-        <v>93</v>
+        <v>494</v>
       </c>
       <c r="P131" s="20"/>
-      <c r="Q131" s="21" t="s">
-        <v>489</v>
+      <c r="Q131" s="22" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="27" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>169</v>
@@ -20983,14 +20991,14 @@
       <c r="D132" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="E132" s="28" t="s">
-        <v>491</v>
+      <c r="E132" s="29" t="s">
+        <v>497</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H132" s="20" t="s">
         <v>8</v>
@@ -21002,10 +21010,10 @@
         <v>9</v>
       </c>
       <c r="K132" s="22" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M132" s="20"/>
       <c r="N132" s="20"/>
@@ -21014,42 +21022,38 @@
       </c>
       <c r="P132" s="20"/>
       <c r="Q132" s="22" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:17">
-      <c r="A133" s="27" t="s">
-        <v>496</v>
+      <c r="A133" s="34" t="s">
+        <v>501</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C133" s="21">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="E133" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>499</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
       <c r="H133" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I133" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J133" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K133" s="22" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="L133" s="20" t="s">
         <v>186</v>
@@ -21057,16 +21061,16 @@
       <c r="M133" s="20"/>
       <c r="N133" s="20"/>
       <c r="O133" s="31" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
       <c r="P133" s="20"/>
       <c r="Q133" s="22" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134" spans="1:17">
-      <c r="A134" s="34" t="s">
-        <v>501</v>
+      <c r="A134" s="27" t="s">
+        <v>505</v>
       </c>
       <c r="B134" s="20" t="s">
         <v>169</v>
@@ -21074,11 +21078,11 @@
       <c r="C134" s="21">
         <v>2022</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>502</v>
+      <c r="D134" s="7" t="s">
+        <v>506</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
@@ -21086,12 +21090,12 @@
         <v>8</v>
       </c>
       <c r="I134" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J134" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K134" s="22" t="s">
+      <c r="K134" s="21" t="s">
         <v>185</v>
       </c>
       <c r="L134" s="20" t="s">
@@ -21100,28 +21104,28 @@
       <c r="M134" s="20"/>
       <c r="N134" s="20"/>
       <c r="O134" s="31" t="s">
-        <v>42</v>
+        <v>508</v>
       </c>
       <c r="P134" s="20"/>
       <c r="Q134" s="22" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="135" spans="1:17">
-      <c r="A135" s="27" t="s">
-        <v>505</v>
+      <c r="A135" s="34" t="s">
+        <v>510</v>
       </c>
       <c r="B135" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C135" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>506</v>
+        <v>2023</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>511</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
@@ -21134,107 +21138,107 @@
       <c r="J135" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K135" s="21" t="s">
-        <v>185</v>
+      <c r="K135" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="L135" s="20" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="20"/>
-      <c r="O135" s="31" t="s">
-        <v>508</v>
-      </c>
+      <c r="O135" s="20"/>
       <c r="P135" s="20"/>
       <c r="Q135" s="22" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:17">
-      <c r="A136" s="34" t="s">
-        <v>510</v>
+      <c r="A136" s="27" t="s">
+        <v>514</v>
       </c>
       <c r="B136" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C136" s="21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E136" s="28" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
       <c r="H136" s="20" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J136" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="L136" s="20" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M136" s="20"/>
       <c r="N136" s="20"/>
       <c r="O136" s="20"/>
       <c r="P136" s="20"/>
       <c r="Q136" s="22" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:17">
-      <c r="A137" s="27" t="s">
-        <v>514</v>
+      <c r="A137" s="34" t="s">
+        <v>518</v>
       </c>
       <c r="B137" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C137" s="21">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
       <c r="H137" s="20" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J137" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K137" s="22" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="L137" s="20" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="M137" s="20"/>
       <c r="N137" s="20"/>
-      <c r="O137" s="20"/>
+      <c r="O137" s="31" t="s">
+        <v>521</v>
+      </c>
       <c r="P137" s="20"/>
       <c r="Q137" s="22" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138" spans="1:17">
-      <c r="A138" s="34" t="s">
-        <v>518</v>
+      <c r="A138" s="27" t="s">
+        <v>523</v>
       </c>
       <c r="B138" s="20" t="s">
         <v>169</v>
@@ -21243,10 +21247,10 @@
         <v>2021</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="E138" s="28" t="s">
-        <v>520</v>
+        <v>524</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>525</v>
       </c>
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
@@ -21254,13 +21258,13 @@
         <v>8</v>
       </c>
       <c r="I138" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J138" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K138" s="22" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="L138" s="20" t="s">
         <v>253</v>
@@ -21268,28 +21272,28 @@
       <c r="M138" s="20"/>
       <c r="N138" s="20"/>
       <c r="O138" s="31" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="P138" s="20"/>
       <c r="Q138" s="22" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="27" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C139" s="21">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="E139" s="22" t="s">
-        <v>525</v>
+        <v>529</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>530</v>
       </c>
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
@@ -21303,7 +21307,7 @@
         <v>9</v>
       </c>
       <c r="K139" s="22" t="s">
-        <v>343</v>
+        <v>252</v>
       </c>
       <c r="L139" s="20" t="s">
         <v>253</v>
@@ -21311,28 +21315,28 @@
       <c r="M139" s="20"/>
       <c r="N139" s="20"/>
       <c r="O139" s="31" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P139" s="20"/>
-      <c r="Q139" s="22" t="s">
-        <v>527</v>
+      <c r="Q139" s="21" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="140" spans="1:17">
-      <c r="A140" s="27" t="s">
-        <v>528</v>
+      <c r="A140" s="34" t="s">
+        <v>533</v>
       </c>
       <c r="B140" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C140" s="21">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
@@ -21354,16 +21358,18 @@
       <c r="M140" s="20"/>
       <c r="N140" s="20"/>
       <c r="O140" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="P140" s="20"/>
+        <v>536</v>
+      </c>
+      <c r="P140" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="Q140" s="21" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="34" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>169</v>
@@ -21372,10 +21378,10 @@
         <v>2018</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
@@ -21389,26 +21395,22 @@
         <v>9</v>
       </c>
       <c r="K141" s="22" t="s">
-        <v>252</v>
+        <v>541</v>
       </c>
       <c r="L141" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="20"/>
-      <c r="O141" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="P141" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q141" s="21" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17">
+      <c r="O141" s="20"/>
+      <c r="P141" s="20"/>
+      <c r="Q141" s="22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="142" ht="36" spans="1:17">
       <c r="A142" s="34" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B142" s="20" t="s">
         <v>169</v>
@@ -21419,8 +21421,8 @@
       <c r="D142" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E142" s="28" t="s">
-        <v>540</v>
+      <c r="E142" s="35" t="s">
+        <v>544</v>
       </c>
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
@@ -21441,28 +21443,28 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="20"/>
-      <c r="O142" s="20"/>
+      <c r="O142" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="P142" s="20"/>
       <c r="Q142" s="22" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="143" ht="36" spans="1:17">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" s="34" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C143" s="21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>544</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="E143" s="21"/>
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
       <c r="H143" s="20" t="s">
@@ -21475,7 +21477,7 @@
         <v>9</v>
       </c>
       <c r="K143" s="22" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L143" s="20" t="s">
         <v>253</v>
@@ -21483,16 +21485,16 @@
       <c r="M143" s="20"/>
       <c r="N143" s="20"/>
       <c r="O143" s="31" t="s">
-        <v>26</v>
+        <v>549</v>
       </c>
       <c r="P143" s="20"/>
       <c r="Q143" s="22" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="34" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>169</v>
@@ -21501,9 +21503,11 @@
         <v>2019</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="E144" s="21"/>
+        <v>552</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>553</v>
+      </c>
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
       <c r="H144" s="20" t="s">
@@ -21516,7 +21520,7 @@
         <v>9</v>
       </c>
       <c r="K144" s="22" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="L144" s="20" t="s">
         <v>253</v>
@@ -21524,16 +21528,18 @@
       <c r="M144" s="20"/>
       <c r="N144" s="20"/>
       <c r="O144" s="31" t="s">
-        <v>549</v>
-      </c>
-      <c r="P144" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="P144" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="Q144" s="22" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="34" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B145" s="20" t="s">
         <v>169</v>
@@ -21542,10 +21548,10 @@
         <v>2019</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="E145" s="22" t="s">
-        <v>553</v>
+        <v>539</v>
+      </c>
+      <c r="E145" s="29" t="s">
+        <v>557</v>
       </c>
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
@@ -21559,7 +21565,7 @@
         <v>9</v>
       </c>
       <c r="K145" s="22" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="L145" s="20" t="s">
         <v>253</v>
@@ -21567,18 +21573,16 @@
       <c r="M145" s="20"/>
       <c r="N145" s="20"/>
       <c r="O145" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="P145" s="31" t="s">
-        <v>26</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="P145" s="20"/>
       <c r="Q145" s="22" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:17">
-      <c r="A146" s="34" t="s">
-        <v>556</v>
+      <c r="A146" s="27" t="s">
+        <v>559</v>
       </c>
       <c r="B146" s="20" t="s">
         <v>169</v>
@@ -21589,8 +21593,8 @@
       <c r="D146" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E146" s="29" t="s">
-        <v>557</v>
+      <c r="E146" s="22" t="s">
+        <v>560</v>
       </c>
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
@@ -21604,7 +21608,7 @@
         <v>9</v>
       </c>
       <c r="K146" s="22" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="L146" s="20" t="s">
         <v>253</v>
@@ -21612,16 +21616,18 @@
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
       <c r="O146" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P146" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="P146" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="Q146" s="22" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="147" spans="1:17">
-      <c r="A147" s="27" t="s">
-        <v>559</v>
+      <c r="A147" s="34" t="s">
+        <v>563</v>
       </c>
       <c r="B147" s="20" t="s">
         <v>169</v>
@@ -21633,7 +21639,7 @@
         <v>539</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
@@ -21647,10 +21653,10 @@
         <v>9</v>
       </c>
       <c r="K147" s="22" t="s">
-        <v>561</v>
+        <v>456</v>
       </c>
       <c r="L147" s="20" t="s">
-        <v>253</v>
+        <v>457</v>
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="20"/>
@@ -21661,12 +21667,12 @@
         <v>26</v>
       </c>
       <c r="Q147" s="22" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148" spans="1:17">
-      <c r="A148" s="34" t="s">
-        <v>563</v>
+      <c r="A148" s="27" t="s">
+        <v>566</v>
       </c>
       <c r="B148" s="20" t="s">
         <v>169</v>
@@ -21678,7 +21684,7 @@
         <v>539</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
@@ -21692,10 +21698,10 @@
         <v>9</v>
       </c>
       <c r="K148" s="22" t="s">
-        <v>456</v>
+        <v>252</v>
       </c>
       <c r="L148" s="20" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="M148" s="20"/>
       <c r="N148" s="20"/>
@@ -21706,12 +21712,12 @@
         <v>26</v>
       </c>
       <c r="Q148" s="22" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="149" spans="1:17">
-      <c r="A149" s="27" t="s">
-        <v>566</v>
+      <c r="A149" s="34" t="s">
+        <v>569</v>
       </c>
       <c r="B149" s="20" t="s">
         <v>169</v>
@@ -21720,10 +21726,10 @@
         <v>2019</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
@@ -21737,7 +21743,7 @@
         <v>9</v>
       </c>
       <c r="K149" s="22" t="s">
-        <v>252</v>
+        <v>571</v>
       </c>
       <c r="L149" s="20" t="s">
         <v>253</v>
@@ -21745,18 +21751,16 @@
       <c r="M149" s="20"/>
       <c r="N149" s="20"/>
       <c r="O149" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="P149" s="31" t="s">
-        <v>26</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="P149" s="20"/>
       <c r="Q149" s="22" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="34" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B150" s="20" t="s">
         <v>169</v>
@@ -21765,10 +21769,10 @@
         <v>2019</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
@@ -21776,13 +21780,13 @@
         <v>8</v>
       </c>
       <c r="I150" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J150" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K150" s="22" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="L150" s="20" t="s">
         <v>253</v>
@@ -21790,16 +21794,16 @@
       <c r="M150" s="20"/>
       <c r="N150" s="20"/>
       <c r="O150" s="31" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="P150" s="20"/>
-      <c r="Q150" s="22" t="s">
-        <v>572</v>
+      <c r="Q150" s="21" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="34" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>169</v>
@@ -21808,10 +21812,10 @@
         <v>2019</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>575</v>
+        <v>539</v>
+      </c>
+      <c r="E151" s="28" t="s">
+        <v>580</v>
       </c>
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
@@ -21819,13 +21823,13 @@
         <v>8</v>
       </c>
       <c r="I151" s="20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J151" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K151" s="22" t="s">
-        <v>576</v>
+        <v>252</v>
       </c>
       <c r="L151" s="20" t="s">
         <v>253</v>
@@ -21833,16 +21837,16 @@
       <c r="M151" s="20"/>
       <c r="N151" s="20"/>
       <c r="O151" s="31" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="P151" s="20"/>
-      <c r="Q151" s="21" t="s">
-        <v>578</v>
+      <c r="Q151" s="22" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="34" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>169</v>
@@ -21853,8 +21857,8 @@
       <c r="D152" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E152" s="28" t="s">
-        <v>580</v>
+      <c r="E152" s="22" t="s">
+        <v>584</v>
       </c>
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
@@ -21865,10 +21869,10 @@
         <v>23</v>
       </c>
       <c r="J152" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K152" s="22" t="s">
-        <v>252</v>
+        <v>561</v>
       </c>
       <c r="L152" s="20" t="s">
         <v>253</v>
@@ -21876,16 +21880,18 @@
       <c r="M152" s="20"/>
       <c r="N152" s="20"/>
       <c r="O152" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="P152" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="P152" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="Q152" s="22" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="34" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>169</v>
@@ -21896,8 +21902,8 @@
       <c r="D153" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E153" s="22" t="s">
-        <v>584</v>
+      <c r="E153" s="29" t="s">
+        <v>587</v>
       </c>
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
@@ -21908,10 +21914,10 @@
         <v>23</v>
       </c>
       <c r="J153" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K153" s="22" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="L153" s="20" t="s">
         <v>253</v>
@@ -21919,30 +21925,28 @@
       <c r="M153" s="20"/>
       <c r="N153" s="20"/>
       <c r="O153" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="P153" s="31" t="s">
-        <v>26</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="P153" s="20"/>
       <c r="Q153" s="22" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="34" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C154" s="21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D154" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E154" s="29" t="s">
-        <v>587</v>
+      <c r="E154" s="22" t="s">
+        <v>590</v>
       </c>
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
@@ -21953,27 +21957,27 @@
         <v>23</v>
       </c>
       <c r="J154" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K154" s="22" t="s">
-        <v>541</v>
+        <v>456</v>
       </c>
       <c r="L154" s="20" t="s">
-        <v>253</v>
+        <v>457</v>
       </c>
       <c r="M154" s="20"/>
       <c r="N154" s="20"/>
       <c r="O154" s="31" t="s">
-        <v>581</v>
+        <v>55</v>
       </c>
       <c r="P154" s="20"/>
       <c r="Q154" s="22" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="34" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B155" s="20" t="s">
         <v>169</v>
@@ -21982,10 +21986,10 @@
         <v>2020</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
@@ -21999,24 +22003,22 @@
         <v>9</v>
       </c>
       <c r="K155" s="22" t="s">
-        <v>456</v>
+        <v>595</v>
       </c>
       <c r="L155" s="20" t="s">
         <v>457</v>
       </c>
       <c r="M155" s="20"/>
       <c r="N155" s="20"/>
-      <c r="O155" s="31" t="s">
-        <v>55</v>
-      </c>
+      <c r="O155" s="20"/>
       <c r="P155" s="20"/>
       <c r="Q155" s="22" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="34" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B156" s="20" t="s">
         <v>169</v>
@@ -22025,10 +22027,10 @@
         <v>2020</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>593</v>
+        <v>539</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
@@ -22039,7 +22041,7 @@
         <v>23</v>
       </c>
       <c r="J156" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K156" s="22" t="s">
         <v>595</v>
@@ -22049,15 +22051,17 @@
       </c>
       <c r="M156" s="20"/>
       <c r="N156" s="20"/>
-      <c r="O156" s="20"/>
+      <c r="O156" s="31" t="s">
+        <v>581</v>
+      </c>
       <c r="P156" s="20"/>
       <c r="Q156" s="22" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="34" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B157" s="20" t="s">
         <v>169</v>
@@ -22069,7 +22073,7 @@
         <v>539</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
@@ -22083,10 +22087,10 @@
         <v>40</v>
       </c>
       <c r="K157" s="22" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="L157" s="20" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="M157" s="20"/>
       <c r="N157" s="20"/>
@@ -22095,12 +22099,12 @@
       </c>
       <c r="P157" s="20"/>
       <c r="Q157" s="22" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="34" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B158" s="20" t="s">
         <v>169</v>
@@ -22109,10 +22113,10 @@
         <v>2020</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>601</v>
+        <v>605</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>606</v>
       </c>
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
@@ -22123,27 +22127,25 @@
         <v>23</v>
       </c>
       <c r="J158" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K158" s="22" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L158" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M158" s="20"/>
       <c r="N158" s="20"/>
-      <c r="O158" s="31" t="s">
-        <v>581</v>
-      </c>
+      <c r="O158" s="20"/>
       <c r="P158" s="20"/>
       <c r="Q158" s="22" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="34" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B159" s="20" t="s">
         <v>169</v>
@@ -22152,10 +22154,10 @@
         <v>2020</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>605</v>
+        <v>539</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
@@ -22166,25 +22168,27 @@
         <v>23</v>
       </c>
       <c r="J159" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K159" s="22" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L159" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M159" s="20"/>
       <c r="N159" s="20"/>
-      <c r="O159" s="20"/>
+      <c r="O159" s="31" t="s">
+        <v>581</v>
+      </c>
       <c r="P159" s="20"/>
       <c r="Q159" s="22" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="34" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B160" s="20" t="s">
         <v>169</v>
@@ -22195,8 +22199,8 @@
       <c r="D160" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E160" s="21" t="s">
-        <v>610</v>
+      <c r="E160" s="22" t="s">
+        <v>614</v>
       </c>
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
@@ -22210,129 +22214,129 @@
         <v>40</v>
       </c>
       <c r="K160" s="22" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="L160" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M160" s="20"/>
       <c r="N160" s="20"/>
-      <c r="O160" s="31" t="s">
-        <v>581</v>
-      </c>
+      <c r="O160" s="20"/>
       <c r="P160" s="20"/>
       <c r="Q160" s="22" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="161" spans="1:17">
       <c r="A161" s="34" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B161" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C161" s="21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E161" s="22" t="s">
-        <v>614</v>
+      <c r="E161" s="28" t="s">
+        <v>617</v>
       </c>
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
       <c r="H161" s="20" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I161" s="20" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J161" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K161" s="22" t="s">
-        <v>561</v>
+        <v>223</v>
       </c>
       <c r="L161" s="20" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="M161" s="20"/>
       <c r="N161" s="20"/>
-      <c r="O161" s="20"/>
-      <c r="P161" s="20"/>
+      <c r="O161" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="P161" s="31" t="s">
+        <v>619</v>
+      </c>
       <c r="Q161" s="22" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="162" ht="24" spans="1:17">
       <c r="A162" s="34" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B162" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C162" s="21">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E162" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
+      <c r="E162" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>624</v>
+      </c>
       <c r="H162" s="20" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I162" s="20" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J162" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K162" s="22" t="s">
-        <v>223</v>
+        <v>541</v>
       </c>
       <c r="L162" s="20" t="s">
-        <v>174</v>
+        <v>625</v>
       </c>
       <c r="M162" s="20"/>
       <c r="N162" s="20"/>
       <c r="O162" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="P162" s="31" t="s">
-        <v>619</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="P162" s="20"/>
       <c r="Q162" s="22" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="163" ht="24" spans="1:17">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" s="34" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C163" s="21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D163" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E163" s="35" t="s">
-        <v>622</v>
-      </c>
-      <c r="F163" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="G163" s="22" t="s">
-        <v>624</v>
-      </c>
+      <c r="E163" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
       <c r="H163" s="20" t="s">
         <v>8</v>
       </c>
@@ -22340,39 +22344,39 @@
         <v>7</v>
       </c>
       <c r="J163" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K163" s="22" t="s">
-        <v>541</v>
+        <v>456</v>
       </c>
       <c r="L163" s="20" t="s">
-        <v>625</v>
+        <v>457</v>
       </c>
       <c r="M163" s="20"/>
       <c r="N163" s="20"/>
       <c r="O163" s="31" t="s">
-        <v>581</v>
+        <v>71</v>
       </c>
       <c r="P163" s="20"/>
       <c r="Q163" s="22" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="164" spans="1:17">
       <c r="A164" s="34" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B164" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C164" s="21">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>539</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
@@ -22380,42 +22384,42 @@
         <v>8</v>
       </c>
       <c r="I164" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J164" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>456</v>
+        <v>561</v>
       </c>
       <c r="L164" s="20" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="M164" s="20"/>
       <c r="N164" s="20"/>
       <c r="O164" s="31" t="s">
-        <v>71</v>
+        <v>581</v>
       </c>
       <c r="P164" s="20"/>
       <c r="Q164" s="22" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="165" spans="1:17">
       <c r="A165" s="34" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B165" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C165" s="21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>539</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
@@ -22423,30 +22427,28 @@
         <v>8</v>
       </c>
       <c r="I165" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J165" s="20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K165" s="22" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
       <c r="L165" s="20" t="s">
-        <v>253</v>
+        <v>457</v>
       </c>
       <c r="M165" s="20"/>
       <c r="N165" s="20"/>
-      <c r="O165" s="31" t="s">
-        <v>581</v>
-      </c>
+      <c r="O165" s="20"/>
       <c r="P165" s="20"/>
       <c r="Q165" s="22" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="166" spans="1:17">
       <c r="A166" s="34" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B166" s="20" t="s">
         <v>169</v>
@@ -22455,10 +22457,10 @@
         <v>2021</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>539</v>
+        <v>638</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
@@ -22466,7 +22468,7 @@
         <v>8</v>
       </c>
       <c r="I166" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J166" s="20" t="s">
         <v>9</v>
@@ -22482,12 +22484,12 @@
       <c r="O166" s="20"/>
       <c r="P166" s="20"/>
       <c r="Q166" s="22" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="167" spans="1:17">
       <c r="A167" s="34" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B167" s="20" t="s">
         <v>169</v>
@@ -22496,10 +22498,10 @@
         <v>2021</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>639</v>
+        <v>642</v>
+      </c>
+      <c r="E167" s="28" t="s">
+        <v>643</v>
       </c>
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
@@ -22513,22 +22515,24 @@
         <v>9</v>
       </c>
       <c r="K167" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="L167" s="20" t="s">
-        <v>457</v>
+        <v>252</v>
+      </c>
+      <c r="L167" s="31" t="s">
+        <v>253</v>
       </c>
       <c r="M167" s="20"/>
       <c r="N167" s="20"/>
-      <c r="O167" s="20"/>
+      <c r="O167" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="P167" s="20"/>
       <c r="Q167" s="22" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="34" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B168" s="20" t="s">
         <v>169</v>
@@ -22537,10 +22541,10 @@
         <v>2021</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>642</v>
+        <v>539</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
@@ -22548,7 +22552,7 @@
         <v>8</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J168" s="20" t="s">
         <v>9</v>
@@ -22556,34 +22560,34 @@
       <c r="K168" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="L168" s="31" t="s">
+      <c r="L168" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M168" s="20"/>
       <c r="N168" s="20"/>
       <c r="O168" s="31" t="s">
-        <v>41</v>
+        <v>647</v>
       </c>
       <c r="P168" s="20"/>
       <c r="Q168" s="22" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="1:17">
       <c r="A169" s="34" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B169" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C169" s="21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>539</v>
+        <v>650</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
@@ -22596,25 +22600,23 @@
       <c r="J169" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K169" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="L169" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="M169" s="20"/>
-      <c r="N169" s="20"/>
-      <c r="O169" s="31" t="s">
-        <v>647</v>
-      </c>
+      <c r="K169" s="22"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="N169" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O169" s="20"/>
       <c r="P169" s="20"/>
       <c r="Q169" s="22" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="170" spans="1:17">
       <c r="A170" s="34" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B170" s="20" t="s">
         <v>169</v>
@@ -22623,10 +22625,10 @@
         <v>2022</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
@@ -22642,32 +22644,34 @@
       <c r="K170" s="22"/>
       <c r="L170" s="20"/>
       <c r="M170" s="31" t="s">
-        <v>173</v>
+        <v>656</v>
       </c>
       <c r="N170" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="O170" s="20"/>
+        <v>186</v>
+      </c>
+      <c r="O170" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="P170" s="20"/>
       <c r="Q170" s="22" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="171" spans="1:17">
       <c r="A171" s="34" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B171" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="21">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="E171" s="28" t="s">
-        <v>655</v>
+        <v>659</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
@@ -22675,42 +22679,40 @@
         <v>8</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J171" s="20" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K171" s="22"/>
       <c r="L171" s="20"/>
       <c r="M171" s="31" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="N171" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="O171" s="31" t="s">
-        <v>18</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O171" s="20"/>
       <c r="P171" s="20"/>
       <c r="Q171" s="22" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="172" spans="1:17">
       <c r="A172" s="34" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B172" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C172" s="21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
@@ -22721,25 +22723,29 @@
         <v>23</v>
       </c>
       <c r="J172" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K172" s="22"/>
-      <c r="L172" s="20"/>
-      <c r="M172" s="31" t="s">
-        <v>661</v>
-      </c>
-      <c r="N172" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K172" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="L172" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="O172" s="20"/>
-      <c r="P172" s="20"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="20"/>
+      <c r="O172" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="P172" s="31" t="s">
+        <v>667</v>
+      </c>
       <c r="Q172" s="22" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="173" spans="1:17">
       <c r="A173" s="34" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B173" s="20" t="s">
         <v>169</v>
@@ -22748,10 +22754,10 @@
         <v>2021</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="E173" s="22" t="s">
-        <v>665</v>
+        <v>669</v>
+      </c>
+      <c r="E173" s="28" t="s">
+        <v>670</v>
       </c>
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
@@ -22759,32 +22765,28 @@
         <v>8</v>
       </c>
       <c r="I173" s="20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J173" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K173" s="22" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="L173" s="20" t="s">
         <v>253</v>
       </c>
       <c r="M173" s="20"/>
       <c r="N173" s="20"/>
-      <c r="O173" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="P173" s="31" t="s">
-        <v>667</v>
-      </c>
+      <c r="O173" s="20"/>
+      <c r="P173" s="20"/>
       <c r="Q173" s="22" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="174" ht="24" spans="1:17">
       <c r="A174" s="34" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B174" s="20" t="s">
         <v>169</v>
@@ -22793,10 +22795,10 @@
         <v>2021</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="E174" s="28" t="s">
-        <v>670</v>
+        <v>673</v>
+      </c>
+      <c r="E174" s="35" t="s">
+        <v>674</v>
       </c>
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
@@ -22804,13 +22806,13 @@
         <v>8</v>
       </c>
       <c r="I174" s="20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J174" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K174" s="22" t="s">
-        <v>223</v>
+        <v>675</v>
       </c>
       <c r="L174" s="20" t="s">
         <v>253</v>
@@ -22820,24 +22822,24 @@
       <c r="O174" s="20"/>
       <c r="P174" s="20"/>
       <c r="Q174" s="22" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175" ht="24" spans="1:17">
       <c r="A175" s="34" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B175" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C175" s="21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="E175" s="35" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
@@ -22851,7 +22853,7 @@
         <v>9</v>
       </c>
       <c r="K175" s="22" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="L175" s="20" t="s">
         <v>253</v>
@@ -22861,12 +22863,12 @@
       <c r="O175" s="20"/>
       <c r="P175" s="20"/>
       <c r="Q175" s="22" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="176" ht="24" spans="1:17">
       <c r="A176" s="34" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B176" s="20" t="s">
         <v>169</v>
@@ -22875,13 +22877,17 @@
         <v>2022</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E176" s="35" t="s">
-        <v>679</v>
-      </c>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
+        <v>684</v>
+      </c>
+      <c r="F176" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G176" s="22" t="s">
+        <v>685</v>
+      </c>
       <c r="H176" s="20" t="s">
         <v>8</v>
       </c>
@@ -22902,31 +22908,27 @@
       <c r="O176" s="20"/>
       <c r="P176" s="20"/>
       <c r="Q176" s="22" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="177" ht="24" spans="1:17">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177" s="34" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B177" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C177" s="21">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="E177" s="35" t="s">
-        <v>684</v>
-      </c>
-      <c r="F177" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G177" s="22" t="s">
-        <v>685</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="E177" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
       <c r="H177" s="20" t="s">
         <v>8</v>
       </c>
@@ -22937,22 +22939,24 @@
         <v>9</v>
       </c>
       <c r="K177" s="22" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="L177" s="20" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M177" s="20"/>
       <c r="N177" s="20"/>
-      <c r="O177" s="20"/>
+      <c r="O177" s="31" t="s">
+        <v>691</v>
+      </c>
       <c r="P177" s="20"/>
       <c r="Q177" s="22" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="178" spans="1:17">
       <c r="A178" s="34" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B178" s="20" t="s">
         <v>169</v>
@@ -22961,41 +22965,45 @@
         <v>2024</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
+        <v>695</v>
+      </c>
+      <c r="F178" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="G178" s="22" t="s">
+        <v>697</v>
+      </c>
       <c r="H178" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I178" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J178" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K178" s="22" t="s">
-        <v>690</v>
+        <v>456</v>
       </c>
       <c r="L178" s="20" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
       <c r="M178" s="20"/>
       <c r="N178" s="20"/>
       <c r="O178" s="31" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="P178" s="20"/>
       <c r="Q178" s="22" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="34" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="B179" s="20" t="s">
         <v>169</v>
@@ -23004,176 +23012,170 @@
         <v>2024</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>694</v>
-      </c>
-      <c r="E179" s="22" t="s">
-        <v>695</v>
-      </c>
-      <c r="F179" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="G179" s="22" t="s">
-        <v>697</v>
+        <v>673</v>
+      </c>
+      <c r="E179" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="F179" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="G179" s="35" t="s">
+        <v>703</v>
       </c>
       <c r="H179" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I179" s="20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J179" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K179" s="22" t="s">
-        <v>456</v>
+        <v>223</v>
       </c>
       <c r="L179" s="20" t="s">
-        <v>457</v>
+        <v>174</v>
       </c>
       <c r="M179" s="20"/>
       <c r="N179" s="20"/>
-      <c r="O179" s="31" t="s">
-        <v>698</v>
-      </c>
+      <c r="O179" s="20"/>
       <c r="P179" s="20"/>
       <c r="Q179" s="22" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="180" spans="1:17">
       <c r="A180" s="34" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B180" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C180" s="21">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="E180" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="F180" s="35" t="s">
-        <v>702</v>
-      </c>
-      <c r="G180" s="35" t="s">
-        <v>703</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
       <c r="H180" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I180" s="20" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J180" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K180" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="L180" s="20" t="s">
-        <v>174</v>
+        <v>212</v>
+      </c>
+      <c r="L180" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="M180" s="20"/>
       <c r="N180" s="20"/>
       <c r="O180" s="20"/>
       <c r="P180" s="20"/>
       <c r="Q180" s="22" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="181" spans="1:17">
       <c r="A181" s="34" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B181" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C181" s="21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="E181" s="28" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
       <c r="H181" s="20" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I181" s="20" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J181" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K181" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="L181" s="31" t="s">
-        <v>186</v>
+        <v>223</v>
+      </c>
+      <c r="L181" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="M181" s="20"/>
       <c r="N181" s="20"/>
-      <c r="O181" s="20"/>
-      <c r="P181" s="20"/>
+      <c r="O181" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="P181" s="31" t="s">
+        <v>713</v>
+      </c>
       <c r="Q181" s="22" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="182" spans="1:17">
       <c r="A182" s="34" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B182" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C182" s="21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
       <c r="H182" s="20" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I182" s="20" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J182" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K182" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="L182" s="20" t="s">
+      <c r="K182" s="21"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="N182" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="M182" s="20"/>
-      <c r="N182" s="20"/>
-      <c r="O182" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="P182" s="31" t="s">
-        <v>713</v>
-      </c>
+      <c r="O182" s="20"/>
+      <c r="P182" s="20"/>
       <c r="Q182" s="22" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:17">
       <c r="A183" s="34" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B183" s="20" t="s">
         <v>169</v>
@@ -23181,11 +23183,11 @@
       <c r="C183" s="21">
         <v>2020</v>
       </c>
-      <c r="D183" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="E183" s="28" t="s">
-        <v>716</v>
+      <c r="D183" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="E183" s="22" t="s">
+        <v>720</v>
       </c>
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
@@ -23198,23 +23200,25 @@
       <c r="J183" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K183" s="21"/>
-      <c r="L183" s="20"/>
-      <c r="M183" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N183" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="O183" s="20"/>
+      <c r="K183" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="L183" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="M183" s="20"/>
+      <c r="N183" s="20"/>
+      <c r="O183" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="P183" s="20"/>
       <c r="Q183" s="22" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="184" spans="1:17">
       <c r="A184" s="34" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B184" s="20" t="s">
         <v>169</v>
@@ -23222,11 +23226,11 @@
       <c r="C184" s="21">
         <v>2020</v>
       </c>
-      <c r="D184" s="35" t="s">
-        <v>719</v>
-      </c>
-      <c r="E184" s="22" t="s">
-        <v>720</v>
+      <c r="D184" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="E184" s="28" t="s">
+        <v>724</v>
       </c>
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
@@ -23234,42 +23238,44 @@
         <v>8</v>
       </c>
       <c r="I184" s="20" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J184" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K184" s="22" t="s">
-        <v>252</v>
+        <v>725</v>
       </c>
       <c r="L184" s="20" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M184" s="20"/>
       <c r="N184" s="20"/>
       <c r="O184" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="P184" s="20"/>
+        <v>726</v>
+      </c>
+      <c r="P184" s="31" t="s">
+        <v>727</v>
+      </c>
       <c r="Q184" s="22" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="185" spans="1:17">
       <c r="A185" s="34" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B185" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C185" s="21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
@@ -23277,32 +23283,32 @@
         <v>8</v>
       </c>
       <c r="I185" s="20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J185" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K185" s="22" t="s">
-        <v>725</v>
-      </c>
-      <c r="L185" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="M185" s="20"/>
-      <c r="N185" s="20"/>
+      <c r="K185" s="21"/>
+      <c r="L185" s="20"/>
+      <c r="M185" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="N185" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="O185" s="31" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="P185" s="31" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="Q185" s="22" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="186" spans="1:17">
       <c r="A186" s="34" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B186" s="20" t="s">
         <v>169</v>
@@ -23311,10 +23317,10 @@
         <v>2021</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
@@ -23327,39 +23333,39 @@
       <c r="J186" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K186" s="21"/>
-      <c r="L186" s="20"/>
-      <c r="M186" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N186" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="K186" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L186" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M186" s="20"/>
+      <c r="N186" s="20"/>
       <c r="O186" s="31" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="P186" s="31" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="Q186" s="22" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="187" spans="1:17">
       <c r="A187" s="34" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B187" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C187" s="21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
@@ -23367,44 +23373,44 @@
         <v>8</v>
       </c>
       <c r="I187" s="20" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J187" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K187" s="22" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="L187" s="20" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="M187" s="20"/>
       <c r="N187" s="20"/>
       <c r="O187" s="31" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="P187" s="31" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="Q187" s="22" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="34" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="B188" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C188" s="21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="E188" s="28" t="s">
-        <v>743</v>
+        <v>748</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>749</v>
       </c>
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
@@ -23412,32 +23418,30 @@
         <v>8</v>
       </c>
       <c r="I188" s="20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J188" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K188" s="22" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="L188" s="20" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M188" s="20"/>
       <c r="N188" s="20"/>
       <c r="O188" s="31" t="s">
-        <v>744</v>
-      </c>
-      <c r="P188" s="31" t="s">
-        <v>745</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P188" s="20"/>
       <c r="Q188" s="22" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="189" spans="1:17">
       <c r="A189" s="34" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B189" s="20" t="s">
         <v>169</v>
@@ -23446,10 +23450,10 @@
         <v>2023</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>748</v>
-      </c>
-      <c r="E189" s="22" t="s">
-        <v>749</v>
+        <v>752</v>
+      </c>
+      <c r="E189" s="28" t="s">
+        <v>753</v>
       </c>
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
@@ -23471,16 +23475,16 @@
       <c r="M189" s="20"/>
       <c r="N189" s="20"/>
       <c r="O189" s="31" t="s">
-        <v>111</v>
+        <v>754</v>
       </c>
       <c r="P189" s="20"/>
       <c r="Q189" s="22" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="190" spans="1:17">
       <c r="A190" s="34" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B190" s="20" t="s">
         <v>169</v>
@@ -23489,24 +23493,24 @@
         <v>2023</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="E190" s="28" t="s">
-        <v>753</v>
+        <v>757</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>758</v>
       </c>
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
       <c r="H190" s="20" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I190" s="20" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J190" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K190" s="22" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="L190" s="20" t="s">
         <v>186</v>
@@ -23514,118 +23518,124 @@
       <c r="M190" s="20"/>
       <c r="N190" s="20"/>
       <c r="O190" s="31" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="P190" s="20"/>
       <c r="Q190" s="22" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="191" spans="1:17">
       <c r="A191" s="34" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B191" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C191" s="21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
       <c r="H191" s="20" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I191" s="20" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="J191" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K191" s="22" t="s">
-        <v>212</v>
+        <v>561</v>
       </c>
       <c r="L191" s="20" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="M191" s="20"/>
       <c r="N191" s="20"/>
-      <c r="O191" s="31" t="s">
-        <v>759</v>
-      </c>
+      <c r="O191" s="20"/>
       <c r="P191" s="20"/>
       <c r="Q191" s="22" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="192" ht="36" spans="1:17">
       <c r="A192" s="34" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B192" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C192" s="21">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="E192" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
+        <v>766</v>
+      </c>
+      <c r="E192" s="35" t="s">
+        <v>767</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="G192" s="22" t="s">
+        <v>769</v>
+      </c>
       <c r="H192" s="20" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I192" s="20" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J192" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K192" s="22" t="s">
-        <v>561</v>
+        <v>212</v>
       </c>
       <c r="L192" s="20" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M192" s="20"/>
       <c r="N192" s="20"/>
-      <c r="O192" s="20"/>
-      <c r="P192" s="20"/>
+      <c r="O192" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="P192" s="31" t="s">
+        <v>771</v>
+      </c>
       <c r="Q192" s="22" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="193" ht="36" spans="1:17">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="193" ht="24" spans="1:17">
       <c r="A193" s="34" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="B193" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C193" s="21">
-        <v>2017</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>766</v>
-      </c>
-      <c r="E193" s="35" t="s">
-        <v>767</v>
+        <v>2021</v>
+      </c>
+      <c r="D193" s="35" t="s">
+        <v>774</v>
+      </c>
+      <c r="E193" s="28" t="s">
+        <v>775</v>
       </c>
       <c r="F193" s="28" t="s">
-        <v>768</v>
+        <v>78</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="H193" s="20" t="s">
         <v>77</v>
@@ -23637,45 +23647,37 @@
         <v>9</v>
       </c>
       <c r="K193" s="22" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L193" s="20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M193" s="20"/>
       <c r="N193" s="20"/>
-      <c r="O193" s="31" t="s">
-        <v>770</v>
-      </c>
-      <c r="P193" s="31" t="s">
-        <v>771</v>
-      </c>
+      <c r="O193" s="20"/>
+      <c r="P193" s="20"/>
       <c r="Q193" s="22" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="194" ht="24" spans="1:17">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" s="34" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B194" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C194" s="21">
-        <v>2021</v>
-      </c>
-      <c r="D194" s="35" t="s">
-        <v>774</v>
-      </c>
-      <c r="E194" s="28" t="s">
-        <v>775</v>
-      </c>
-      <c r="F194" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G194" s="22" t="s">
-        <v>776</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
       <c r="H194" s="20" t="s">
         <v>77</v>
       </c>
@@ -23686,37 +23688,43 @@
         <v>9</v>
       </c>
       <c r="K194" s="22" t="s">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="L194" s="20" t="s">
-        <v>174</v>
+        <v>457</v>
       </c>
       <c r="M194" s="20"/>
       <c r="N194" s="20"/>
-      <c r="O194" s="20"/>
+      <c r="O194" s="31" t="s">
+        <v>781</v>
+      </c>
       <c r="P194" s="20"/>
       <c r="Q194" s="22" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="195" ht="24" spans="1:17">
       <c r="A195" s="34" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="B195" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C195" s="21">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>779</v>
-      </c>
-      <c r="E195" s="22" t="s">
-        <v>780</v>
-      </c>
-      <c r="F195" s="21"/>
-      <c r="G195" s="21"/>
+        <v>784</v>
+      </c>
+      <c r="E195" s="35" t="s">
+        <v>785</v>
+      </c>
+      <c r="F195" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G195" s="22" t="s">
+        <v>786</v>
+      </c>
       <c r="H195" s="20" t="s">
         <v>77</v>
       </c>
@@ -23727,24 +23735,26 @@
         <v>9</v>
       </c>
       <c r="K195" s="22" t="s">
-        <v>456</v>
+        <v>179</v>
       </c>
       <c r="L195" s="20" t="s">
-        <v>457</v>
+        <v>174</v>
       </c>
       <c r="M195" s="20"/>
       <c r="N195" s="20"/>
       <c r="O195" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="P195" s="20"/>
+        <v>787</v>
+      </c>
+      <c r="P195" s="31" t="s">
+        <v>788</v>
+      </c>
       <c r="Q195" s="22" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="196" ht="24" spans="1:17">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" s="34" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B196" s="20" t="s">
         <v>169</v>
@@ -23753,17 +23763,13 @@
         <v>2024</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="E196" s="35" t="s">
-        <v>785</v>
-      </c>
-      <c r="F196" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G196" s="22" t="s">
-        <v>786</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="E196" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
       <c r="H196" s="20" t="s">
         <v>77</v>
       </c>
@@ -23774,26 +23780,22 @@
         <v>9</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="L196" s="20" t="s">
         <v>174</v>
       </c>
       <c r="M196" s="20"/>
       <c r="N196" s="20"/>
-      <c r="O196" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="P196" s="31" t="s">
-        <v>788</v>
-      </c>
+      <c r="O196" s="20"/>
+      <c r="P196" s="20"/>
       <c r="Q196" s="22" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="197" ht="24" spans="1:17">
       <c r="A197" s="34" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B197" s="20" t="s">
         <v>169</v>
@@ -23802,13 +23804,17 @@
         <v>2024</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>792</v>
-      </c>
-      <c r="F197" s="21"/>
-      <c r="G197" s="21"/>
+        <v>796</v>
+      </c>
+      <c r="F197" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="G197" s="35" t="s">
+        <v>798</v>
+      </c>
       <c r="H197" s="20" t="s">
         <v>77</v>
       </c>
@@ -23819,40 +23825,42 @@
         <v>9</v>
       </c>
       <c r="K197" s="22" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="L197" s="20" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="M197" s="20"/>
       <c r="N197" s="20"/>
-      <c r="O197" s="20"/>
+      <c r="O197" s="31" t="s">
+        <v>799</v>
+      </c>
       <c r="P197" s="20"/>
       <c r="Q197" s="22" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="198" ht="24" spans="1:17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" s="34" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="B198" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C198" s="21">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>796</v>
-      </c>
-      <c r="F198" s="29" t="s">
-        <v>797</v>
-      </c>
-      <c r="G198" s="35" t="s">
-        <v>798</v>
+        <v>803</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>805</v>
       </c>
       <c r="H198" s="20" t="s">
         <v>77</v>
@@ -23872,59 +23880,12 @@
       <c r="M198" s="20"/>
       <c r="N198" s="20"/>
       <c r="O198" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="P198" s="20"/>
+        <v>806</v>
+      </c>
+      <c r="P198" s="31" t="s">
+        <v>807</v>
+      </c>
       <c r="Q198" s="22" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17">
-      <c r="A199" s="34" t="s">
-        <v>801</v>
-      </c>
-      <c r="B199" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C199" s="21">
-        <v>2022</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="E199" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="F199" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="G199" s="21" t="s">
-        <v>805</v>
-      </c>
-      <c r="H199" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I199" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J199" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K199" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="L199" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="M199" s="20"/>
-      <c r="N199" s="20"/>
-      <c r="O199" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="P199" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q199" s="22" t="s">
         <v>808</v>
       </c>
     </row>
@@ -23937,19 +23898,19 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B18 B19:B22">
       <formula1>"survey,benchmarks"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B23:B24 B25:B72 B73:B199 B200:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B23:B24 B25:B47 B48:B71 B72:B198 B199:B1048576">
       <formula1>"classical,learning,benchmarks,augmented"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H18 H19:H22 H23:H24 H25:H72 H73:H199 H200:H1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H18 H19:H22 H23:H24 H25:H47 H48:H71 H72:H198 H199:H1048576">
       <formula1>"One-shot,Lifelong,One-shot and Lifelong"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I18 I19:I22 I23:I24 I25:I72 I73:I199 I200:I1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I18 I19:I22 I23:I24 I25:I47 I48:I71 I72:I198 I199:I1048576">
       <formula1>"Optimal,Sub-optimal,Optimal and Sub-optimal,No sense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J18 J19:J22 J23:J24 J25:J72 J73:J199 J200:J1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J18 J19:J22 J23:J24 J25:J47 J48:J71 J72:J198 J199:J1048576">
       <formula1>"Discrete space,Continuous space"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L18 L19:L22 L23:L24 L25:L72 L73:L199 L200:L1048576 N2:N18 N19:N22 N23:N24 N25:N72 N73:N199 N200:N1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L18 L19:L22 L23:L24 L25:L47 L48:L71 L72:L198 L199:L1048576 N2:N18 N19:N22 N23:N24 N25:N47 N48:N71 N72:N198 N199:N1048576">
       <formula1>"A,B,C,None,Preprint"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23992,154 +23953,153 @@
     <hyperlink ref="E45" r:id="rId36" display="https://doi.org/10.1109/TII.2023.3240585"/>
     <hyperlink ref="E46" r:id="rId37" display="https://doi.org/10.1109/IROS45743.2020.9340876"/>
     <hyperlink ref="E47" r:id="rId38" display="https://doi.org/10.1109/ICRA57147.2024.10611301"/>
-    <hyperlink ref="E48" r:id="rId39" display="https://doi.org/10.1109/LRA.2020.3026638"/>
-    <hyperlink ref="E49" r:id="rId40" display="https://doi.org/10.1109/LRA.2021.3139145"/>
-    <hyperlink ref="E50" r:id="rId41" display="https://doi.org/10.1109/IROS55552.2023.10342261"/>
-    <hyperlink ref="E51" r:id="rId42" display="https://doi.org/10.1109/LRA.2023.3292004"/>
-    <hyperlink ref="F51" r:id="rId43" display="https://github.com/Qiushi-Lin/SACHA"/>
-    <hyperlink ref="E52" r:id="rId44" display="https://doi.org/10.1109/TCDS.2024.3368055"/>
-    <hyperlink ref="E53" r:id="rId45" display="https://doi.org/10.1109/IJCNN54540.2023.10191932"/>
-    <hyperlink ref="E54" r:id="rId46" display="https://doi.org/10.1109/ICRA57147.2024.10610745"/>
-    <hyperlink ref="E55" r:id="rId47" display="https://doi.org/10.1109/IROS58592.2024.10801969"/>
-    <hyperlink ref="E56" r:id="rId48" display="https://doi.org/10.48550/arXiv.2012.09134"/>
-    <hyperlink ref="E57" r:id="rId49" display="https://doi.org/10.1007/978-3-031-13844-7_47"/>
-    <hyperlink ref="E58" r:id="rId50" display="https://doi.org/10.1109/ICRA46639.2022.9811643"/>
-    <hyperlink ref="E59" r:id="rId51" display="https://doi.org/10.1109/IROS47612.2022.9981513"/>
-    <hyperlink ref="E34" r:id="rId52" display="https://doi.org/10.1109/IROS47612.2022.9981981"/>
-    <hyperlink ref="F34" r:id="rId53" display="https://github.com/jeanmarcalkazzi/mapfaster"/>
-    <hyperlink ref="E33" r:id="rId54" display="https://dl.acm.org/doi/10.5555/3463952.3464075"/>
-    <hyperlink ref="E32" r:id="rId55" display="https://doi.org/10.48550/arXiv.1906.03992"/>
-    <hyperlink ref="E31" r:id="rId56" display="https://doi.org/10.1609/icaps.v30i1.6661"/>
-    <hyperlink ref="E30" r:id="rId57" display="https://doi.org/10.1609/aaai.v35i13.17341"/>
-    <hyperlink ref="E29" r:id="rId58" display="https://doi.org/10.1609/aaai.v33i01.33016087"/>
-    <hyperlink ref="E28" r:id="rId59" display="https://doi.org/10.1609/socs.v6i1.18343"/>
-    <hyperlink ref="E60" r:id="rId60" display="https://doi.org/10.1007/s11042-024-19951-w"/>
-    <hyperlink ref="E61" r:id="rId61" display="https://doi.org/10.1109/ICRA48506.2021.9560748"/>
-    <hyperlink ref="F61" r:id="rId62" display="https://github.com/ZiyuanMa/DHC"/>
-    <hyperlink ref="E62" r:id="rId63" display="https://doi.org/10.1109/IJCNN60899.2024.10650243"/>
-    <hyperlink ref="E63" r:id="rId64" display="https://doi.org/10.1109/IROS58592.2024.10801914"/>
-    <hyperlink ref="F63" r:id="rId65" display="https://github.com/ai4co/eph-mapf"/>
-    <hyperlink ref="E64" r:id="rId66" display="https://doi.org/10.1109/IJCNN60899.2024.10651091"/>
-    <hyperlink ref="E65" r:id="rId67" display="https://doi.org/10.1609/aaai.v38i16.29704"/>
-    <hyperlink ref="F65" r:id="rId68" display="https://github.com/AIRI-Institute/learn-to-follow"/>
-    <hyperlink ref="E66" r:id="rId40" display="https://doi.org/10.1109/LRA.2021.3139145"/>
-    <hyperlink ref="E67" r:id="rId39" display="https://doi.org/10.1109/LRA.2020.3026638"/>
-    <hyperlink ref="E68" r:id="rId69" display="https://doi.org/10.1109/ICET61945.2024.10673111"/>
-    <hyperlink ref="E69" r:id="rId70" display="https://doi.org/10.1109/ICNSC52481.2021.9702234"/>
-    <hyperlink ref="E70" r:id="rId71" display="https://doi.org/10.48550/arXiv.2408.13750"/>
-    <hyperlink ref="E71" r:id="rId47" display="https://doi.org/10.1109/IROS58592.2024.10801969"/>
-    <hyperlink ref="E72" r:id="rId72" display="https://doi.org/10.1109/CDC49753.2023.10383302"/>
-    <hyperlink ref="E73" r:id="rId73" display="https://www.sciencedirect.com/science/article/pii/S0004370221001259?via%3Dihub"/>
-    <hyperlink ref="F73" r:id="rId74" display="https://github.com/Jiaoyang-Li/CBSH2-RTC"/>
-    <hyperlink ref="E74" r:id="rId75" display="https://www.ijcai.org/Proceedings/15/Papers/110.pdf"/>
-    <hyperlink ref="E75" r:id="rId76" display="https://doi.org/10.1609/icaps.v25i1.13725"/>
-    <hyperlink ref="E76" r:id="rId18" display="https://doi.org/10.1609/icaps.v28i1.13883" tooltip="https://doi.org/10.1609/icaps.v28i1.13883"/>
-    <hyperlink ref="E77" r:id="rId77" display="https://doi.org/10.48550/arXiv.1806.04216"/>
-    <hyperlink ref="E79" r:id="rId78" display="https://doi.org/10.1609/icaps.v29i1.3487" tooltip="https://doi.org/10.1609/icaps.v29i1.3487"/>
-    <hyperlink ref="E78" r:id="rId79" display="https://www.ijcai.org/proceedings/2019/0063.pdf"/>
-    <hyperlink ref="E199" r:id="rId80" display="https://doi.org/10.1609/socs.v15i1.21759"/>
-    <hyperlink ref="F199" r:id="rId81" display="https://github.com/NitzanMadar/exPBS-exRHCR"/>
-    <hyperlink ref="E198" r:id="rId82" display="https://doi.org/10.1609/socs.v17i1.31565"/>
-    <hyperlink ref="E197" r:id="rId83" display="https://doi.org/10.1609/aaai.v38i18.30054"/>
-    <hyperlink ref="F196" r:id="rId84" display="https://github.com/lunjohnzhang/ggo_public"/>
-    <hyperlink ref="E194" r:id="rId85" display="https://doi.org/10.1609/aaai.v35i13.17344"/>
-    <hyperlink ref="F194" r:id="rId86" display="https://github.com/Jiaoyang-Li/RHCR"/>
-    <hyperlink ref="F193" r:id="rId87" display="https://github.com/ct2034/cobra"/>
-    <hyperlink ref="E190" r:id="rId88" display="https://doi.org/10.1609/icaps.v33i1.27175"/>
-    <hyperlink ref="E80" r:id="rId89" display="https://par.nsf.gov/servlets/purl/10107498" tooltip="https://par.nsf.gov/servlets/purl/10107498"/>
-    <hyperlink ref="E81" r:id="rId90" display="https://par.nsf.gov/servlets/purl/10118766" tooltip="https://par.nsf.gov/servlets/purl/10118766"/>
-    <hyperlink ref="E83" r:id="rId91" display="https://doi.org/10.1609/aaai.v33i01.33017627" tooltip="https://doi.org/10.1609/aaai.v33i01.33017627"/>
-    <hyperlink ref="E84" r:id="rId92" display="https://doi.org/10.48550/arXiv.1812.06356" tooltip="https://doi.org/10.48550/arXiv.1812.06356"/>
-    <hyperlink ref="E85" r:id="rId93" display="https://doi.org/10.24963/ijcai.2020/562" tooltip="https://doi.org/10.24963/ijcai.2020/562"/>
-    <hyperlink ref="E86" r:id="rId94" display="https://doi.org/10.24963/ijcai.2020/565" tooltip="https://doi.org/10.24963/ijcai.2020/565"/>
-    <hyperlink ref="E87" r:id="rId56" display="https://doi.org/10.1609/icaps.v30i1.6661" tooltip="https://doi.org/10.1609/icaps.v30i1.6661"/>
-    <hyperlink ref="E88" r:id="rId95" display="https://doi.org/10.1609/socs.v11i1.18525" tooltip="https://doi.org/10.1609/socs.v11i1.18525"/>
-    <hyperlink ref="E89" r:id="rId96" display="https://shchan13.github.io/files/ChanWoMAPF20.pdf" tooltip="https://shchan13.github.io/files/ChanWoMAPF20.pdf"/>
-    <hyperlink ref="E90" r:id="rId97" display="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16" tooltip="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16"/>
-    <hyperlink ref="E91" r:id="rId98" display="https://doi.org/10.24963/ijcai.2021/568" tooltip="https://doi.org/10.24963/ijcai.2021/568"/>
-    <hyperlink ref="E188" r:id="rId29" display="https://doi.org/10.1609/socs.v15i1.21747"/>
-    <hyperlink ref="E187" r:id="rId99" display="https://doi.org/10.1609/icaps.v31i1.15942"/>
-    <hyperlink ref="E186" r:id="rId100" display="https://doi.org/10.1613/jair.1.12397"/>
-    <hyperlink ref="E185" r:id="rId101" display="https://doi.org/10.1609/icaps.v30i1.6642"/>
-    <hyperlink ref="E182" r:id="rId102" display="https://doi.org/10.1609/aaai.v33i01.33017732"/>
-    <hyperlink ref="E183" r:id="rId103" display="https://doi.org/10.1613/jair.1.11734"/>
-    <hyperlink ref="E181" r:id="rId104" display="https://doi.org/10.1609/socs.v9i1.18445"/>
-    <hyperlink ref="E180" r:id="rId105" display="https://doi.org/10.1609/aaai.v38i16.29676"/>
-    <hyperlink ref="F179" r:id="rId106" display="https://github.com/PathPlanning/Continuous-CBS/"/>
-    <hyperlink ref="F177" r:id="rId107" display="https://github.com/PathPlanning/Push-and-Rotate--CBS--PrioritizedPlanning"/>
-    <hyperlink ref="E174" r:id="rId108" display="https://doi.org/10.1609/aaai.v35i13.17338"/>
-    <hyperlink ref="E171" r:id="rId109" display="https://doi.org/10.1613/jair.1.13318"/>
-    <hyperlink ref="E170" r:id="rId110" display="https://doi.org/10.1016/j.artint.2022.103662"/>
-    <hyperlink ref="E169" r:id="rId111" display="https://doi.org/10.1609/socs.v12i1.18583"/>
-    <hyperlink ref="E168" r:id="rId112" display="https://doi.org/10.1609/socs.v12i1.18567"/>
-    <hyperlink ref="E92" r:id="rId113" display="https://doi.org/10.1609/icaps.v31i1.15984"/>
-    <hyperlink ref="E93" r:id="rId114" display="https://doi.org/10.1609/aaai.v35i14.17466" tooltip="https://doi.org/10.1609/aaai.v35i14.17466"/>
-    <hyperlink ref="E94" r:id="rId115" display="https://doi.org/10.1609/aaai.v35i13.17340" tooltip="https://doi.org/10.1609/aaai.v35i13.17340"/>
-    <hyperlink ref="E95" r:id="rId116" display="https://doi.org/10.1609/aaai.v35i14.17456" tooltip="https://doi.org/10.1609/aaai.v35i14.17456"/>
-    <hyperlink ref="E96" r:id="rId117" display="https://doi.org/10.1609/socs.v12i1.18586" tooltip="https://doi.org/10.1609/socs.v12i1.18586"/>
-    <hyperlink ref="E97" r:id="rId118" display="https://doi.org/10.1016/j.artint.2022.103766" tooltip="https://doi.org/10.1016/j.artint.2022.103766"/>
-    <hyperlink ref="E98" r:id="rId119" display="https://ieeexplore.ieee.org/abstract/document/9926661" tooltip="https://ieeexplore.ieee.org/abstract/document/9926661"/>
-    <hyperlink ref="E99" r:id="rId120" display="https://doi.org/10.1609/socs.v15i1.21750" tooltip="https://doi.org/10.1609/socs.v15i1.21750"/>
-    <hyperlink ref="F163" r:id="rId121" display="https://github.com/surynek/boOX"/>
-    <hyperlink ref="E162" r:id="rId122" display="https://doi.org/10.1609/aaai.v35i14.17472"/>
-    <hyperlink ref="E154" r:id="rId123" display="https://doi.org/10.48550/arXiv.1903.09820"/>
-    <hyperlink ref="E152" r:id="rId124" display="https://doi.org/10.1609/socs.v10i1.18490"/>
-    <hyperlink ref="E146" r:id="rId125" display="https://doi.org/10.48550/arXiv.1907.07631"/>
-    <hyperlink ref="E142" r:id="rId126" display="https://doi.org/10.48550/arXiv.1812.10851"/>
-    <hyperlink ref="E141" r:id="rId127" display="https://doi.org/10.1609/socs.v9i1.18456"/>
-    <hyperlink ref="E140" r:id="rId128" display="https://doi.org/10.1609/socs.v16i1.27287"/>
-    <hyperlink ref="E138" r:id="rId129" display="https://doi.org/10.1609/socs.v12i1.18596"/>
-    <hyperlink ref="E137" r:id="rId130" display="https://doi.org/10.1609/icaps.v34i1.31534"/>
-    <hyperlink ref="E136" r:id="rId131" display="https://doi.org/10.1609/socs.v16i1.27290"/>
-    <hyperlink ref="E135" r:id="rId132" display="https://doi.org/10.1609/icaps.v32i1.19798"/>
-    <hyperlink ref="E134" r:id="rId133" display="https://doi.org/10.1016/j.cor.2022.105809"/>
-    <hyperlink ref="E133" r:id="rId134" display="https://doi.org/10.48550/arXiv.2308.04292"/>
-    <hyperlink ref="F133" r:id="rId135" display="https://github.com/Kei18/lacam3"/>
-    <hyperlink ref="E132" r:id="rId136" display="https://doi.org/10.48550/arXiv.2305.03632"/>
-    <hyperlink ref="F132" r:id="rId137" display="https://github.com/Kei18/lacam2"/>
-    <hyperlink ref="E131" r:id="rId138" display="https://doi.org/10.1016/j.artint.2023.103946"/>
-    <hyperlink ref="F131" r:id="rId139" display="https://github.com/Kei18/tswap"/>
-    <hyperlink ref="E130" r:id="rId140" display="https://doi.org/10.1609/aaai.v37i10.26377"/>
-    <hyperlink ref="F130" r:id="rId141" display="https://github.com/Kei18/lacam"/>
-    <hyperlink ref="E129" r:id="rId142" display="https://doi.org/10.1609/aaai.v37i10.26376"/>
-    <hyperlink ref="F129" r:id="rId143" display="https://github.com/Kei18/mappcf"/>
-    <hyperlink ref="E128" r:id="rId26" display="https://doi.org/10.1016/j.artint.2022.103752"/>
-    <hyperlink ref="F128" r:id="rId27" display="https://github.com/Kei18/pibt2"/>
-    <hyperlink ref="E127" r:id="rId144" display="https://doi.org/10.24963/ijcai.2022/645"/>
-    <hyperlink ref="F127" r:id="rId145" display="https://github.com/Kei18/otimapp"/>
-    <hyperlink ref="F126" r:id="rId146" display="https://github.com/Kei18/mapf-IR"/>
-    <hyperlink ref="E125" r:id="rId147" display="https://doi.org/10.1609/aaai.v35i13.17347"/>
-    <hyperlink ref="F125" r:id="rId148" display="https://github.com/Kei18/time-independent-planning"/>
-    <hyperlink ref="E124" r:id="rId149" display="https://doi.org/10.48550/arXiv.1905.10149"/>
-    <hyperlink ref="F124" r:id="rId150" display="https://github.com/Kei18/pibt"/>
-    <hyperlink ref="E123" r:id="rId151" display="https://doi.org/10.1609/aaai.v38i16.29706" tooltip="https://doi.org/10.1609/aaai.v38i16.29706"/>
-    <hyperlink ref="F123" r:id="rId152" display="https://github.com/YifanSu1301/BTPG"/>
-    <hyperlink ref="E122" r:id="rId153" display="https://doi.org/10.48550/arXiv.2402.08772"/>
-    <hyperlink ref="F121" r:id="rId154" display="https://github.com/JingtianYan/PSB-RAL"/>
-    <hyperlink ref="E120" r:id="rId155" display="https://doi.org/10.1609/icaps.v34i1.31524"/>
-    <hyperlink ref="E119" r:id="rId156" display="https://doi.org/10.1609/icaps.v34i1.31513"/>
-    <hyperlink ref="E118" r:id="rId157" display="https://doi.org/10.1609/icaps.v34i1.31477"/>
-    <hyperlink ref="F118" r:id="rId158" display="https://github.com/YinggggFeng/Switchable-Edge-Search"/>
-    <hyperlink ref="E117" r:id="rId159" display="https://doi.org/10.1609/socs.v17i1.31551"/>
-    <hyperlink ref="F117" r:id="rId20" display="https://github.com/whoenig/libMultiRobotPlanning" tooltip="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="E116" r:id="rId160" display="https://doi.org/10.1609/socs.v17i1.31548"/>
-    <hyperlink ref="E115" r:id="rId161" display="https://doi.org/10.48550/arXiv.2401.17044"/>
-    <hyperlink ref="F115" r:id="rId162" display="https://github.com/lunjohnzhang/MAPF-Mechanism"/>
-    <hyperlink ref="E114" r:id="rId163" display="https://doi.org/10.1609/socs.v17i1.31593"/>
-    <hyperlink ref="F114" r:id="rId164" display="https://github.com/lunjohnzhang/warehouse_env_gen_public"/>
-    <hyperlink ref="E113" r:id="rId165" display="https://doi.org/10.1609/aaai.v37i10.26368"/>
-    <hyperlink ref="E112" r:id="rId166" display="https://doi.org/10.1609/icaps.v33i1.27194"/>
-    <hyperlink ref="E111" r:id="rId167" display="https://doi.org/10.1609/icaps.v33i1.27187"/>
-    <hyperlink ref="E110" r:id="rId168" display="https://doi.org/10.1609/icaps.v33i1.27214"/>
-    <hyperlink ref="E109" r:id="rId169" display="https://doi.org/10.1609/icaps.v33i1.27217"/>
-    <hyperlink ref="E108" r:id="rId34" display="https://doi.org/10.1609/icaps.v33i1.27202"/>
-    <hyperlink ref="F106" r:id="rId20" display="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="E105" r:id="rId170" display="https://doi.org/10.1609/aaai.v36i9.21162"/>
-    <hyperlink ref="E104" r:id="rId171" display="https://doi.org/10.1609/aaai.v36i9.21170"/>
-    <hyperlink ref="E103" r:id="rId32" display="https://doi.org/10.1609/aaai.v36i9.21266"/>
-    <hyperlink ref="F103" r:id="rId33" display="https://github.com/Jiaoyang-Li/MAPF-LNS2"/>
-    <hyperlink ref="E100" r:id="rId172" display="https://doi.org/10.1609/socs.v15i1.21776"/>
-    <hyperlink ref="E107" r:id="rId173" display="https://doi.org/10.1016/j.artint.2023.103950"/>
+    <hyperlink ref="E48" r:id="rId39" display="https://doi.org/10.1109/LRA.2021.3139145"/>
+    <hyperlink ref="E49" r:id="rId40" display="https://doi.org/10.1109/IROS55552.2023.10342261"/>
+    <hyperlink ref="E50" r:id="rId41" display="https://doi.org/10.1109/LRA.2023.3292004"/>
+    <hyperlink ref="F50" r:id="rId42" display="https://github.com/Qiushi-Lin/SACHA"/>
+    <hyperlink ref="E51" r:id="rId43" display="https://doi.org/10.1109/TCDS.2024.3368055"/>
+    <hyperlink ref="E52" r:id="rId44" display="https://doi.org/10.1109/IJCNN54540.2023.10191932"/>
+    <hyperlink ref="E53" r:id="rId45" display="https://doi.org/10.1109/ICRA57147.2024.10610745"/>
+    <hyperlink ref="E54" r:id="rId46" display="https://doi.org/10.1109/IROS58592.2024.10801969"/>
+    <hyperlink ref="E55" r:id="rId47" display="https://doi.org/10.48550/arXiv.2012.09134"/>
+    <hyperlink ref="E56" r:id="rId48" display="https://doi.org/10.1007/978-3-031-13844-7_47"/>
+    <hyperlink ref="E57" r:id="rId49" display="https://doi.org/10.1109/ICRA46639.2022.9811643"/>
+    <hyperlink ref="E58" r:id="rId50" display="https://doi.org/10.1109/IROS47612.2022.9981513"/>
+    <hyperlink ref="E34" r:id="rId51" display="https://doi.org/10.1109/IROS47612.2022.9981981"/>
+    <hyperlink ref="F34" r:id="rId52" display="https://github.com/jeanmarcalkazzi/mapfaster"/>
+    <hyperlink ref="E33" r:id="rId53" display="https://dl.acm.org/doi/10.5555/3463952.3464075"/>
+    <hyperlink ref="E32" r:id="rId54" display="https://doi.org/10.48550/arXiv.1906.03992"/>
+    <hyperlink ref="E31" r:id="rId55" display="https://doi.org/10.1609/icaps.v30i1.6661"/>
+    <hyperlink ref="E30" r:id="rId56" display="https://doi.org/10.1609/aaai.v35i13.17341"/>
+    <hyperlink ref="E29" r:id="rId57" display="https://doi.org/10.1609/aaai.v33i01.33016087"/>
+    <hyperlink ref="E28" r:id="rId58" display="https://doi.org/10.1609/socs.v6i1.18343"/>
+    <hyperlink ref="E59" r:id="rId59" display="https://doi.org/10.1007/s11042-024-19951-w"/>
+    <hyperlink ref="E60" r:id="rId60" display="https://doi.org/10.1109/ICRA48506.2021.9560748"/>
+    <hyperlink ref="F60" r:id="rId61" display="https://github.com/ZiyuanMa/DHC"/>
+    <hyperlink ref="E61" r:id="rId62" display="https://doi.org/10.1109/IJCNN60899.2024.10650243"/>
+    <hyperlink ref="E62" r:id="rId63" display="https://doi.org/10.1109/IROS58592.2024.10801914"/>
+    <hyperlink ref="F62" r:id="rId64" display="https://github.com/ai4co/eph-mapf"/>
+    <hyperlink ref="E63" r:id="rId65" display="https://doi.org/10.1109/IJCNN60899.2024.10651091"/>
+    <hyperlink ref="E64" r:id="rId66" display="https://doi.org/10.1609/aaai.v38i16.29704"/>
+    <hyperlink ref="F64" r:id="rId67" display="https://github.com/AIRI-Institute/learn-to-follow"/>
+    <hyperlink ref="E65" r:id="rId39" display="https://doi.org/10.1109/LRA.2021.3139145"/>
+    <hyperlink ref="E66" r:id="rId68" display="https://doi.org/10.1109/LRA.2020.3026638"/>
+    <hyperlink ref="E67" r:id="rId69" display="https://doi.org/10.1109/ICET61945.2024.10673111"/>
+    <hyperlink ref="E68" r:id="rId70" display="https://doi.org/10.1109/ICNSC52481.2021.9702234"/>
+    <hyperlink ref="E69" r:id="rId71" display="https://doi.org/10.48550/arXiv.2408.13750"/>
+    <hyperlink ref="E70" r:id="rId46" display="https://doi.org/10.1109/IROS58592.2024.10801969"/>
+    <hyperlink ref="E71" r:id="rId72" display="https://doi.org/10.1109/CDC49753.2023.10383302"/>
+    <hyperlink ref="E72" r:id="rId73" display="https://www.sciencedirect.com/science/article/pii/S0004370221001259?via%3Dihub"/>
+    <hyperlink ref="F72" r:id="rId74" display="https://github.com/Jiaoyang-Li/CBSH2-RTC"/>
+    <hyperlink ref="E73" r:id="rId75" display="https://www.ijcai.org/Proceedings/15/Papers/110.pdf"/>
+    <hyperlink ref="E74" r:id="rId76" display="https://doi.org/10.1609/icaps.v25i1.13725"/>
+    <hyperlink ref="E75" r:id="rId18" display="https://doi.org/10.1609/icaps.v28i1.13883" tooltip="https://doi.org/10.1609/icaps.v28i1.13883"/>
+    <hyperlink ref="E76" r:id="rId77" display="https://doi.org/10.48550/arXiv.1806.04216"/>
+    <hyperlink ref="E78" r:id="rId78" display="https://doi.org/10.1609/icaps.v29i1.3487" tooltip="https://doi.org/10.1609/icaps.v29i1.3487"/>
+    <hyperlink ref="E77" r:id="rId79" display="https://www.ijcai.org/proceedings/2019/0063.pdf"/>
+    <hyperlink ref="E198" r:id="rId80" display="https://doi.org/10.1609/socs.v15i1.21759"/>
+    <hyperlink ref="F198" r:id="rId81" display="https://github.com/NitzanMadar/exPBS-exRHCR"/>
+    <hyperlink ref="E197" r:id="rId82" display="https://doi.org/10.1609/socs.v17i1.31565"/>
+    <hyperlink ref="E196" r:id="rId83" display="https://doi.org/10.1609/aaai.v38i18.30054"/>
+    <hyperlink ref="F195" r:id="rId84" display="https://github.com/lunjohnzhang/ggo_public"/>
+    <hyperlink ref="E193" r:id="rId85" display="https://doi.org/10.1609/aaai.v35i13.17344"/>
+    <hyperlink ref="F193" r:id="rId86" display="https://github.com/Jiaoyang-Li/RHCR"/>
+    <hyperlink ref="F192" r:id="rId87" display="https://github.com/ct2034/cobra"/>
+    <hyperlink ref="E189" r:id="rId88" display="https://doi.org/10.1609/icaps.v33i1.27175"/>
+    <hyperlink ref="E79" r:id="rId89" display="https://par.nsf.gov/servlets/purl/10107498" tooltip="https://par.nsf.gov/servlets/purl/10107498"/>
+    <hyperlink ref="E80" r:id="rId90" display="https://par.nsf.gov/servlets/purl/10118766" tooltip="https://par.nsf.gov/servlets/purl/10118766"/>
+    <hyperlink ref="E82" r:id="rId91" display="https://doi.org/10.1609/aaai.v33i01.33017627" tooltip="https://doi.org/10.1609/aaai.v33i01.33017627"/>
+    <hyperlink ref="E83" r:id="rId92" display="https://doi.org/10.48550/arXiv.1812.06356" tooltip="https://doi.org/10.48550/arXiv.1812.06356"/>
+    <hyperlink ref="E84" r:id="rId93" display="https://doi.org/10.24963/ijcai.2020/562" tooltip="https://doi.org/10.24963/ijcai.2020/562"/>
+    <hyperlink ref="E85" r:id="rId94" display="https://doi.org/10.24963/ijcai.2020/565" tooltip="https://doi.org/10.24963/ijcai.2020/565"/>
+    <hyperlink ref="E86" r:id="rId55" display="https://doi.org/10.1609/icaps.v30i1.6661" tooltip="https://doi.org/10.1609/icaps.v30i1.6661"/>
+    <hyperlink ref="E87" r:id="rId95" display="https://doi.org/10.1609/socs.v11i1.18525" tooltip="https://doi.org/10.1609/socs.v11i1.18525"/>
+    <hyperlink ref="E88" r:id="rId96" display="https://shchan13.github.io/files/ChanWoMAPF20.pdf" tooltip="https://shchan13.github.io/files/ChanWoMAPF20.pdf"/>
+    <hyperlink ref="E89" r:id="rId97" display="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16" tooltip="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16"/>
+    <hyperlink ref="E90" r:id="rId98" display="https://doi.org/10.24963/ijcai.2021/568" tooltip="https://doi.org/10.24963/ijcai.2021/568"/>
+    <hyperlink ref="E187" r:id="rId29" display="https://doi.org/10.1609/socs.v15i1.21747"/>
+    <hyperlink ref="E186" r:id="rId99" display="https://doi.org/10.1609/icaps.v31i1.15942"/>
+    <hyperlink ref="E185" r:id="rId100" display="https://doi.org/10.1613/jair.1.12397"/>
+    <hyperlink ref="E184" r:id="rId101" display="https://doi.org/10.1609/icaps.v30i1.6642"/>
+    <hyperlink ref="E181" r:id="rId102" display="https://doi.org/10.1609/aaai.v33i01.33017732"/>
+    <hyperlink ref="E182" r:id="rId103" display="https://doi.org/10.1613/jair.1.11734"/>
+    <hyperlink ref="E180" r:id="rId104" display="https://doi.org/10.1609/socs.v9i1.18445"/>
+    <hyperlink ref="E179" r:id="rId105" display="https://doi.org/10.1609/aaai.v38i16.29676"/>
+    <hyperlink ref="F178" r:id="rId106" display="https://github.com/PathPlanning/Continuous-CBS/"/>
+    <hyperlink ref="F176" r:id="rId107" display="https://github.com/PathPlanning/Push-and-Rotate--CBS--PrioritizedPlanning"/>
+    <hyperlink ref="E173" r:id="rId108" display="https://doi.org/10.1609/aaai.v35i13.17338"/>
+    <hyperlink ref="E170" r:id="rId109" display="https://doi.org/10.1613/jair.1.13318"/>
+    <hyperlink ref="E169" r:id="rId110" display="https://doi.org/10.1016/j.artint.2022.103662"/>
+    <hyperlink ref="E168" r:id="rId111" display="https://doi.org/10.1609/socs.v12i1.18583"/>
+    <hyperlink ref="E167" r:id="rId112" display="https://doi.org/10.1609/socs.v12i1.18567"/>
+    <hyperlink ref="E91" r:id="rId113" display="https://doi.org/10.1609/icaps.v31i1.15984"/>
+    <hyperlink ref="E92" r:id="rId114" display="https://doi.org/10.1609/aaai.v35i14.17466" tooltip="https://doi.org/10.1609/aaai.v35i14.17466"/>
+    <hyperlink ref="E93" r:id="rId115" display="https://doi.org/10.1609/aaai.v35i13.17340" tooltip="https://doi.org/10.1609/aaai.v35i13.17340"/>
+    <hyperlink ref="E94" r:id="rId116" display="https://doi.org/10.1609/aaai.v35i14.17456" tooltip="https://doi.org/10.1609/aaai.v35i14.17456"/>
+    <hyperlink ref="E95" r:id="rId117" display="https://doi.org/10.1609/socs.v12i1.18586" tooltip="https://doi.org/10.1609/socs.v12i1.18586"/>
+    <hyperlink ref="E96" r:id="rId118" display="https://doi.org/10.1016/j.artint.2022.103766" tooltip="https://doi.org/10.1016/j.artint.2022.103766"/>
+    <hyperlink ref="E97" r:id="rId119" display="https://ieeexplore.ieee.org/abstract/document/9926661" tooltip="https://ieeexplore.ieee.org/abstract/document/9926661"/>
+    <hyperlink ref="E98" r:id="rId120" display="https://doi.org/10.1609/socs.v15i1.21750" tooltip="https://doi.org/10.1609/socs.v15i1.21750"/>
+    <hyperlink ref="F162" r:id="rId121" display="https://github.com/surynek/boOX"/>
+    <hyperlink ref="E161" r:id="rId122" display="https://doi.org/10.1609/aaai.v35i14.17472"/>
+    <hyperlink ref="E153" r:id="rId123" display="https://doi.org/10.48550/arXiv.1903.09820"/>
+    <hyperlink ref="E151" r:id="rId124" display="https://doi.org/10.1609/socs.v10i1.18490"/>
+    <hyperlink ref="E145" r:id="rId125" display="https://doi.org/10.48550/arXiv.1907.07631"/>
+    <hyperlink ref="E141" r:id="rId126" display="https://doi.org/10.48550/arXiv.1812.10851"/>
+    <hyperlink ref="E140" r:id="rId127" display="https://doi.org/10.1609/socs.v9i1.18456"/>
+    <hyperlink ref="E139" r:id="rId128" display="https://doi.org/10.1609/socs.v16i1.27287"/>
+    <hyperlink ref="E137" r:id="rId129" display="https://doi.org/10.1609/socs.v12i1.18596"/>
+    <hyperlink ref="E136" r:id="rId130" display="https://doi.org/10.1609/icaps.v34i1.31534"/>
+    <hyperlink ref="E135" r:id="rId131" display="https://doi.org/10.1609/socs.v16i1.27290"/>
+    <hyperlink ref="E134" r:id="rId132" display="https://doi.org/10.1609/icaps.v32i1.19798"/>
+    <hyperlink ref="E133" r:id="rId133" display="https://doi.org/10.1016/j.cor.2022.105809"/>
+    <hyperlink ref="E132" r:id="rId134" display="https://doi.org/10.48550/arXiv.2308.04292"/>
+    <hyperlink ref="F132" r:id="rId135" display="https://github.com/Kei18/lacam3"/>
+    <hyperlink ref="E131" r:id="rId136" display="https://doi.org/10.48550/arXiv.2305.03632"/>
+    <hyperlink ref="F131" r:id="rId137" display="https://github.com/Kei18/lacam2"/>
+    <hyperlink ref="E130" r:id="rId138" display="https://doi.org/10.1016/j.artint.2023.103946"/>
+    <hyperlink ref="F130" r:id="rId139" display="https://github.com/Kei18/tswap"/>
+    <hyperlink ref="E129" r:id="rId140" display="https://doi.org/10.1609/aaai.v37i10.26377"/>
+    <hyperlink ref="F129" r:id="rId141" display="https://github.com/Kei18/lacam"/>
+    <hyperlink ref="E128" r:id="rId142" display="https://doi.org/10.1609/aaai.v37i10.26376"/>
+    <hyperlink ref="F128" r:id="rId143" display="https://github.com/Kei18/mappcf"/>
+    <hyperlink ref="E127" r:id="rId26" display="https://doi.org/10.1016/j.artint.2022.103752"/>
+    <hyperlink ref="F127" r:id="rId27" display="https://github.com/Kei18/pibt2"/>
+    <hyperlink ref="E126" r:id="rId144" display="https://doi.org/10.24963/ijcai.2022/645"/>
+    <hyperlink ref="F126" r:id="rId145" display="https://github.com/Kei18/otimapp"/>
+    <hyperlink ref="F125" r:id="rId146" display="https://github.com/Kei18/mapf-IR"/>
+    <hyperlink ref="E124" r:id="rId147" display="https://doi.org/10.1609/aaai.v35i13.17347"/>
+    <hyperlink ref="F124" r:id="rId148" display="https://github.com/Kei18/time-independent-planning"/>
+    <hyperlink ref="E123" r:id="rId149" display="https://doi.org/10.48550/arXiv.1905.10149"/>
+    <hyperlink ref="F123" r:id="rId150" display="https://github.com/Kei18/pibt"/>
+    <hyperlink ref="E122" r:id="rId151" display="https://doi.org/10.1609/aaai.v38i16.29706" tooltip="https://doi.org/10.1609/aaai.v38i16.29706"/>
+    <hyperlink ref="F122" r:id="rId152" display="https://github.com/YifanSu1301/BTPG"/>
+    <hyperlink ref="E121" r:id="rId153" display="https://doi.org/10.48550/arXiv.2402.08772"/>
+    <hyperlink ref="F120" r:id="rId154" display="https://github.com/JingtianYan/PSB-RAL"/>
+    <hyperlink ref="E119" r:id="rId155" display="https://doi.org/10.1609/icaps.v34i1.31524"/>
+    <hyperlink ref="E118" r:id="rId156" display="https://doi.org/10.1609/icaps.v34i1.31513"/>
+    <hyperlink ref="E117" r:id="rId157" display="https://doi.org/10.1609/icaps.v34i1.31477"/>
+    <hyperlink ref="F117" r:id="rId158" display="https://github.com/YinggggFeng/Switchable-Edge-Search"/>
+    <hyperlink ref="E116" r:id="rId159" display="https://doi.org/10.1609/socs.v17i1.31551"/>
+    <hyperlink ref="F116" r:id="rId20" display="https://github.com/whoenig/libMultiRobotPlanning" tooltip="https://github.com/whoenig/libMultiRobotPlanning"/>
+    <hyperlink ref="E115" r:id="rId160" display="https://doi.org/10.1609/socs.v17i1.31548"/>
+    <hyperlink ref="E114" r:id="rId161" display="https://doi.org/10.48550/arXiv.2401.17044"/>
+    <hyperlink ref="F114" r:id="rId162" display="https://github.com/lunjohnzhang/MAPF-Mechanism"/>
+    <hyperlink ref="E113" r:id="rId163" display="https://doi.org/10.1609/socs.v17i1.31593"/>
+    <hyperlink ref="F113" r:id="rId164" display="https://github.com/lunjohnzhang/warehouse_env_gen_public"/>
+    <hyperlink ref="E112" r:id="rId165" display="https://doi.org/10.1609/aaai.v37i10.26368"/>
+    <hyperlink ref="E111" r:id="rId166" display="https://doi.org/10.1609/icaps.v33i1.27194"/>
+    <hyperlink ref="E110" r:id="rId167" display="https://doi.org/10.1609/icaps.v33i1.27187"/>
+    <hyperlink ref="E109" r:id="rId168" display="https://doi.org/10.1609/icaps.v33i1.27214"/>
+    <hyperlink ref="E108" r:id="rId169" display="https://doi.org/10.1609/icaps.v33i1.27217"/>
+    <hyperlink ref="E107" r:id="rId34" display="https://doi.org/10.1609/icaps.v33i1.27202"/>
+    <hyperlink ref="F105" r:id="rId20" display="https://github.com/whoenig/libMultiRobotPlanning"/>
+    <hyperlink ref="E104" r:id="rId170" display="https://doi.org/10.1609/aaai.v36i9.21162"/>
+    <hyperlink ref="E103" r:id="rId171" display="https://doi.org/10.1609/aaai.v36i9.21170"/>
+    <hyperlink ref="E102" r:id="rId32" display="https://doi.org/10.1609/aaai.v36i9.21266"/>
+    <hyperlink ref="F102" r:id="rId33" display="https://github.com/Jiaoyang-Li/MAPF-LNS2"/>
+    <hyperlink ref="E99" r:id="rId172" display="https://doi.org/10.1609/socs.v15i1.21776"/>
+    <hyperlink ref="E106" r:id="rId173" display="https://doi.org/10.1016/j.artint.2023.103950"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -24317,84 +24277,84 @@
         <hyperlink ref="E26">
           <hypersublink pos="0" length="47" display="https://doi.org/10.1109/icra48891.2023.10161018" address="https://doi.org/10.1109/icra48891.2023.10161018" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="F198">
+        <hyperlink ref="F197">
           <hypersublink pos="0" length="45" display="https://github.com/DiligentPanda/MAPF-LRR2023" address="https://github.com/DiligentPanda/MAPF-LRR2023" subaddress="" screenTip="" linkrunstype="LRTURL"/>
           <hypersublink pos="68" length="53" display="https://github.com/MAPF-Competition/Benchmark-Archive" address="https://github.com/MAPF-Competition/Benchmark-Archive" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E196">
+        <hyperlink ref="E195">
           <hypersublink pos="1" length="41" display="https://doi.org/10.48550/arXiv.2402.01446" address="https://doi.org/10.48550/arXiv.2402.01446" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E193">
+        <hyperlink ref="E192">
           <hypersublink pos="1" length="41" display="https://doi.org/10.48550/arXiv.1705.10868" address="https://doi.org/10.48550/arXiv.1705.10868" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E192">
+        <hyperlink ref="E191">
           <hypersublink pos="52" length="56" display="https://www.scitepress.org/Papers/2024/122494/122494.pdf" address="https://www.scitepress.org/Papers/2024/122494/122494.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E191">
+        <hyperlink ref="E190">
           <hypersublink pos="52" length="57" display="https://www.southampton.ac.uk/~eg/AAMAS2023/pdfs/p869.pdf" address="https://www.southampton.ac.uk/~eg/AAMAS2023/pdfs/p869.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E189">
+        <hyperlink ref="E188">
           <hypersublink pos="0" length="41" display="https://doi.org/10.1609/icaps.v33i1.27174" address="https://doi.org/10.1609/icaps.v33i1.27174" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="F180">
+        <hyperlink ref="F179">
           <hypersublink pos="0" length="43" display="https://github.com/PathPlanning/AMAPF-MF-BS" address="https://github.com/PathPlanning/AMAPF-MF-BS" subaddress="" screenTip="" linkrunstype="LRTURL"/>
           <hypersublink pos="44" length="30" display="https://github.com/Kei18/tswap" address="https://github.com/Kei18/tswap" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E184">
+        <hyperlink ref="E183">
           <hypersublink pos="0" length="40" display="https://doi.org/10.1609/socs.v11i1.18540" address="https://doi.org/10.1609/socs.v11i1.18540" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E177">
+        <hyperlink ref="E176">
           <hypersublink pos="1" length="41" display="https://doi.org/10.48550/arXiv.2209.09612" address="https://doi.org/10.48550/arXiv.2209.09612" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E176">
+        <hyperlink ref="E175">
           <hypersublink pos="1" length="41" display="https://doi.org/10.48550/arXiv.2208.12236" address="https://doi.org/10.48550/arXiv.2208.12236" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E175">
+        <hyperlink ref="E174">
           <hypersublink pos="1" length="41" display="https://doi.org/10.48550/arXiv.2108.05145" address="https://doi.org/10.48550/arXiv.2108.05145" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E172">
+        <hyperlink ref="E171">
           <hypersublink pos="9" length="31" display="doi.org/10.14357/20718594200105" address="https://doi.org/10.14357/20718594200105" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E165">
+        <hyperlink ref="E164">
           <hypersublink pos="52" length="83" display="https://surynek.net/publications/files/Surynek_Continuous-MAPF_ICAART-LNCS-2020.pdf" address="https://surynek.net/publications/files/Surynek_Continuous-MAPF_ICAART-LNCS-2020.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E163">
+        <hyperlink ref="E162">
           <hypersublink pos="1" length="41" display="https://doi.org/10.48550/arXiv.2004.13477" address="https://doi.org/10.48550/arXiv.2004.13477" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E161">
+        <hyperlink ref="E160">
           <hypersublink pos="52" length="63" display="https://www.scitepress.org/PublishedPapers/2020/89801/89801.pdf" address="https://www.scitepress.org/PublishedPapers/2020/89801/89801.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E160">
+        <hyperlink ref="E159">
           <hypersublink pos="52" length="79" display="https://surynek.net/publications/files/Surynek_Logic-MAPF-SMT-SOC_RCAI-2020.pdf" address="https://surynek.net/publications/files/Surynek_Logic-MAPF-SMT-SOC_RCAI-2020.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E159">
+        <hyperlink ref="E158">
           <hypersublink pos="52" length="56" display="https://www.scitepress.org/Papers/2020/101058/101058.pdf" address="https://www.scitepress.org/Papers/2020/101058/101058.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E158">
+        <hyperlink ref="E157">
           <hypersublink pos="52" length="74" display="https://surynek.net/publications/files/Surynek_MAPF-Modulo-SOC_KI-2020.pdf" address="https://surynek.net/publications/files/Surynek_MAPF-Modulo-SOC_KI-2020.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E153">
+        <hyperlink ref="E152">
           <hypersublink pos="52" length="63" display="https://www.scitepress.org/PublishedPapers/2019/73742/73742.pdf" address="https://www.scitepress.org/PublishedPapers/2019/73742/73742.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E151">
+        <hyperlink ref="E150">
           <hypersublink pos="52" length="54" display="https://www.scitepress.org/Papers/2019/81631/81631.pdf" address="https://www.scitepress.org/Papers/2019/81631/81631.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E150">
+        <hyperlink ref="E149">
           <hypersublink pos="52" length="63" display="https://www.scitepress.org/PublishedPapers/2019/80715/80715.pdf" address="https://www.scitepress.org/PublishedPapers/2019/80715/80715.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E147">
+        <hyperlink ref="E146">
           <hypersublink pos="52" length="98" display="https://surynek.net/publications/files/Surynek_General-Conflicts-Experimental_ICAART-LNCS-2019.pdf" address="https://surynek.net/publications/files/Surynek_General-Conflicts-Experimental_ICAART-LNCS-2019.pdf" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E143">
+        <hyperlink ref="E142">
           <hypersublink pos="1" length="41" display="https://doi.org/10.48550/arXiv.1809.05959" address="https://doi.org/10.48550/arXiv.1809.05959" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E145">
+        <hyperlink ref="E144">
           <hypersublink pos="52" length="32" display="https://arxiv.org/pdf/1907.12648" address="https://arxiv.org/pdf/1907.12648" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E102">
+        <hyperlink ref="E101">
           <hypersublink pos="52" length="42" display="https://par.nsf.gov/servlets/purl/10359150" address="https://par.nsf.gov/servlets/purl/10359150" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
-        <hyperlink ref="E149">
+        <hyperlink ref="E148">
           <hypersublink pos="0" length="40" display="https://doi.org/10.1609/socs.v10i1.18491" address="https://doi.org/10.1609/socs.v10i1.18491" subaddress="" screenTip="" linkrunstype="LRTURL"/>
         </hyperlink>
       </hyperlinks>

--- a/mapf汇总.xlsx
+++ b/mapf汇总.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Where-Paths-Collide\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024AC1FE-7819-40F3-9BD9-3EA314F02920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="23960" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classical" sheetId="1" r:id="rId1"/>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="1112">
   <si>
     <t>Model</t>
   </si>
@@ -3025,7 +3031,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>https://github.com/airi-institute/pogema https://github.com/AIRI-Institute/pogema-toolbox</t>
     </r>
@@ -3034,7 +3040,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                               </t>
     </r>
@@ -3044,7 +3050,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>https://github.com/AIRI-Institute/pogema-benchmark</t>
     </r>
@@ -3323,19 +3329,109 @@
   </si>
   <si>
     <t>KJbsVl8AAAAJ:7wO8s98CvbsC</t>
+  </si>
+  <si>
+    <t>B7qfVsEAAAAJ:IjCSPb-OGe4C</t>
+  </si>
+  <si>
+    <t>zxHYIqsAAAAJ:9yKSN-GCB0IC</t>
+  </si>
+  <si>
+    <t>zP9nkV4AAAAJ:9yKSN-GCB0IC</t>
+  </si>
+  <si>
+    <t>B7qfVsEAAAAJ:qjMakFHDy7sC</t>
+  </si>
+  <si>
+    <t>tpoh43QAAAAJ:69ZgNCALVd0C</t>
+  </si>
+  <si>
+    <t>1j_rxU8AAAAJ:IjCSPb-OGe4C</t>
+  </si>
+  <si>
+    <t>bEqVNvQAAAAJ:u-x6o8ySG0sC</t>
+  </si>
+  <si>
+    <t>tpoh43QAAAAJ:q0uBw5dMOAkC</t>
+  </si>
+  <si>
+    <t>Ww-hSr8AAAAJ:u-x6o8ySG0sC</t>
+  </si>
+  <si>
+    <t>Dfq8XVgAAAAJ:RYcK_YlVTxYC</t>
+  </si>
+  <si>
+    <t>vabFK6wAAAAJ:R3hNpaxXUhUC</t>
+  </si>
+  <si>
+    <t>46gwKB4AAAAJ:qjMakFHDy7sC</t>
+  </si>
+  <si>
+    <t>5ApCTCoAAAAJ:Tyk-4Ss8FVUC</t>
+  </si>
+  <si>
+    <t>qMGSa1AAAAAJ:2osOgNQ5qMEC</t>
+  </si>
+  <si>
+    <t>o7xMDgEAAAAJ:TQgYirikUcIC</t>
+  </si>
+  <si>
+    <t>YYT8-7kAAAAJ:BUYA1_V_uYcC</t>
+  </si>
+  <si>
+    <t>RSLHBzgAAAAJ:anDooRL1HQEC</t>
+  </si>
+  <si>
+    <t>KJbsVl8AAAAJ:jU7OWUQzBzMC</t>
+  </si>
+  <si>
+    <t>TkQwXP0AAAAJ:hC7cP41nSMkC</t>
+  </si>
+  <si>
+    <t>bW1gAI8AAAAJ:isC4tDSrTZIC</t>
+  </si>
+  <si>
+    <t>l5bgTfwAAAAJ:kzcrU_BdoSEC</t>
+  </si>
+  <si>
+    <t>8NhTE04AAAAJ:Zph67rFs4hoC</t>
+  </si>
+  <si>
+    <t>RUYFKtUAAAAJ:_kc_bZDykSQC</t>
+  </si>
+  <si>
+    <t>HAtzuaYAAAAJ:r0BpntZqJG4C</t>
+  </si>
+  <si>
+    <t>HgOAYUAAAAAJ:-_dYPAW6P2MC</t>
+  </si>
+  <si>
+    <t>KJbsVl8AAAAJ:MhiOAD_qIWkC</t>
+  </si>
+  <si>
+    <t>sH2a0nkAAAAJ:ye4kPcJQO24C</t>
+  </si>
+  <si>
+    <t>-vQ3LvkAAAAJ:LkGwnXOMwfcC</t>
+  </si>
+  <si>
+    <t>ITgs9IMAAAAJ:9ZlFYXVOiuMC</t>
+  </si>
+  <si>
+    <t>KuLOz4gAAAAJ:UeHWp8X0CEIC</t>
+  </si>
+  <si>
+    <t>caIOS-YAAAAJ:7PzlFSSx8tAC</t>
+  </si>
+  <si>
+    <t>T7xfd6UAAAAJ:UeHWp8X0CEIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3347,72 +3443,73 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF262626"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="16"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3420,167 +3517,38 @@
       <sz val="16"/>
       <color rgb="FF800080"/>
       <name val="Times New Roman Regular"/>
-      <charset val="0"/>
     </font>
     <font>
       <u/>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman Regular"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3593,194 +3561,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3803,251 +3585,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4085,10 +3628,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4100,7 +3643,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4124,7 +3667,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4154,7 +3697,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4208,13 +3751,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4244,7 +3787,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4262,99 +3805,169 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -4365,7 +3978,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -4393,154 +4006,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4818,28 +4317,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="19.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="38.9333333333333" style="60" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="61" customWidth="1"/>
-    <col min="4" max="4" width="37.65" style="61" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="61" customWidth="1"/>
-    <col min="6" max="6" width="90.875" style="60" customWidth="1"/>
-    <col min="7" max="20" width="9.23333333333333" style="60"/>
-    <col min="21" max="23" width="9.23333333333333" style="66"/>
+    <col min="1" max="1" width="25.109375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="61" customWidth="1"/>
+    <col min="6" max="6" width="90.88671875" style="60" customWidth="1"/>
+    <col min="7" max="20" width="9.21875" style="60"/>
+    <col min="21" max="23" width="9.21875" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4880,7 +4379,7 @@
       </c>
       <c r="F2" s="70"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
@@ -4897,7 +4396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="97.5" spans="1:6">
+    <row r="4" spans="1:6" ht="126">
       <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
@@ -4915,7 +4414,7 @@
       </c>
       <c r="F4" s="70"/>
     </row>
-    <row r="5" ht="39" spans="1:5">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="69" t="s">
         <v>12</v>
       </c>
@@ -4932,7 +4431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="69" t="s">
         <v>13</v>
       </c>
@@ -4949,7 +4448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1" spans="1:5">
+    <row r="7" spans="1:6" ht="60" customHeight="1">
       <c r="A7" s="69" t="s">
         <v>14</v>
       </c>
@@ -4966,7 +4465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="154.5" customHeight="1" spans="1:5">
+    <row r="8" spans="1:6" ht="154.5" customHeight="1">
       <c r="A8" s="69" t="s">
         <v>15</v>
       </c>
@@ -4983,7 +4482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="185.85" customHeight="1" spans="1:5">
+    <row r="9" spans="1:6" ht="185.85" customHeight="1">
       <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
@@ -5000,7 +4499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="69" t="s">
         <v>18</v>
       </c>
@@ -5017,7 +4516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="39" spans="1:5">
+    <row r="11" spans="1:6" ht="42">
       <c r="A11" s="69" t="s">
         <v>19</v>
       </c>
@@ -5034,7 +4533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="117" spans="1:5">
+    <row r="12" spans="1:6" ht="168">
       <c r="A12" s="69" t="s">
         <v>20</v>
       </c>
@@ -5051,7 +4550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="39" spans="1:5">
+    <row r="13" spans="1:6" ht="42">
       <c r="A13" s="69" t="s">
         <v>21</v>
       </c>
@@ -5068,7 +4567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="39" spans="1:6">
+    <row r="14" spans="1:6" ht="42">
       <c r="A14" s="69" t="s">
         <v>22</v>
       </c>
@@ -5088,7 +4587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="69" t="s">
         <v>25</v>
       </c>
@@ -5105,7 +4604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="65" t="s">
         <v>26</v>
       </c>
@@ -5122,7 +4621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="69" t="s">
         <v>27</v>
       </c>
@@ -5139,7 +4638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="69" t="s">
         <v>28</v>
       </c>
@@ -5156,7 +4655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="65" t="s">
         <v>29</v>
       </c>
@@ -5173,7 +4672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="69" t="s">
         <v>30</v>
       </c>
@@ -5190,7 +4689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" ht="42">
       <c r="A21" s="69" t="s">
         <v>31</v>
       </c>
@@ -5207,7 +4706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" ht="42">
       <c r="A22" s="69" t="s">
         <v>32</v>
       </c>
@@ -5224,7 +4723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="69" t="s">
         <v>33</v>
       </c>
@@ -5241,7 +4740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" ht="39" spans="1:5">
+    <row r="24" spans="1:6" ht="42">
       <c r="A24" s="69" t="s">
         <v>34</v>
       </c>
@@ -5278,7 +4777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="69" t="s">
         <v>37</v>
       </c>
@@ -5295,7 +4794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="69" t="s">
         <v>38</v>
       </c>
@@ -5312,7 +4811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" ht="77.5" customHeight="1" spans="1:5">
+    <row r="28" spans="1:6" ht="77.55" customHeight="1">
       <c r="A28" s="69" t="s">
         <v>39</v>
       </c>
@@ -5329,7 +4828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="69" t="s">
         <v>41</v>
       </c>
@@ -5366,7 +4865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="69" t="s">
         <v>44</v>
       </c>
@@ -5383,7 +4882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="69" t="s">
         <v>45</v>
       </c>
@@ -5420,7 +4919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="58.5" spans="1:5">
+    <row r="34" spans="1:6" ht="105">
       <c r="A34" s="69" t="s">
         <v>48</v>
       </c>
@@ -5437,7 +4936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="69" t="s">
         <v>49</v>
       </c>
@@ -5454,7 +4953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" ht="58.5" spans="1:6">
+    <row r="36" spans="1:6" ht="63">
       <c r="A36" s="69" t="s">
         <v>50</v>
       </c>
@@ -5474,7 +4973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="65" t="s">
         <v>52</v>
       </c>
@@ -5491,7 +4990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="69" t="s">
         <v>53</v>
       </c>
@@ -5508,7 +5007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="69" t="s">
         <v>54</v>
       </c>
@@ -5545,7 +5044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="69" t="s">
         <v>57</v>
       </c>
@@ -5562,7 +5061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="39" spans="1:5">
+    <row r="42" spans="1:6" ht="42">
       <c r="A42" s="69" t="s">
         <v>58</v>
       </c>
@@ -5579,7 +5078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="69" t="s">
         <v>59</v>
       </c>
@@ -5596,7 +5095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6" ht="42">
       <c r="A44" s="69" t="s">
         <v>60</v>
       </c>
@@ -5613,7 +5112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="69" t="s">
         <v>61</v>
       </c>
@@ -5630,7 +5129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="69" t="s">
         <v>62</v>
       </c>
@@ -5687,7 +5186,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="69" t="s">
         <v>67</v>
       </c>
@@ -5704,7 +5203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="69" t="s">
         <v>68</v>
       </c>
@@ -5721,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="69" t="s">
         <v>69</v>
       </c>
@@ -5738,7 +5237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" ht="78" spans="1:5">
+    <row r="52" spans="1:6" ht="105">
       <c r="A52" s="69" t="s">
         <v>70</v>
       </c>
@@ -5755,7 +5254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="69" t="s">
         <v>71</v>
       </c>
@@ -5772,7 +5271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="69" t="s">
         <v>72</v>
       </c>
@@ -5809,7 +5308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" ht="58.5" spans="1:6">
+    <row r="56" spans="1:6" ht="63">
       <c r="A56" s="69" t="s">
         <v>75</v>
       </c>
@@ -5829,7 +5328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" ht="39" spans="1:5">
+    <row r="57" spans="1:6" ht="42">
       <c r="A57" s="69" t="s">
         <v>79</v>
       </c>
@@ -5846,7 +5345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="42">
       <c r="A58" s="69" t="s">
         <v>80</v>
       </c>
@@ -5886,7 +5385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" ht="39" spans="1:5">
+    <row r="60" spans="1:6" ht="63">
       <c r="A60" s="69" t="s">
         <v>84</v>
       </c>
@@ -5903,7 +5402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" ht="97.5" spans="1:6">
+    <row r="61" spans="1:6" ht="147">
       <c r="A61" s="69" t="s">
         <v>85</v>
       </c>
@@ -5923,7 +5422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" ht="39" spans="1:6">
+    <row r="62" spans="1:6" ht="42">
       <c r="A62" s="69" t="s">
         <v>87</v>
       </c>
@@ -6023,7 +5522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" ht="65" customHeight="1" spans="1:5">
+    <row r="67" spans="1:6" ht="64.95" customHeight="1">
       <c r="A67" s="69" t="s">
         <v>97</v>
       </c>
@@ -6040,7 +5539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" ht="39" spans="1:5">
+    <row r="68" spans="1:6" ht="63">
       <c r="A68" s="69" t="s">
         <v>98</v>
       </c>
@@ -6057,7 +5556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" ht="39" spans="1:6">
+    <row r="69" spans="1:6" ht="42">
       <c r="A69" s="69" t="s">
         <v>99</v>
       </c>
@@ -6117,7 +5616,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" ht="39" spans="1:6">
+    <row r="72" spans="1:6" ht="42">
       <c r="A72" s="69" t="s">
         <v>104</v>
       </c>
@@ -6137,7 +5636,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="69" t="s">
         <v>106</v>
       </c>
@@ -6154,7 +5653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="69" t="s">
         <v>107</v>
       </c>
@@ -6171,7 +5670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" ht="65.85" customHeight="1" spans="1:5">
+    <row r="75" spans="1:6" ht="65.849999999999994" customHeight="1">
       <c r="A75" s="65" t="s">
         <v>108</v>
       </c>
@@ -6188,7 +5687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="42">
       <c r="A76" s="69" t="s">
         <v>109</v>
       </c>
@@ -6208,7 +5707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="69" t="s">
         <v>111</v>
       </c>
@@ -6225,7 +5724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="69" t="s">
         <v>112</v>
       </c>
@@ -6302,7 +5801,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="42">
       <c r="A82" s="69" t="s">
         <v>119</v>
       </c>
@@ -6342,7 +5841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="42">
       <c r="A84" s="69" t="s">
         <v>124</v>
       </c>
@@ -6382,7 +5881,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" ht="58.5" spans="1:5">
+    <row r="86" spans="1:6" ht="63">
       <c r="A86" s="69" t="s">
         <v>128</v>
       </c>
@@ -6420,78 +5919,75 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:F87">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F87">
     <sortCondition ref="B56"/>
   </sortState>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Optimal,Sub-optimal,Optimal and Sub-optimal,No sense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"One-shot,Lifelong,One-shot and Lifelong"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Discrete space,Continuous space"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F25" r:id="rId1" display="https://github.com/Jiaoyang-Li/CBSH2-RTC" tooltip="https://github.com/Jiaoyang-Li/CBSH2-RTC"/>
-    <hyperlink ref="F14" r:id="rId2" display="https://github.com/Jiaoyang-Li/PBS" tooltip="https://github.com/Jiaoyang-Li/PBS"/>
-    <hyperlink ref="F30" r:id="rId3" display="https://github.com/ed-lam/bcp-mapf" tooltip="https://github.com/ed-lam/bcp-mapf"/>
-    <hyperlink ref="F33" r:id="rId4" display="https://bitbucket.org/gkgange/lazycbs/" tooltip="https://bitbucket.org/gkgange/lazycbs/"/>
-    <hyperlink ref="F36" r:id="rId5" display="https://github.com/thaynewalker/hog2" tooltip="https://github.com/thaynewalker/hog2"/>
-    <hyperlink ref="F47" r:id="rId6" display="https://github.com/HanZhang39/MAPF-PC"/>
-    <hyperlink ref="F48" r:id="rId7" display="https://github.com/Jiaoyang-Li/MAPF-LNS2"/>
-    <hyperlink ref="F58" r:id="rId8" display="https://github.com/bshen95/CBSH2-RTC-CHBP"/>
-    <hyperlink ref="F59" r:id="rId9" display="https://github.com/wonderren/public_bbmocbs"/>
-    <hyperlink ref="F61" r:id="rId10" display="https://github.com/lunjohnzhang/MAPF-Mechanism" tooltip="https://github.com/lunjohnzhang/MAPF-Mechanism"/>
-    <hyperlink ref="F62" r:id="rId11" display="https://github.com/FangjiW/BBMOCBS-approx" tooltip="https://github.com/FangjiW/BBMOCBS-approx"/>
-    <hyperlink ref="F63" r:id="rId12" display="https://github.com/YifanSu1301/BTPG" tooltip="https://github.com/YifanSu1301/BTPG"/>
-    <hyperlink ref="F64" r:id="rId13" display="https://github.com/Kei18/pibt" tooltip="https://github.com/Kei18/pibt"/>
-    <hyperlink ref="F72" r:id="rId14" display="https://github.com/Kei18/time-independent-planning" tooltip="https://github.com/Kei18/time-independent-planning"/>
-    <hyperlink ref="F71" r:id="rId13" display="https://github.com/Kei18/pibt" tooltip="https://github.com/Kei18/pibt"/>
-    <hyperlink ref="F80" r:id="rId15" display="https://github.com/Kei18/pibt2" tooltip="https://github.com/Kei18/pibt2"/>
-    <hyperlink ref="F79" r:id="rId16" display="https://github.com/kei18/lacam" tooltip="https://github.com/kei18/lacam"/>
-    <hyperlink ref="F81" r:id="rId17" display="https://github.com/kei18/lacam2" tooltip="https://github.com/kei18/lacam2"/>
-    <hyperlink ref="F82" r:id="rId18" display="https://github.com/kei18/lacam3" tooltip="https://github.com/kei18/lacam3"/>
-    <hyperlink ref="F65" r:id="rId19" display="https://github.com/kei18/tswap" tooltip="https://github.com/kei18/tswap"/>
-    <hyperlink ref="F66" r:id="rId20" display="https://github.com/whoenig/libMultiRobotPlanning" tooltip="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="F76" r:id="rId21" display="https://github.com/YueZhang-studyuse/MAPF_T" tooltip="https://github.com/YueZhang-studyuse/MAPF_T"/>
-    <hyperlink ref="F83" r:id="rId22" display="https://github.com/YueZhang-studyuse/PIE" tooltip="https://github.com/YueZhang-studyuse/PIE"/>
-    <hyperlink ref="F55" r:id="rId23" display="https://github.com/PathPlanning/Continuous-CBS" tooltip="https://github.com/PathPlanning/Continuous-CBS"/>
-    <hyperlink ref="F69" r:id="rId24" display="https://github.com/PathPlanning/Push-and-Rotate--CBS--PrioritizedPlanning" tooltip="https://github.com/PathPlanning/Push-and-Rotate--CBS--PrioritizedPlanning"/>
-    <hyperlink ref="F84" r:id="rId25" display="https://github.com/PathPlanning/Continuous-CBS/tree/AA-CCBS" tooltip="https://github.com/PathPlanning/Continuous-CBS/tree/AA-CCBS"/>
-    <hyperlink ref="F85" r:id="rId26" display="https://github.com/PathPlanning/AMAPF-MF-BS" tooltip="https://github.com/PathPlanning/AMAPF-MF-BS"/>
-    <hyperlink ref="F56" r:id="rId27" display="https://github.com/Jiaoyang-Li/RHCR" tooltip="https://github.com/Jiaoyang-Li/RHCR"/>
-    <hyperlink ref="F87" r:id="rId28" display="https://github.com/lunjohnzhang/ggo_public" tooltip="https://github.com/lunjohnzhang/ggo_public"/>
-    <hyperlink ref="F70" r:id="rId29" display="http://github.com/NitzanMadar/exPBS-exRHCR" tooltip="http://github.com/NitzanMadar/exPBS-exRHCR"/>
+    <hyperlink ref="F25" r:id="rId1" tooltip="https://github.com/Jiaoyang-Li/CBSH2-RTC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F14" r:id="rId2" tooltip="https://github.com/Jiaoyang-Li/PBS" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F30" r:id="rId3" tooltip="https://github.com/ed-lam/bcp-mapf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F33" r:id="rId4" tooltip="https://bitbucket.org/gkgange/lazycbs/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F36" r:id="rId5" tooltip="https://github.com/thaynewalker/hog2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F48" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F58" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F59" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F61" r:id="rId10" tooltip="https://github.com/lunjohnzhang/MAPF-Mechanism" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F62" r:id="rId11" tooltip="https://github.com/FangjiW/BBMOCBS-approx" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F63" r:id="rId12" tooltip="https://github.com/YifanSu1301/BTPG" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F64" r:id="rId13" tooltip="https://github.com/Kei18/pibt" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F72" r:id="rId14" tooltip="https://github.com/Kei18/time-independent-planning" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F71" r:id="rId15" tooltip="https://github.com/Kei18/pibt" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F80" r:id="rId16" tooltip="https://github.com/Kei18/pibt2" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F79" r:id="rId17" tooltip="https://github.com/kei18/lacam" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F81" r:id="rId18" tooltip="https://github.com/kei18/lacam2" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F82" r:id="rId19" tooltip="https://github.com/kei18/lacam3" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F65" r:id="rId20" tooltip="https://github.com/kei18/tswap" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F66" r:id="rId21" tooltip="https://github.com/whoenig/libMultiRobotPlanning" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F76" r:id="rId22" tooltip="https://github.com/YueZhang-studyuse/MAPF_T" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F83" r:id="rId23" tooltip="https://github.com/YueZhang-studyuse/PIE" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F55" r:id="rId24" tooltip="https://github.com/PathPlanning/Continuous-CBS" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F69" r:id="rId25" tooltip="https://github.com/PathPlanning/Push-and-Rotate--CBS--PrioritizedPlanning" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F84" r:id="rId26" tooltip="https://github.com/PathPlanning/Continuous-CBS/tree/AA-CCBS" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F85" r:id="rId27" tooltip="https://github.com/PathPlanning/AMAPF-MF-BS" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F56" r:id="rId28" tooltip="https://github.com/Jiaoyang-Li/RHCR" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F87" r:id="rId29" tooltip="https://github.com/lunjohnzhang/ggo_public" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F70" r:id="rId30" tooltip="http://github.com/NitzanMadar/exPBS-exRHCR" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="26.85" style="60" customWidth="1"/>
-    <col min="2" max="2" width="38.9333333333333" style="60" customWidth="1"/>
-    <col min="3" max="3" width="26.925" style="61" customWidth="1"/>
-    <col min="4" max="4" width="37.65" style="61" customWidth="1"/>
-    <col min="5" max="5" width="25.6916666666667" style="61" customWidth="1"/>
-    <col min="6" max="6" width="58.4833333333333" style="60" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="60" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="58.44140625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="20.399999999999999">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -6511,7 +6007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="20.25" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="63" t="s">
         <v>131</v>
       </c>
@@ -6529,7 +6025,7 @@
       </c>
       <c r="F2" s="64"/>
     </row>
-    <row r="3" ht="20.25" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="63" t="s">
         <v>132</v>
       </c>
@@ -6547,7 +6043,7 @@
       </c>
       <c r="F3" s="64"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="63" t="s">
         <v>133</v>
       </c>
@@ -6564,7 +6060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="63" t="s">
         <v>134</v>
       </c>
@@ -6581,7 +6077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="63" t="s">
         <v>135</v>
       </c>
@@ -6598,7 +6094,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="63" t="s">
         <v>137</v>
       </c>
@@ -6615,7 +6111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="63" t="s">
         <v>138</v>
       </c>
@@ -6632,7 +6128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="63" t="s">
         <v>139</v>
       </c>
@@ -6649,7 +6145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="63" t="s">
         <v>140</v>
       </c>
@@ -6666,7 +6162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="63" t="s">
         <v>141</v>
       </c>
@@ -6683,7 +6179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="63" t="s">
         <v>142</v>
       </c>
@@ -6700,7 +6196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="63" t="s">
         <v>143</v>
       </c>
@@ -6717,7 +6213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="63" t="s">
         <v>144</v>
       </c>
@@ -6734,7 +6230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="63" t="s">
         <v>145</v>
       </c>
@@ -6751,7 +6247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="63" t="s">
         <v>65</v>
       </c>
@@ -6956,54 +6452,53 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Optimal,Sub-optimal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"One-shot,Lifelong"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Discrete space,Continuous space,3D"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="D33" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="69.125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.0083333333333" style="26" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16" style="26" customWidth="1"/>
     <col min="4" max="4" width="86" style="26" customWidth="1"/>
-    <col min="5" max="5" width="112.333333333333" style="39" customWidth="1"/>
-    <col min="6" max="6" width="56.75" style="26" customWidth="1"/>
-    <col min="7" max="7" width="40.4166666666667" style="26" customWidth="1"/>
-    <col min="8" max="8" width="16.0083333333333" style="27" customWidth="1"/>
-    <col min="9" max="9" width="18.175" style="27" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="27" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="112.33203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="56.77734375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16" style="27" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="26" customWidth="1"/>
     <col min="12" max="12" width="9" style="27"/>
-    <col min="13" max="13" width="31.75" style="27" customWidth="1"/>
+    <col min="13" max="13" width="31.77734375" style="27" customWidth="1"/>
     <col min="14" max="14" width="9" style="27"/>
-    <col min="15" max="15" width="13.25" style="27" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="27" customWidth="1"/>
-    <col min="17" max="17" width="26.125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="27" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="27" customWidth="1"/>
+    <col min="17" max="17" width="26.109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>157</v>
       </c>
@@ -7574,7 +7069,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" s="26" customFormat="1" ht="12" spans="1:17">
+    <row r="14" spans="1:17" s="26" customFormat="1" ht="13.2">
       <c r="A14" s="49" t="s">
         <v>235</v>
       </c>
@@ -7955,7 +7450,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" ht="26.4">
       <c r="A23" s="49" t="s">
         <v>278</v>
       </c>
@@ -8301,7 +7796,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="31" ht="13" customHeight="1" spans="1:17">
+    <row r="31" spans="1:17" ht="13.05" customHeight="1">
       <c r="A31" s="49" t="s">
         <v>319</v>
       </c>
@@ -8346,7 +7841,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" ht="26.4">
       <c r="A32" s="49" t="s">
         <v>325</v>
       </c>
@@ -8393,7 +7888,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" ht="24" spans="1:17">
+    <row r="33" spans="1:17" ht="26.4">
       <c r="A33" s="49" t="s">
         <v>330</v>
       </c>
@@ -8569,7 +8064,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" ht="24" spans="1:17">
+    <row r="37" spans="1:17" ht="26.4">
       <c r="A37" s="58" t="s">
         <v>351</v>
       </c>
@@ -8919,7 +8414,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="45" ht="24" spans="1:17">
+    <row r="45" spans="1:17" ht="26.4">
       <c r="A45" s="49" t="s">
         <v>392</v>
       </c>
@@ -8962,7 +8457,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="46" ht="24" spans="1:17">
+    <row r="46" spans="1:17" ht="26.4">
       <c r="A46" s="49" t="s">
         <v>397</v>
       </c>
@@ -9056,7 +8551,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" ht="24" spans="1:17">
+    <row r="48" spans="1:17" ht="26.4">
       <c r="A48" s="49" t="s">
         <v>409</v>
       </c>
@@ -9146,7 +8641,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" ht="26.4">
       <c r="A50" s="49" t="s">
         <v>421</v>
       </c>
@@ -9193,7 +8688,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" ht="24" spans="1:17">
+    <row r="51" spans="1:17" ht="26.4">
       <c r="A51" s="49" t="s">
         <v>429</v>
       </c>
@@ -9236,7 +8731,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" ht="24" spans="1:17">
+    <row r="52" spans="1:17" ht="26.4">
       <c r="A52" s="49" t="s">
         <v>434</v>
       </c>
@@ -9612,7 +9107,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" ht="24" spans="1:17">
+    <row r="60" spans="1:17" ht="26.4">
       <c r="A60" s="49" t="s">
         <v>484</v>
       </c>
@@ -9706,7 +9201,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" ht="26.4">
       <c r="A62" s="49" t="s">
         <v>496</v>
       </c>
@@ -9921,7 +9416,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" ht="26.4">
       <c r="A67" s="58" t="s">
         <v>518</v>
       </c>
@@ -10007,7 +9502,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" ht="26.4">
       <c r="A69" s="49" t="s">
         <v>528</v>
       </c>
@@ -10095,7 +9590,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="71" ht="24" spans="1:17">
+    <row r="71" spans="1:17" ht="26.4">
       <c r="A71" s="58" t="s">
         <v>538</v>
       </c>
@@ -10136,7 +9631,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="72" ht="36" spans="1:17">
+    <row r="72" spans="1:17" ht="39.6">
       <c r="A72" s="58" t="s">
         <v>543</v>
       </c>
@@ -10179,7 +9674,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" ht="26.4">
       <c r="A73" s="58" t="s">
         <v>546</v>
       </c>
@@ -10352,7 +9847,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" ht="24" spans="1:17">
+    <row r="77" spans="1:17" ht="26.4">
       <c r="A77" s="58" t="s">
         <v>563</v>
       </c>
@@ -10397,7 +9892,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="78" ht="24" spans="1:17">
+    <row r="78" spans="1:17" ht="26.4">
       <c r="A78" s="49" t="s">
         <v>566</v>
       </c>
@@ -10442,7 +9937,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="79" ht="24" spans="1:17">
+    <row r="79" spans="1:17" ht="26.4">
       <c r="A79" s="58" t="s">
         <v>569</v>
       </c>
@@ -10485,7 +9980,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="80" ht="24" spans="1:17">
+    <row r="80" spans="1:17" ht="26.4">
       <c r="A80" s="58" t="s">
         <v>573</v>
       </c>
@@ -10528,7 +10023,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="81" ht="24" spans="1:17">
+    <row r="81" spans="1:17" ht="26.4">
       <c r="A81" s="58" t="s">
         <v>579</v>
       </c>
@@ -10571,7 +10066,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="82" ht="24" spans="1:17">
+    <row r="82" spans="1:17" ht="26.4">
       <c r="A82" s="58" t="s">
         <v>583</v>
       </c>
@@ -10616,7 +10111,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" ht="26.4">
       <c r="A83" s="58" t="s">
         <v>586</v>
       </c>
@@ -10659,7 +10154,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="84" ht="24" spans="1:17">
+    <row r="84" spans="1:17" ht="26.4">
       <c r="A84" s="58" t="s">
         <v>589</v>
       </c>
@@ -10702,7 +10197,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="85" ht="24" spans="1:17">
+    <row r="85" spans="1:17" ht="26.4">
       <c r="A85" s="58" t="s">
         <v>592</v>
       </c>
@@ -10743,7 +10238,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" ht="26.4">
       <c r="A86" s="58" t="s">
         <v>597</v>
       </c>
@@ -10786,7 +10281,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" ht="26.4">
       <c r="A87" s="58" t="s">
         <v>600</v>
       </c>
@@ -10829,7 +10324,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="88" ht="24" spans="1:17">
+    <row r="88" spans="1:17" ht="26.4">
       <c r="A88" s="58" t="s">
         <v>604</v>
       </c>
@@ -10870,7 +10365,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" ht="26.4">
       <c r="A89" s="58" t="s">
         <v>609</v>
       </c>
@@ -10913,7 +10408,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="90" ht="24" spans="1:17">
+    <row r="90" spans="1:17" ht="26.4">
       <c r="A90" s="58" t="s">
         <v>613</v>
       </c>
@@ -10999,7 +10494,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="92" ht="24" spans="1:17">
+    <row r="92" spans="1:17" ht="26.4">
       <c r="A92" s="58" t="s">
         <v>621</v>
       </c>
@@ -11257,7 +10752,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="98" ht="24" spans="1:17">
+    <row r="98" spans="1:17" ht="26.4">
       <c r="A98" s="58" t="s">
         <v>645</v>
       </c>
@@ -11341,7 +10836,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" ht="26.4">
       <c r="A100" s="58" t="s">
         <v>653</v>
       </c>
@@ -11425,7 +10920,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="102" ht="24" spans="1:17">
+    <row r="102" spans="1:17" ht="26.4">
       <c r="A102" s="58" t="s">
         <v>663</v>
       </c>
@@ -11511,7 +11006,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="104" ht="24" spans="1:17">
+    <row r="104" spans="1:17" ht="26.4">
       <c r="A104" s="58" t="s">
         <v>672</v>
       </c>
@@ -11552,7 +11047,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="105" ht="24" spans="1:17">
+    <row r="105" spans="1:17" ht="26.4">
       <c r="A105" s="58" t="s">
         <v>677</v>
       </c>
@@ -11593,7 +11088,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="106" ht="24" spans="1:17">
+    <row r="106" spans="1:17" ht="26.4">
       <c r="A106" s="58" t="s">
         <v>682</v>
       </c>
@@ -11638,7 +11133,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="107" ht="24" spans="1:17">
+    <row r="107" spans="1:17" ht="26.4">
       <c r="A107" s="58" t="s">
         <v>687</v>
       </c>
@@ -11728,7 +11223,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" ht="26.4">
       <c r="A109" s="58" t="s">
         <v>700</v>
       </c>
@@ -12293,7 +11788,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="122" ht="36" spans="1:17">
+    <row r="122" spans="1:17" ht="39.6">
       <c r="A122" s="58" t="s">
         <v>765</v>
       </c>
@@ -12342,7 +11837,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="123" ht="24" spans="1:17">
+    <row r="123" spans="1:17" ht="26.4">
       <c r="A123" s="58" t="s">
         <v>773</v>
       </c>
@@ -12430,7 +11925,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="125" ht="24" spans="1:17">
+    <row r="125" spans="1:17" ht="26.4">
       <c r="A125" s="58" t="s">
         <v>783</v>
       </c>
@@ -12520,7 +12015,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="127" ht="24" spans="1:17">
+    <row r="127" spans="1:17" ht="26.4">
       <c r="A127" s="58" t="s">
         <v>794</v>
       </c>
@@ -12617,170 +12112,169 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"classical,learning,benchmarks,augmented"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"One-shot,Lifelong,One-shot and Lifelong"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Optimal,Sub-optimal,Optimal and Sub-optimal,No sense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Discrete space,Continuous space"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L1048576 N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L1048576 N2:N1048576" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"A,B,C,None,Preprint"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S0004370221001259?via%3Dihub"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://github.com/Jiaoyang-Li/CBSH2-RTC"/>
-    <hyperlink ref="E3" r:id="rId3" display="https://www.ijcai.org/Proceedings/15/Papers/110.pdf"/>
-    <hyperlink ref="E4" r:id="rId4" display="https://doi.org/10.1609/icaps.v25i1.13725"/>
-    <hyperlink ref="E5" r:id="rId5" display="https://doi.org/10.1609/icaps.v28i1.13883" tooltip="https://doi.org/10.1609/icaps.v28i1.13883"/>
-    <hyperlink ref="E6" r:id="rId6" display="https://doi.org/10.48550/arXiv.1806.04216"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://doi.org/10.1609/icaps.v29i1.3487" tooltip="https://doi.org/10.1609/icaps.v29i1.3487"/>
-    <hyperlink ref="E7" r:id="rId8" display="https://www.ijcai.org/proceedings/2019/0063.pdf"/>
-    <hyperlink ref="E128" r:id="rId9" display="https://doi.org/10.1609/socs.v15i1.21759"/>
-    <hyperlink ref="F128" r:id="rId10" display="https://github.com/NitzanMadar/exPBS-exRHCR"/>
-    <hyperlink ref="E127" r:id="rId11" display="https://doi.org/10.1609/socs.v17i1.31565"/>
-    <hyperlink ref="E126" r:id="rId12" display="https://doi.org/10.1609/aaai.v38i18.30054"/>
-    <hyperlink ref="F125" r:id="rId13" display="https://github.com/lunjohnzhang/ggo_public"/>
-    <hyperlink ref="E123" r:id="rId14" display="https://doi.org/10.1609/aaai.v35i13.17344"/>
-    <hyperlink ref="F123" r:id="rId15" display="https://github.com/Jiaoyang-Li/RHCR"/>
-    <hyperlink ref="F122" r:id="rId16" display="https://github.com/ct2034/cobra"/>
-    <hyperlink ref="E119" r:id="rId17" display="https://doi.org/10.1609/icaps.v33i1.27175"/>
-    <hyperlink ref="E9" r:id="rId18" display="https://par.nsf.gov/servlets/purl/10107498" tooltip="https://par.nsf.gov/servlets/purl/10107498"/>
-    <hyperlink ref="E10" r:id="rId19" display="https://par.nsf.gov/servlets/purl/10118766" tooltip="https://par.nsf.gov/servlets/purl/10118766"/>
-    <hyperlink ref="E12" r:id="rId20" display="https://doi.org/10.1609/aaai.v33i01.33017627" tooltip="https://doi.org/10.1609/aaai.v33i01.33017627"/>
-    <hyperlink ref="E13" r:id="rId21" display="https://doi.org/10.48550/arXiv.1812.06356" tooltip="https://doi.org/10.48550/arXiv.1812.06356"/>
-    <hyperlink ref="E14" r:id="rId22" display="https://doi.org/10.24963/ijcai.2020/562" tooltip="https://doi.org/10.24963/ijcai.2020/562"/>
-    <hyperlink ref="E15" r:id="rId23" display="https://doi.org/10.24963/ijcai.2020/565" tooltip="https://doi.org/10.24963/ijcai.2020/565"/>
-    <hyperlink ref="E16" r:id="rId24" display="https://doi.org/10.1609/icaps.v30i1.6661" tooltip="https://doi.org/10.1609/icaps.v30i1.6661"/>
-    <hyperlink ref="E17" r:id="rId25" display="https://doi.org/10.1609/socs.v11i1.18525" tooltip="https://doi.org/10.1609/socs.v11i1.18525"/>
-    <hyperlink ref="E18" r:id="rId26" display="https://shchan13.github.io/files/ChanWoMAPF20.pdf" tooltip="https://shchan13.github.io/files/ChanWoMAPF20.pdf"/>
-    <hyperlink ref="E19" r:id="rId27" display="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16" tooltip="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16"/>
-    <hyperlink ref="E20" r:id="rId28" display="https://doi.org/10.24963/ijcai.2021/568" tooltip="https://doi.org/10.24963/ijcai.2021/568"/>
-    <hyperlink ref="E117" r:id="rId29" display="https://doi.org/10.1609/socs.v15i1.21747"/>
-    <hyperlink ref="E116" r:id="rId30" display="https://doi.org/10.1609/icaps.v31i1.15942"/>
-    <hyperlink ref="E115" r:id="rId31" display="https://doi.org/10.1613/jair.1.12397"/>
-    <hyperlink ref="E114" r:id="rId32" display="https://doi.org/10.1609/icaps.v30i1.6642"/>
-    <hyperlink ref="E111" r:id="rId33" display="https://doi.org/10.1609/aaai.v33i01.33017732"/>
-    <hyperlink ref="E112" r:id="rId34" display="https://doi.org/10.1613/jair.1.11734"/>
-    <hyperlink ref="E110" r:id="rId35" display="https://doi.org/10.1609/socs.v9i1.18445"/>
-    <hyperlink ref="E109" r:id="rId36" display="https://doi.org/10.1609/aaai.v38i16.29676"/>
-    <hyperlink ref="F108" r:id="rId37" display="https://github.com/PathPlanning/Continuous-CBS/"/>
-    <hyperlink ref="F106" r:id="rId38" display="https://github.com/PathPlanning/Push-and-Rotate--CBS--PrioritizedPlanning"/>
-    <hyperlink ref="E103" r:id="rId39" display="https://doi.org/10.1609/aaai.v35i13.17338"/>
-    <hyperlink ref="E100" r:id="rId40" display="https://doi.org/10.1613/jair.1.13318"/>
-    <hyperlink ref="E99" r:id="rId41" display="https://doi.org/10.1016/j.artint.2022.103662"/>
-    <hyperlink ref="E98" r:id="rId42" display="https://doi.org/10.1609/socs.v12i1.18583"/>
-    <hyperlink ref="E97" r:id="rId43" display="https://doi.org/10.1609/socs.v12i1.18567"/>
-    <hyperlink ref="E21" r:id="rId44" display="https://doi.org/10.1609/icaps.v31i1.15984"/>
-    <hyperlink ref="E22" r:id="rId45" display="https://doi.org/10.1609/aaai.v35i14.17466" tooltip="https://doi.org/10.1609/aaai.v35i14.17466"/>
-    <hyperlink ref="E23" r:id="rId46" display="https://doi.org/10.1609/aaai.v35i13.17340" tooltip="https://doi.org/10.1609/aaai.v35i13.17340"/>
-    <hyperlink ref="E24" r:id="rId47" display="https://doi.org/10.1609/aaai.v35i14.17456" tooltip="https://doi.org/10.1609/aaai.v35i14.17456"/>
-    <hyperlink ref="E25" r:id="rId48" display="https://doi.org/10.1609/socs.v12i1.18586" tooltip="https://doi.org/10.1609/socs.v12i1.18586"/>
-    <hyperlink ref="E26" r:id="rId49" display="https://doi.org/10.1016/j.artint.2022.103766" tooltip="https://doi.org/10.1016/j.artint.2022.103766"/>
-    <hyperlink ref="E27" r:id="rId50" display="https://ieeexplore.ieee.org/abstract/document/9926661" tooltip="https://ieeexplore.ieee.org/abstract/document/9926661"/>
-    <hyperlink ref="E28" r:id="rId51" display="https://doi.org/10.1609/socs.v15i1.21750" tooltip="https://doi.org/10.1609/socs.v15i1.21750"/>
-    <hyperlink ref="F92" r:id="rId52" display="https://github.com/surynek/boOX"/>
-    <hyperlink ref="E91" r:id="rId53" display="https://doi.org/10.1609/aaai.v35i14.17472"/>
-    <hyperlink ref="E83" r:id="rId54" display="https://doi.org/10.48550/arXiv.1903.09820"/>
-    <hyperlink ref="E81" r:id="rId55" display="https://doi.org/10.1609/socs.v10i1.18490"/>
-    <hyperlink ref="E75" r:id="rId56" display="https://doi.org/10.48550/arXiv.1907.07631"/>
-    <hyperlink ref="E71" r:id="rId57" display="https://doi.org/10.48550/arXiv.1812.10851"/>
-    <hyperlink ref="E70" r:id="rId58" display="https://doi.org/10.1609/socs.v9i1.18456"/>
-    <hyperlink ref="E69" r:id="rId59" display="https://doi.org/10.1609/socs.v16i1.27287"/>
-    <hyperlink ref="E67" r:id="rId60" display="https://doi.org/10.1609/socs.v12i1.18596"/>
-    <hyperlink ref="E66" r:id="rId61" display="https://doi.org/10.1609/icaps.v34i1.31534"/>
-    <hyperlink ref="E65" r:id="rId62" display="https://doi.org/10.1609/socs.v16i1.27290"/>
-    <hyperlink ref="E64" r:id="rId63" display="https://doi.org/10.1609/icaps.v32i1.19798"/>
-    <hyperlink ref="E63" r:id="rId64" display="https://doi.org/10.1016/j.cor.2022.105809"/>
-    <hyperlink ref="E62" r:id="rId65" display="https://doi.org/10.48550/arXiv.2308.04292"/>
-    <hyperlink ref="F62" r:id="rId66" display="https://github.com/Kei18/lacam3"/>
-    <hyperlink ref="E61" r:id="rId67" display="https://doi.org/10.48550/arXiv.2305.03632"/>
-    <hyperlink ref="F61" r:id="rId68" display="https://github.com/Kei18/lacam2"/>
-    <hyperlink ref="E60" r:id="rId69" display="https://doi.org/10.1016/j.artint.2023.103946"/>
-    <hyperlink ref="F60" r:id="rId70" display="https://github.com/Kei18/tswap"/>
-    <hyperlink ref="E59" r:id="rId71" display="https://doi.org/10.1609/aaai.v37i10.26377"/>
-    <hyperlink ref="F59" r:id="rId72" display="https://github.com/Kei18/lacam"/>
-    <hyperlink ref="E58" r:id="rId73" display="https://doi.org/10.1609/aaai.v37i10.26376"/>
-    <hyperlink ref="F58" r:id="rId74" display="https://github.com/Kei18/mappcf"/>
-    <hyperlink ref="E57" r:id="rId75" display="https://doi.org/10.1016/j.artint.2022.103752"/>
-    <hyperlink ref="F57" r:id="rId76" display="https://github.com/Kei18/pibt2"/>
-    <hyperlink ref="E56" r:id="rId77" display="https://doi.org/10.24963/ijcai.2022/645"/>
-    <hyperlink ref="F56" r:id="rId78" display="https://github.com/Kei18/otimapp"/>
-    <hyperlink ref="F55" r:id="rId79" display="https://github.com/Kei18/mapf-IR"/>
-    <hyperlink ref="E54" r:id="rId80" display="https://doi.org/10.1609/aaai.v35i13.17347"/>
-    <hyperlink ref="F54" r:id="rId81" display="https://github.com/Kei18/time-independent-planning"/>
-    <hyperlink ref="E53" r:id="rId82" display="https://doi.org/10.48550/arXiv.1905.10149"/>
-    <hyperlink ref="F53" r:id="rId83" display="https://github.com/Kei18/pibt"/>
-    <hyperlink ref="E52" r:id="rId84" display="https://doi.org/10.1609/aaai.v38i16.29706" tooltip="https://doi.org/10.1609/aaai.v38i16.29706"/>
-    <hyperlink ref="F52" r:id="rId85" display="https://github.com/YifanSu1301/BTPG"/>
-    <hyperlink ref="E51" r:id="rId86" display="https://doi.org/10.48550/arXiv.2402.08772"/>
-    <hyperlink ref="F50" r:id="rId87" display="https://github.com/JingtianYan/PSB-RAL"/>
-    <hyperlink ref="E49" r:id="rId88" display="https://doi.org/10.1609/icaps.v34i1.31524"/>
-    <hyperlink ref="E48" r:id="rId89" display="https://doi.org/10.1609/icaps.v34i1.31513"/>
-    <hyperlink ref="E47" r:id="rId90" display="https://doi.org/10.1609/icaps.v34i1.31477"/>
-    <hyperlink ref="F47" r:id="rId91" display="https://github.com/YinggggFeng/Switchable-Edge-Search"/>
-    <hyperlink ref="E46" r:id="rId92" display="https://doi.org/10.1609/socs.v17i1.31551"/>
-    <hyperlink ref="F46" r:id="rId93" display="https://github.com/whoenig/libMultiRobotPlanning" tooltip="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="E45" r:id="rId94" display="https://doi.org/10.1609/socs.v17i1.31548"/>
-    <hyperlink ref="E44" r:id="rId95" display="https://doi.org/10.48550/arXiv.2401.17044"/>
-    <hyperlink ref="F44" r:id="rId96" display="https://github.com/lunjohnzhang/MAPF-Mechanism"/>
-    <hyperlink ref="E43" r:id="rId97" display="https://doi.org/10.1609/socs.v17i1.31593"/>
-    <hyperlink ref="F43" r:id="rId98" display="https://github.com/lunjohnzhang/warehouse_env_gen_public"/>
-    <hyperlink ref="E42" r:id="rId99" display="https://doi.org/10.1609/aaai.v37i10.26368"/>
-    <hyperlink ref="E41" r:id="rId100" display="https://doi.org/10.1609/icaps.v33i1.27194"/>
-    <hyperlink ref="E40" r:id="rId101" display="https://doi.org/10.1609/icaps.v33i1.27187"/>
-    <hyperlink ref="E39" r:id="rId102" display="https://doi.org/10.1609/icaps.v33i1.27214"/>
-    <hyperlink ref="E38" r:id="rId103" display="https://doi.org/10.1609/icaps.v33i1.27217"/>
-    <hyperlink ref="E37" r:id="rId104" display="https://doi.org/10.1609/icaps.v33i1.27202"/>
-    <hyperlink ref="F35" r:id="rId93" display="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="E34" r:id="rId105" display="https://doi.org/10.1609/aaai.v36i9.21162"/>
-    <hyperlink ref="E33" r:id="rId106" display="https://doi.org/10.1609/aaai.v36i9.21170"/>
-    <hyperlink ref="E32" r:id="rId107" display="https://doi.org/10.1609/aaai.v36i9.21266"/>
-    <hyperlink ref="F32" r:id="rId108" display="https://github.com/Jiaoyang-Li/MAPF-LNS2"/>
-    <hyperlink ref="E29" r:id="rId109" display="https://doi.org/10.1609/socs.v15i1.21776"/>
-    <hyperlink ref="E36" r:id="rId110" display="https://doi.org/10.1016/j.artint.2023.103950"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" tooltip="https://doi.org/10.1609/icaps.v28i1.13883" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" tooltip="https://doi.org/10.1609/icaps.v29i1.3487" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E128" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="F128" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E127" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E126" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="F125" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="E123" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="F123" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="F122" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="E119" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="E9" r:id="rId18" tooltip="https://par.nsf.gov/servlets/purl/10107498" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="E10" r:id="rId19" tooltip="https://par.nsf.gov/servlets/purl/10118766" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="E12" r:id="rId20" tooltip="https://doi.org/10.1609/aaai.v33i01.33017627" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="E13" r:id="rId21" tooltip="https://doi.org/10.48550/arXiv.1812.06356" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="E14" r:id="rId22" tooltip="https://doi.org/10.24963/ijcai.2020/562" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="E15" r:id="rId23" tooltip="https://doi.org/10.24963/ijcai.2020/565" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="E16" r:id="rId24" tooltip="https://doi.org/10.1609/icaps.v30i1.6661" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="E17" r:id="rId25" tooltip="https://doi.org/10.1609/socs.v11i1.18525" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="E18" r:id="rId26" tooltip="https://shchan13.github.io/files/ChanWoMAPF20.pdf" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="E19" r:id="rId27" tooltip="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="E20" r:id="rId28" tooltip="https://doi.org/10.24963/ijcai.2021/568" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="E117" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="E116" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="E115" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="E114" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="E111" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="E112" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="E110" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="E109" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="F108" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="F106" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="E103" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="E100" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="E99" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="E98" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="E97" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="E21" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="E22" r:id="rId45" tooltip="https://doi.org/10.1609/aaai.v35i14.17466" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="E23" r:id="rId46" tooltip="https://doi.org/10.1609/aaai.v35i13.17340" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="E24" r:id="rId47" tooltip="https://doi.org/10.1609/aaai.v35i14.17456" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="E25" r:id="rId48" tooltip="https://doi.org/10.1609/socs.v12i1.18586" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="E26" r:id="rId49" tooltip="https://doi.org/10.1016/j.artint.2022.103766" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="E27" r:id="rId50" tooltip="https://ieeexplore.ieee.org/abstract/document/9926661" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="E28" r:id="rId51" tooltip="https://doi.org/10.1609/socs.v15i1.21750" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="F92" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="E91" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="E83" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="E81" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="E75" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="E71" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="E70" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="E69" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="E67" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="E66" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="E65" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="E63" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="E62" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="F62" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="E61" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="F61" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="E60" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="F60" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="E59" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="F59" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="E58" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="F58" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="E57" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="F57" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="E56" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="F56" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="F55" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="E54" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="F54" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="E53" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="F53" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="E52" r:id="rId84" tooltip="https://doi.org/10.1609/aaai.v38i16.29706" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="F52" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="E51" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="F50" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="E49" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="E48" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="E47" r:id="rId90" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="F47" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="E46" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="F46" r:id="rId93" tooltip="https://github.com/whoenig/libMultiRobotPlanning" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="E45" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="E44" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="F44" r:id="rId96" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="E43" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="F43" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="E42" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="E41" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="E40" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="E39" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="E38" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="E37" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="F35" r:id="rId105" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="E34" r:id="rId106" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="E33" r:id="rId107" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="E32" r:id="rId108" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="F32" r:id="rId109" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="E29" r:id="rId110" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="E36" r:id="rId111" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView zoomScale="300" zoomScaleNormal="300" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="80.75" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.7833333333333" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.0083333333333" style="26" customWidth="1"/>
-    <col min="4" max="4" width="66.6416666666667" style="26" customWidth="1"/>
+    <col min="1" max="1" width="80.77734375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16" style="26" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" style="26" customWidth="1"/>
     <col min="5" max="5" width="64" style="26" customWidth="1"/>
-    <col min="6" max="6" width="39.2666666666667" style="26" customWidth="1"/>
-    <col min="7" max="7" width="27.0083333333333" style="26" customWidth="1"/>
-    <col min="8" max="8" width="16.0083333333333" style="27" customWidth="1"/>
-    <col min="9" max="9" width="18.175" style="27" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="26.375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="27" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16" style="27" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="27" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="26" customWidth="1"/>
     <col min="12" max="12" width="9" style="27"/>
-    <col min="13" max="13" width="19.375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="27" customWidth="1"/>
     <col min="14" max="14" width="9" style="27"/>
-    <col min="15" max="15" width="18.3583333333333" style="27" customWidth="1"/>
-    <col min="16" max="16" width="18.2333333333333" style="27" customWidth="1"/>
-    <col min="17" max="17" width="26.125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="27" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" style="27" customWidth="1"/>
+    <col min="17" max="17" width="26.109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -12836,7 +12330,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="29" t="s">
         <v>809</v>
       </c>
@@ -12870,8 +12364,11 @@
       <c r="O2" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="29" t="s">
         <v>811</v>
       </c>
@@ -12905,8 +12402,11 @@
       <c r="O3" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Q3" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="29" t="s">
         <v>814</v>
       </c>
@@ -12940,8 +12440,11 @@
       <c r="O4" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="29" t="s">
         <v>817</v>
       </c>
@@ -12978,8 +12481,11 @@
       <c r="P5" s="36" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="26" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="29" t="s">
         <v>822</v>
       </c>
@@ -13022,8 +12528,11 @@
       <c r="P6" s="36" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="26" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="29" t="s">
         <v>825</v>
       </c>
@@ -13060,8 +12569,11 @@
       <c r="P7" s="36" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7" s="26" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="29" t="s">
         <v>829</v>
       </c>
@@ -13095,8 +12607,11 @@
       <c r="O8" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="29" t="s">
         <v>833</v>
       </c>
@@ -13130,8 +12645,11 @@
       <c r="O9" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="29" t="s">
         <v>835</v>
       </c>
@@ -13168,8 +12686,11 @@
       <c r="P10" s="36" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10" s="26" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="29" t="s">
         <v>838</v>
       </c>
@@ -13200,8 +12721,11 @@
       <c r="O11" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="29" t="s">
         <v>840</v>
       </c>
@@ -13235,8 +12759,11 @@
       <c r="O12" s="36" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="26" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="29" t="s">
         <v>843</v>
       </c>
@@ -13273,8 +12800,11 @@
       <c r="P13" s="36" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="26" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="29" t="s">
         <v>846</v>
       </c>
@@ -13317,8 +12847,11 @@
       <c r="P14" s="36" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="26" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="29" t="s">
         <v>851</v>
       </c>
@@ -13355,8 +12888,11 @@
       <c r="P15" s="36" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15" s="26" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="29" t="s">
         <v>854</v>
       </c>
@@ -13390,8 +12926,11 @@
       <c r="O16" s="36" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="26" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="29" t="s">
         <v>858</v>
       </c>
@@ -13434,8 +12973,11 @@
       <c r="P17" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17" s="26" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="29" t="s">
         <v>864</v>
       </c>
@@ -13475,8 +13017,11 @@
       <c r="O18" s="36" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18" s="26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="29" t="s">
         <v>865</v>
       </c>
@@ -13510,8 +13055,11 @@
       <c r="O19" s="36" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="29" t="s">
         <v>867</v>
       </c>
@@ -13545,8 +13093,11 @@
       <c r="O20" s="36" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="26" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="29" t="s">
         <v>868</v>
       </c>
@@ -13589,8 +13140,11 @@
       <c r="P21" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="Q21" s="26" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="29" t="s">
         <v>874</v>
       </c>
@@ -13630,8 +13184,11 @@
       <c r="O22" s="36" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="29" t="s">
         <v>875</v>
       </c>
@@ -13665,8 +13222,11 @@
       <c r="O23" s="36" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23" s="26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="29" t="s">
         <v>877</v>
       </c>
@@ -13701,7 +13261,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:17">
       <c r="A25" s="29" t="s">
         <v>882</v>
       </c>
@@ -13735,8 +13295,11 @@
       <c r="O25" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="Q25" s="26" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="29" t="s">
         <v>886</v>
       </c>
@@ -13770,8 +13333,11 @@
       <c r="O26" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="Q26" s="26" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="29" t="s">
         <v>889</v>
       </c>
@@ -13805,8 +13371,11 @@
       <c r="O27" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="Q27" s="26" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="29" t="s">
         <v>892</v>
       </c>
@@ -13840,8 +13409,11 @@
       <c r="O28" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="Q28" s="26" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
         <v>896</v>
       </c>
@@ -13875,8 +13447,11 @@
       <c r="O29" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="Q29" s="26" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="29" t="s">
         <v>899</v>
       </c>
@@ -13910,8 +13485,11 @@
       <c r="O30" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="Q30" s="26" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="29" t="s">
         <v>902</v>
       </c>
@@ -13951,8 +13529,11 @@
       <c r="O31" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="Q31" s="26" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="29" t="s">
         <v>907</v>
       </c>
@@ -13986,8 +13567,11 @@
       <c r="O32" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="26" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="29" t="s">
         <v>911</v>
       </c>
@@ -14024,8 +13608,11 @@
       <c r="P33" s="36" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="Q33" s="26" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="29" t="s">
         <v>916</v>
       </c>
@@ -14059,8 +13646,11 @@
       <c r="O34" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="Q34" s="26" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="29" t="s">
         <v>919</v>
       </c>
@@ -14094,8 +13684,11 @@
       <c r="O35" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="Q35" s="26" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="29" t="s">
         <v>922</v>
       </c>
@@ -14130,7 +13723,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:17">
       <c r="A37" s="29" t="s">
         <v>925</v>
       </c>
@@ -14164,8 +13757,11 @@
       <c r="O37" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="Q37" s="26" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="29" t="s">
         <v>929</v>
       </c>
@@ -14199,8 +13795,11 @@
       <c r="O38" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="Q38" s="26" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="29" t="s">
         <v>932</v>
       </c>
@@ -14234,8 +13833,11 @@
       <c r="O39" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="Q39" s="26" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="29" t="s">
         <v>935</v>
       </c>
@@ -14270,7 +13872,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:17">
       <c r="A41" s="29" t="s">
         <v>939</v>
       </c>
@@ -14310,8 +13912,11 @@
       <c r="O41" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="Q41" s="26" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="29" t="s">
         <v>944</v>
       </c>
@@ -14346,7 +13951,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:17">
       <c r="A43" s="29" t="s">
         <v>946</v>
       </c>
@@ -14386,8 +13991,11 @@
       <c r="O43" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="Q43" s="26" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="29" t="s">
         <v>951</v>
       </c>
@@ -14421,8 +14029,11 @@
       <c r="O44" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="Q44" s="26" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="29" t="s">
         <v>954</v>
       </c>
@@ -14462,8 +14073,11 @@
       <c r="O45" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="Q45" s="26" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="29" t="s">
         <v>896</v>
       </c>
@@ -14497,8 +14111,11 @@
       <c r="O46" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="Q46" s="26" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="29" t="s">
         <v>959</v>
       </c>
@@ -14532,8 +14149,11 @@
       <c r="O47" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="Q47" s="26" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="29" t="s">
         <v>960</v>
       </c>
@@ -14568,7 +14188,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:17">
       <c r="A49" s="29" t="s">
         <v>964</v>
       </c>
@@ -14602,8 +14222,11 @@
       <c r="O49" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="Q49" s="26" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="29" t="s">
         <v>968</v>
       </c>
@@ -14637,8 +14260,11 @@
       <c r="O50" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="Q50" s="26" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
         <v>971</v>
       </c>
@@ -14672,8 +14298,11 @@
       <c r="O51" s="36" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="Q51" s="26" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="29" t="s">
         <v>972</v>
       </c>
@@ -14707,119 +14336,119 @@
       <c r="O52" s="36" t="s">
         <v>863</v>
       </c>
+      <c r="Q52" s="26" t="s">
+        <v>1111</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"classical,learning,benchmarks,augmented"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"One-shot,Lifelong,One-shot and Lifelong"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Optimal,Sub-optimal,Optimal and Sub-optimal,No sense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"Discrete space,Continuous space"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L1048576 N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L1048576 N2:N1048576" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"A,B,C,None,Preprint"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://doi.org/10.1609/icaps.v28i1.13883"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://doi.org/10.1016/j.artint.2021.103574"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://dl.acm.org/doi/10.5555/3463952.3464027"/>
-    <hyperlink ref="F6" r:id="rId4" display="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://doi.org/10.1109/ICRA48891.2023.10161018"/>
-    <hyperlink ref="E15" r:id="rId6" display="https://doi.org/10.1609/socs.v15i1.21769"/>
-    <hyperlink ref="E16" r:id="rId7" display="https://doi.org/10.1609/aiide.v19i1.27532"/>
-    <hyperlink ref="F17" r:id="rId8" display="https://github.com/marmotlab/S2AN"/>
-    <hyperlink ref="E17" r:id="rId9" display="https://dl.acm.org/doi/10.5555/3635637.3663063"/>
-    <hyperlink ref="E18" r:id="rId10" display="https://doi.org/10.1016/j.artint.2022.103752"/>
-    <hyperlink ref="F18" r:id="rId11" display="https://github.com/Kei18/pibt2"/>
-    <hyperlink ref="E19" r:id="rId12" display="https://dl.acm.org/doi/10.1609/aaai.v33i01.33017643"/>
-    <hyperlink ref="E20" r:id="rId13" display="https://doi.org/10.1609/socs.v15i1.21747"/>
-    <hyperlink ref="E21" r:id="rId14" display="https://doi.org/10.1609/aaai.v39i22.34501"/>
-    <hyperlink ref="F21" r:id="rId15" display="https://github.com/marmotlab/LNS2-RL"/>
-    <hyperlink ref="E22" r:id="rId16" display="https://doi.org/10.1609/aaai.v36i9.21266"/>
-    <hyperlink ref="F22" r:id="rId17" display="https://github.com/Jiaoyang-Li/MAPF-LNS2"/>
-    <hyperlink ref="E23" r:id="rId18" display="https://doi.org/10.1609/icaps.v33i1.27202"/>
-    <hyperlink ref="E24" r:id="rId19" display="https://doi.org/10.23919/CCC63176.2024.10661854"/>
-    <hyperlink ref="E25" r:id="rId20" display="https://doi.org/10.1109/TII.2023.3240585"/>
-    <hyperlink ref="E26" r:id="rId21" display="https://doi.org/10.1109/IROS45743.2020.9340876"/>
-    <hyperlink ref="E27" r:id="rId22" display="https://doi.org/10.1109/ICRA57147.2024.10611301"/>
-    <hyperlink ref="E28" r:id="rId23" display="https://doi.org/10.1109/LRA.2020.3026638"/>
-    <hyperlink ref="E29" r:id="rId24" display="https://doi.org/10.1109/LRA.2021.3139145"/>
-    <hyperlink ref="E30" r:id="rId25" display="https://doi.org/10.1109/IROS55552.2023.10342261"/>
-    <hyperlink ref="E31" r:id="rId26" display="https://doi.org/10.1109/LRA.2023.3292004"/>
-    <hyperlink ref="F31" r:id="rId27" display="https://github.com/Qiushi-Lin/SACHA"/>
-    <hyperlink ref="E32" r:id="rId28" display="https://doi.org/10.1109/TCDS.2024.3368055"/>
-    <hyperlink ref="E33" r:id="rId29" display="https://doi.org/10.1109/IJCNN54540.2023.10191932"/>
-    <hyperlink ref="E34" r:id="rId30" display="https://doi.org/10.1109/ICRA57147.2024.10610745"/>
-    <hyperlink ref="E35" r:id="rId31" display="https://doi.org/10.1109/IROS58592.2024.10801969"/>
-    <hyperlink ref="E36" r:id="rId32" display="https://doi.org/10.48550/arXiv.2012.09134"/>
-    <hyperlink ref="E37" r:id="rId33" display="https://doi.org/10.1007/978-3-031-13844-7_47"/>
-    <hyperlink ref="E38" r:id="rId34" display="https://doi.org/10.1109/ICRA46639.2022.9811643"/>
-    <hyperlink ref="E39" r:id="rId35" display="https://doi.org/10.1109/IROS47612.2022.9981513"/>
-    <hyperlink ref="E14" r:id="rId36" display="https://doi.org/10.1109/IROS47612.2022.9981981"/>
-    <hyperlink ref="F14" r:id="rId37" display="https://github.com/jeanmarcalkazzi/mapfaster"/>
-    <hyperlink ref="E13" r:id="rId38" display="https://dl.acm.org/doi/10.5555/3463952.3464075"/>
-    <hyperlink ref="E12" r:id="rId39" display="https://doi.org/10.48550/arXiv.1906.03992"/>
-    <hyperlink ref="E11" r:id="rId40" display="https://doi.org/10.1609/icaps.v30i1.6661"/>
-    <hyperlink ref="E10" r:id="rId41" display="https://doi.org/10.1609/aaai.v35i13.17341"/>
-    <hyperlink ref="E9" r:id="rId42" display="https://doi.org/10.1609/aaai.v33i01.33016087"/>
-    <hyperlink ref="E8" r:id="rId43" display="https://doi.org/10.1609/socs.v6i1.18343"/>
-    <hyperlink ref="E40" r:id="rId44" display="https://doi.org/10.1007/s11042-024-19951-w"/>
-    <hyperlink ref="E41" r:id="rId45" display="https://doi.org/10.1109/ICRA48506.2021.9560748"/>
-    <hyperlink ref="F41" r:id="rId46" display="https://github.com/ZiyuanMa/DHC"/>
-    <hyperlink ref="E42" r:id="rId47" display="https://doi.org/10.1109/IJCNN60899.2024.10650243"/>
-    <hyperlink ref="E43" r:id="rId48" display="https://doi.org/10.1109/IROS58592.2024.10801914"/>
-    <hyperlink ref="F43" r:id="rId49" display="https://github.com/ai4co/eph-mapf"/>
-    <hyperlink ref="E44" r:id="rId50" display="https://doi.org/10.1109/IJCNN60899.2024.10651091"/>
-    <hyperlink ref="E45" r:id="rId51" display="https://doi.org/10.1609/aaai.v38i16.29704"/>
-    <hyperlink ref="F45" r:id="rId52" display="https://github.com/AIRI-Institute/learn-to-follow"/>
-    <hyperlink ref="E46" r:id="rId24" display="https://doi.org/10.1109/LRA.2021.3139145"/>
-    <hyperlink ref="E47" r:id="rId23" display="https://doi.org/10.1109/LRA.2020.3026638"/>
-    <hyperlink ref="E48" r:id="rId53" display="https://doi.org/10.1109/ICET61945.2024.10673111"/>
-    <hyperlink ref="E49" r:id="rId54" display="https://doi.org/10.1109/ICNSC52481.2021.9702234"/>
-    <hyperlink ref="E50" r:id="rId55" display="https://doi.org/10.48550/arXiv.2408.13750"/>
-    <hyperlink ref="E51" r:id="rId31" display="https://doi.org/10.1109/IROS58592.2024.10801969"/>
-    <hyperlink ref="E52" r:id="rId56" display="https://doi.org/10.1109/CDC49753.2023.10383302"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="E17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="F22" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="E23" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="E24" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="E25" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="E26" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="E27" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="E28" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="E29" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="E30" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="E31" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="F31" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="E32" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="E33" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="E34" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="E35" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="E36" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="E37" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="E38" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="E39" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="E14" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="F14" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="E13" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="E12" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="E11" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="E10" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="E9" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="E8" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="E40" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="E41" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="F41" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="E42" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="E43" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="F43" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="E44" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="E45" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="F45" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="E46" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="E47" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="E48" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="E49" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="E50" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="E51" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="E52" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="E22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="85.125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.0083333333333" style="26" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="161.666666666667" style="26" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="27.0083333333333" style="26" customWidth="1"/>
-    <col min="8" max="8" width="16.0083333333333" style="27" customWidth="1"/>
-    <col min="9" max="9" width="18.175" style="27" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="85.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16" style="26" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="161.6640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="27" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16" style="27" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="27" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="26" customWidth="1"/>
     <col min="12" max="12" width="9" style="27"/>
-    <col min="13" max="13" width="19.375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="27" customWidth="1"/>
     <col min="14" max="16" width="9" style="27"/>
-    <col min="17" max="17" width="26.125" style="26" customWidth="1"/>
-    <col min="18" max="18" width="39.375" customWidth="1"/>
+    <col min="17" max="17" width="26.109375" style="26" customWidth="1"/>
+    <col min="18" max="18" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -14878,7 +14507,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="2" ht="36" spans="1:18">
+    <row r="2" spans="1:18" ht="39.6">
       <c r="A2" s="29" t="s">
         <v>977</v>
       </c>
@@ -14913,7 +14542,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" ht="60" spans="1:17">
+    <row r="3" spans="1:18" s="17" customFormat="1" ht="66">
       <c r="A3" s="30" t="s">
         <v>986</v>
       </c>
@@ -14952,7 +14581,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="4" ht="24" spans="1:17">
+    <row r="4" spans="1:18" ht="26.4">
       <c r="A4" s="29" t="s">
         <v>993</v>
       </c>
@@ -14981,7 +14610,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="29" t="s">
         <v>999</v>
       </c>
@@ -15007,7 +14636,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="29" t="s">
         <v>1004</v>
       </c>
@@ -15033,7 +14662,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="7" ht="24" spans="1:17">
+    <row r="7" spans="1:18" ht="26.4">
       <c r="A7" s="30" t="s">
         <v>1009</v>
       </c>
@@ -15059,7 +14688,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="8" ht="24" spans="1:17">
+    <row r="8" spans="1:18" ht="26.4">
       <c r="A8" s="30" t="s">
         <v>1014</v>
       </c>
@@ -15085,7 +14714,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="29" t="s">
         <v>1020</v>
       </c>
@@ -15111,7 +14740,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="29" t="s">
         <v>1025</v>
       </c>
@@ -15137,7 +14766,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="11" ht="24" spans="1:17">
+    <row r="11" spans="1:18" ht="26.4">
       <c r="A11" s="30" t="s">
         <v>1030</v>
       </c>
@@ -15163,7 +14792,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="29" t="s">
         <v>1035</v>
       </c>
@@ -15189,7 +14818,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
         <v>1040</v>
       </c>
@@ -15209,7 +14838,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="29" t="s">
         <v>1043</v>
       </c>
@@ -15235,7 +14864,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="29" t="s">
         <v>1047</v>
       </c>
@@ -15258,7 +14887,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:18">
       <c r="A16" s="29" t="s">
         <v>1050</v>
       </c>
@@ -15333,7 +14962,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="19" ht="24" spans="1:17">
+    <row r="19" spans="1:17" ht="26.4">
       <c r="A19" s="29" t="s">
         <v>1047</v>
       </c>
@@ -15461,79 +15090,78 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"survey,benchmarks"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"One-shot,Lifelong,One-shot and Lifelong"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Optimal,Sub-optimal,Optimal and Sub-optimal,No sense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Discrete space,Continuous space"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L1048576 N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L1048576 N2:N1048576" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>"A,B,C,None,Preprint"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://doi.org/10.1609/socs.v10i1.18510"/>
-    <hyperlink ref="R2" r:id="rId2" display="https://asprilo.github.io/?utm_source=catalyzex.com" tooltip="https://asprilo.github.io/?utm_source=catalyzex.com"/>
-    <hyperlink ref="F2" r:id="rId3" display="https://github.com/potassco/asprilo" tooltip="https://github.com/potassco/asprilo"/>
-    <hyperlink ref="F4" r:id="rId4" display="https://github.com/ChristinaTan0704/mapf-lns-unified"/>
-    <hyperlink ref="E5" r:id="rId5" display="https://doi.org/10.1609/icaps.v34i1.31525"/>
-    <hyperlink ref="E6" r:id="rId6" display="https://doi.org/10.1609/socs.v12i1.18560"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://doi.org/10.1609/socs.v17i1.31580"/>
-    <hyperlink ref="E11" r:id="rId8" display="https://doi.org/10.1609/socs.v8i1.18423"/>
-    <hyperlink ref="E17" r:id="rId9" display="https://doi.org/10.3390/s23073625"/>
-    <hyperlink ref="E9" r:id="rId10" display="https://link.springer.com/chapter/10.1007/978-3-030-33274-7_6"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://link.springer.com/article/10.1007/s10462-023-10670-6"/>
-    <hyperlink ref="E15" r:id="rId12" display="https://arxiv.org/abs/2104.11809"/>
-    <hyperlink ref="E16" r:id="rId13" display="https://link.springer.com/rwe/10.1007/978-3-642-41610-1_232-1"/>
-    <hyperlink ref="E13" r:id="rId14" display="https://www.researchgate.net/profile/Erwin-Lejeune/publication/348716625_Survey_of_the_Multi-Agent_Pathfinding_Solutions/links/600c70f4a6fdccdcb8771555/Survey-of-the-Multi-Agent-Pathfinding-Solutions.pdf"/>
-    <hyperlink ref="E18" r:id="rId15" display="https://doi.org/10.1609/socs.v17i1.31570"/>
-    <hyperlink ref="E20" r:id="rId16" display="https://doi.org/10.1609/socs.v12i1.18584"/>
-    <hyperlink ref="E21" r:id="rId17" display="https://doi.org/10.1609/socs.v15i1.21767" tooltip="https://doi.org/10.1609/socs.v15i1.21767"/>
-    <hyperlink ref="E22" r:id="rId18" display="https://doi.org/10.1609/aaai.v35i18.17997"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="R2" r:id="rId2" tooltip="https://asprilo.github.io/?utm_source=catalyzex.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" tooltip="https://github.com/potassco/asprilo" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="E17" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="E21" r:id="rId17" tooltip="https://doi.org/10.1609/socs.v15i1.21767" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="E22" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="111.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.0083333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="91.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="165.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="59.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="45.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="111.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="91.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="165.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="59.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="2" customWidth="1"/>
     <col min="13" max="13" width="35" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="2" customWidth="1"/>
-    <col min="15" max="16" width="18.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="18.21875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" ht="26.4">
       <c r="A1" s="4" t="s">
         <v>157</v>
       </c>
@@ -15586,7 +15214,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" ht="36" spans="1:18">
+    <row r="2" spans="1:18" ht="39.6">
       <c r="A2" s="6" t="s">
         <v>977</v>
       </c>
@@ -15619,7 +15247,7 @@
       </c>
       <c r="R2" s="16"/>
     </row>
-    <row r="3" ht="24" spans="1:18">
+    <row r="3" spans="1:18" ht="39.6">
       <c r="A3" s="7" t="s">
         <v>986</v>
       </c>
@@ -15659,7 +15287,7 @@
       </c>
       <c r="R3" s="17"/>
     </row>
-    <row r="4" ht="24" spans="1:17">
+    <row r="4" spans="1:18" ht="26.4">
       <c r="A4" s="6" t="s">
         <v>993</v>
       </c>
@@ -15688,7 +15316,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="6" t="s">
         <v>999</v>
       </c>
@@ -15714,7 +15342,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="6" t="s">
         <v>1004</v>
       </c>
@@ -15740,7 +15368,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="7" ht="24" spans="1:17">
+    <row r="7" spans="1:18" ht="26.4">
       <c r="A7" s="7" t="s">
         <v>1009</v>
       </c>
@@ -15766,7 +15394,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="8" ht="24" spans="1:17">
+    <row r="8" spans="1:18" ht="26.4">
       <c r="A8" s="7" t="s">
         <v>1014</v>
       </c>
@@ -15792,7 +15420,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="6" t="s">
         <v>1020</v>
       </c>
@@ -15818,7 +15446,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="6" t="s">
         <v>1025</v>
       </c>
@@ -15844,7 +15472,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="11" ht="24" spans="1:17">
+    <row r="11" spans="1:18" ht="26.4">
       <c r="A11" s="7" t="s">
         <v>1030</v>
       </c>
@@ -15870,7 +15498,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="6" t="s">
         <v>1035</v>
       </c>
@@ -15896,7 +15524,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18">
       <c r="A13" s="6" t="s">
         <v>1040</v>
       </c>
@@ -15916,7 +15544,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="6" t="s">
         <v>1043</v>
       </c>
@@ -15942,7 +15570,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="6" t="s">
         <v>1047</v>
       </c>
@@ -15965,7 +15593,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:18">
       <c r="A16" s="6" t="s">
         <v>1050</v>
       </c>
@@ -16144,7 +15772,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:17">
       <c r="A23" s="6" t="s">
         <v>809</v>
       </c>
@@ -16179,7 +15807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:17">
       <c r="A24" s="6" t="s">
         <v>811</v>
       </c>
@@ -16214,7 +15842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" s="6" t="s">
         <v>817</v>
       </c>
@@ -16252,7 +15880,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" s="6" t="s">
         <v>822</v>
       </c>
@@ -16296,7 +15924,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" s="6" t="s">
         <v>825</v>
       </c>
@@ -16334,7 +15962,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:17">
       <c r="A28" s="6" t="s">
         <v>829</v>
       </c>
@@ -16369,7 +15997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:17">
       <c r="A29" s="6" t="s">
         <v>833</v>
       </c>
@@ -16404,7 +16032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" s="6" t="s">
         <v>835</v>
       </c>
@@ -16442,7 +16070,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:17">
       <c r="A31" s="6" t="s">
         <v>838</v>
       </c>
@@ -16474,7 +16102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:17">
       <c r="A32" s="6" t="s">
         <v>840</v>
       </c>
@@ -16629,7 +16257,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" s="6" t="s">
         <v>854</v>
       </c>
@@ -16708,7 +16336,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" s="6" t="s">
         <v>864</v>
       </c>
@@ -16749,7 +16377,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" s="6" t="s">
         <v>865</v>
       </c>
@@ -16784,7 +16412,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" s="6" t="s">
         <v>867</v>
       </c>
@@ -16863,7 +16491,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" s="6" t="s">
         <v>874</v>
       </c>
@@ -16904,7 +16532,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" s="6" t="s">
         <v>875</v>
       </c>
@@ -16939,7 +16567,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" s="6" t="s">
         <v>877</v>
       </c>
@@ -16974,7 +16602,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" s="6" t="s">
         <v>882</v>
       </c>
@@ -17009,7 +16637,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" s="6" t="s">
         <v>886</v>
       </c>
@@ -17044,7 +16672,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47" s="6" t="s">
         <v>889</v>
       </c>
@@ -17079,7 +16707,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" s="6" t="s">
         <v>896</v>
       </c>
@@ -17114,7 +16742,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16">
       <c r="A49" s="6" t="s">
         <v>899</v>
       </c>
@@ -17149,7 +16777,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:16">
       <c r="A50" s="6" t="s">
         <v>902</v>
       </c>
@@ -17190,7 +16818,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:16">
       <c r="A51" s="6" t="s">
         <v>907</v>
       </c>
@@ -17263,7 +16891,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:16">
       <c r="A53" s="6" t="s">
         <v>916</v>
       </c>
@@ -17298,7 +16926,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:16">
       <c r="A54" s="6" t="s">
         <v>919</v>
       </c>
@@ -17333,7 +16961,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16">
       <c r="A55" s="6" t="s">
         <v>922</v>
       </c>
@@ -17368,7 +16996,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56" s="6" t="s">
         <v>925</v>
       </c>
@@ -17403,7 +17031,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57" s="6" t="s">
         <v>929</v>
       </c>
@@ -17438,7 +17066,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" s="6" t="s">
         <v>932</v>
       </c>
@@ -17473,7 +17101,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" s="6" t="s">
         <v>935</v>
       </c>
@@ -17508,7 +17136,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" s="6" t="s">
         <v>939</v>
       </c>
@@ -17549,7 +17177,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" s="6" t="s">
         <v>944</v>
       </c>
@@ -17584,7 +17212,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:16">
       <c r="A62" s="6" t="s">
         <v>946</v>
       </c>
@@ -17625,7 +17253,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63" s="6" t="s">
         <v>951</v>
       </c>
@@ -17660,7 +17288,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" s="6" t="s">
         <v>954</v>
       </c>
@@ -17701,7 +17329,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:17">
       <c r="A65" s="6" t="s">
         <v>896</v>
       </c>
@@ -17736,7 +17364,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:17">
       <c r="A66" s="6" t="s">
         <v>959</v>
       </c>
@@ -17771,7 +17399,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:17">
       <c r="A67" s="6" t="s">
         <v>960</v>
       </c>
@@ -17806,7 +17434,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:17">
       <c r="A68" s="6" t="s">
         <v>964</v>
       </c>
@@ -17841,7 +17469,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:17">
       <c r="A69" s="6" t="s">
         <v>968</v>
       </c>
@@ -17876,7 +17504,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:17">
       <c r="A70" s="6" t="s">
         <v>971</v>
       </c>
@@ -17911,7 +17539,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:17">
       <c r="A71" s="6" t="s">
         <v>972</v>
       </c>
@@ -20717,7 +20345,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="142" ht="36" spans="1:17">
+    <row r="142" spans="1:17" ht="39.6">
       <c r="A142" s="25" t="s">
         <v>543</v>
       </c>
@@ -21483,7 +21111,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="162" ht="24" spans="1:17">
+    <row r="162" spans="1:17" ht="26.4">
       <c r="A162" s="25" t="s">
         <v>621</v>
       </c>
@@ -21936,7 +21564,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="174" ht="24" spans="1:17">
+    <row r="174" spans="1:17" ht="26.4">
       <c r="A174" s="25" t="s">
         <v>672</v>
       </c>
@@ -21971,7 +21599,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="175" ht="24" spans="1:17">
+    <row r="175" spans="1:17" ht="26.4">
       <c r="A175" s="25" t="s">
         <v>677</v>
       </c>
@@ -22006,7 +21634,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="176" ht="24" spans="1:17">
+    <row r="176" spans="1:17" ht="26.4">
       <c r="A176" s="25" t="s">
         <v>682</v>
       </c>
@@ -22129,7 +21757,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" ht="26.4">
       <c r="A179" s="25" t="s">
         <v>700</v>
       </c>
@@ -22632,7 +22260,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="192" ht="36" spans="1:17">
+    <row r="192" spans="1:17" ht="39.6">
       <c r="A192" s="25" t="s">
         <v>765</v>
       </c>
@@ -22679,7 +22307,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="193" ht="24" spans="1:17">
+    <row r="193" spans="1:17" ht="26.4">
       <c r="A193" s="25" t="s">
         <v>773</v>
       </c>
@@ -22758,7 +22386,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="195" ht="24" spans="1:17">
+    <row r="195" spans="1:17" ht="26.4">
       <c r="A195" s="25" t="s">
         <v>783</v>
       </c>
@@ -22840,7 +22468,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="197" ht="24" spans="1:17">
+    <row r="197" spans="1:17" ht="26.4">
       <c r="A197" s="25" t="s">
         <v>794</v>
       </c>
@@ -22932,219 +22560,220 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="B2:B201">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B201">
     <sortCondition ref="B1"/>
   </sortState>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B22">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B2:B22" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"survey,benchmarks"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B23:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="B23:B1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"classical,learning,benchmarks,augmented"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"One-shot,Lifelong,One-shot and Lifelong"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"Optimal,Sub-optimal,Optimal and Sub-optimal,No sense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>"Discrete space,Continuous space"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L1048576 N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的值" sqref="L2:L1048576 N2:N1048576" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>"A,B,C,None,Preprint"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://doi.org/10.1609/socs.v10i1.18510"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://github.com/potassco/asprilo" tooltip="https://github.com/potassco/asprilo"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://github.com/ChristinaTan0704/mapf-lns-unified"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://doi.org/10.1609/icaps.v34i1.31525"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://doi.org/10.1609/socs.v12i1.18560"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://doi.org/10.1609/socs.v17i1.31580"/>
-    <hyperlink ref="E11" r:id="rId7" display="https://doi.org/10.1609/socs.v8i1.18423"/>
-    <hyperlink ref="E17" r:id="rId8" display="https://doi.org/10.3390/s23073625"/>
-    <hyperlink ref="E9" r:id="rId9" display="https://link.springer.com/chapter/10.1007/978-3-030-33274-7_6"/>
-    <hyperlink ref="E12" r:id="rId10" display="https://link.springer.com/article/10.1007/s10462-023-10670-6"/>
-    <hyperlink ref="E15" r:id="rId11" display="https://arxiv.org/abs/2104.11809"/>
-    <hyperlink ref="E16" r:id="rId12" display="https://link.springer.com/rwe/10.1007/978-3-642-41610-1_232-1"/>
-    <hyperlink ref="E13" r:id="rId13" display="https://www.researchgate.net/profile/Erwin-Lejeune/publication/348716625_Survey_of_the_Multi-Agent_Pathfinding_Solutions/links/600c70f4a6fdccdcb8771555/Survey-of-the-Multi-Agent-Pathfinding-Solutions.pdf"/>
-    <hyperlink ref="E18" r:id="rId14" display="https://doi.org/10.1609/socs.v17i1.31570"/>
-    <hyperlink ref="E19" r:id="rId15" display="https://doi.org/10.1609/socs.v12i1.18584"/>
-    <hyperlink ref="E20" r:id="rId16" display="https://doi.org/10.1609/socs.v15i1.21767" tooltip="https://doi.org/10.1609/socs.v15i1.21767"/>
-    <hyperlink ref="E21" r:id="rId17" display="https://doi.org/10.1609/aaai.v35i18.17997"/>
-    <hyperlink ref="E23" r:id="rId18" display="https://doi.org/10.1609/icaps.v28i1.13883"/>
-    <hyperlink ref="E25" r:id="rId19" display="https://dl.acm.org/doi/10.5555/3463952.3464027"/>
-    <hyperlink ref="F26" r:id="rId20" display="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="E27" r:id="rId21" display="https://doi.org/10.1109/ICRA48891.2023.10161018"/>
-    <hyperlink ref="E35" r:id="rId22" display="https://doi.org/10.1609/socs.v15i1.21769"/>
-    <hyperlink ref="E36" r:id="rId23" display="https://doi.org/10.1609/aiide.v19i1.27532"/>
-    <hyperlink ref="F37" r:id="rId24" display="https://github.com/marmotlab/S2AN"/>
-    <hyperlink ref="E37" r:id="rId25" display="https://dl.acm.org/doi/10.5555/3635637.3663063"/>
-    <hyperlink ref="E38" r:id="rId26" display="https://doi.org/10.1016/j.artint.2022.103752"/>
-    <hyperlink ref="F38" r:id="rId27" display="https://github.com/Kei18/pibt2"/>
-    <hyperlink ref="E39" r:id="rId28" display="https://dl.acm.org/doi/10.1609/aaai.v33i01.33017643"/>
-    <hyperlink ref="E40" r:id="rId29" display="https://doi.org/10.1609/socs.v15i1.21747"/>
-    <hyperlink ref="E41" r:id="rId30" display="https://doi.org/10.1609/aaai.v39i22.34501"/>
-    <hyperlink ref="F41" r:id="rId31" display="https://github.com/marmotlab/LNS2-RL"/>
-    <hyperlink ref="E42" r:id="rId32" display="https://doi.org/10.1609/aaai.v36i9.21266"/>
-    <hyperlink ref="F42" r:id="rId33" display="https://github.com/Jiaoyang-Li/MAPF-LNS2"/>
-    <hyperlink ref="E43" r:id="rId34" display="https://doi.org/10.1609/icaps.v33i1.27202"/>
-    <hyperlink ref="E44" r:id="rId35" display="https://doi.org/10.23919/CCC63176.2024.10661854"/>
-    <hyperlink ref="E45" r:id="rId36" display="https://doi.org/10.1109/TII.2023.3240585"/>
-    <hyperlink ref="E46" r:id="rId37" display="https://doi.org/10.1109/IROS45743.2020.9340876"/>
-    <hyperlink ref="E47" r:id="rId38" display="https://doi.org/10.1109/ICRA57147.2024.10611301"/>
-    <hyperlink ref="E48" r:id="rId39" display="https://doi.org/10.1109/LRA.2021.3139145"/>
-    <hyperlink ref="E49" r:id="rId40" display="https://doi.org/10.1109/IROS55552.2023.10342261"/>
-    <hyperlink ref="E50" r:id="rId41" display="https://doi.org/10.1109/LRA.2023.3292004"/>
-    <hyperlink ref="F50" r:id="rId42" display="https://github.com/Qiushi-Lin/SACHA"/>
-    <hyperlink ref="E51" r:id="rId43" display="https://doi.org/10.1109/TCDS.2024.3368055"/>
-    <hyperlink ref="E52" r:id="rId44" display="https://doi.org/10.1109/IJCNN54540.2023.10191932"/>
-    <hyperlink ref="E53" r:id="rId45" display="https://doi.org/10.1109/ICRA57147.2024.10610745"/>
-    <hyperlink ref="E54" r:id="rId46" display="https://doi.org/10.1109/IROS58592.2024.10801969"/>
-    <hyperlink ref="E55" r:id="rId47" display="https://doi.org/10.48550/arXiv.2012.09134"/>
-    <hyperlink ref="E56" r:id="rId48" display="https://doi.org/10.1007/978-3-031-13844-7_47"/>
-    <hyperlink ref="E57" r:id="rId49" display="https://doi.org/10.1109/ICRA46639.2022.9811643"/>
-    <hyperlink ref="E58" r:id="rId50" display="https://doi.org/10.1109/IROS47612.2022.9981513"/>
-    <hyperlink ref="E34" r:id="rId51" display="https://doi.org/10.1109/IROS47612.2022.9981981"/>
-    <hyperlink ref="F34" r:id="rId52" display="https://github.com/jeanmarcalkazzi/mapfaster"/>
-    <hyperlink ref="E33" r:id="rId53" display="https://dl.acm.org/doi/10.5555/3463952.3464075"/>
-    <hyperlink ref="E32" r:id="rId54" display="https://doi.org/10.48550/arXiv.1906.03992"/>
-    <hyperlink ref="E31" r:id="rId55" display="https://doi.org/10.1609/icaps.v30i1.6661"/>
-    <hyperlink ref="E30" r:id="rId56" display="https://doi.org/10.1609/aaai.v35i13.17341"/>
-    <hyperlink ref="E29" r:id="rId57" display="https://doi.org/10.1609/aaai.v33i01.33016087"/>
-    <hyperlink ref="E28" r:id="rId58" display="https://doi.org/10.1609/socs.v6i1.18343"/>
-    <hyperlink ref="E59" r:id="rId59" display="https://doi.org/10.1007/s11042-024-19951-w"/>
-    <hyperlink ref="E60" r:id="rId60" display="https://doi.org/10.1109/ICRA48506.2021.9560748"/>
-    <hyperlink ref="F60" r:id="rId61" display="https://github.com/ZiyuanMa/DHC"/>
-    <hyperlink ref="E61" r:id="rId62" display="https://doi.org/10.1109/IJCNN60899.2024.10650243"/>
-    <hyperlink ref="E62" r:id="rId63" display="https://doi.org/10.1109/IROS58592.2024.10801914"/>
-    <hyperlink ref="F62" r:id="rId64" display="https://github.com/ai4co/eph-mapf"/>
-    <hyperlink ref="E63" r:id="rId65" display="https://doi.org/10.1109/IJCNN60899.2024.10651091"/>
-    <hyperlink ref="E64" r:id="rId66" display="https://doi.org/10.1609/aaai.v38i16.29704"/>
-    <hyperlink ref="F64" r:id="rId67" display="https://github.com/AIRI-Institute/learn-to-follow"/>
-    <hyperlink ref="E65" r:id="rId39" display="https://doi.org/10.1109/LRA.2021.3139145"/>
-    <hyperlink ref="E66" r:id="rId68" display="https://doi.org/10.1109/LRA.2020.3026638"/>
-    <hyperlink ref="E67" r:id="rId69" display="https://doi.org/10.1109/ICET61945.2024.10673111"/>
-    <hyperlink ref="E68" r:id="rId70" display="https://doi.org/10.1109/ICNSC52481.2021.9702234"/>
-    <hyperlink ref="E69" r:id="rId71" display="https://doi.org/10.48550/arXiv.2408.13750"/>
-    <hyperlink ref="E70" r:id="rId46" display="https://doi.org/10.1109/IROS58592.2024.10801969"/>
-    <hyperlink ref="E71" r:id="rId72" display="https://doi.org/10.1109/CDC49753.2023.10383302"/>
-    <hyperlink ref="E72" r:id="rId73" display="https://www.sciencedirect.com/science/article/pii/S0004370221001259?via%3Dihub"/>
-    <hyperlink ref="F72" r:id="rId74" display="https://github.com/Jiaoyang-Li/CBSH2-RTC"/>
-    <hyperlink ref="E73" r:id="rId75" display="https://www.ijcai.org/Proceedings/15/Papers/110.pdf"/>
-    <hyperlink ref="E74" r:id="rId76" display="https://doi.org/10.1609/icaps.v25i1.13725"/>
-    <hyperlink ref="E75" r:id="rId18" display="https://doi.org/10.1609/icaps.v28i1.13883" tooltip="https://doi.org/10.1609/icaps.v28i1.13883"/>
-    <hyperlink ref="E76" r:id="rId77" display="https://doi.org/10.48550/arXiv.1806.04216"/>
-    <hyperlink ref="E78" r:id="rId78" display="https://doi.org/10.1609/icaps.v29i1.3487" tooltip="https://doi.org/10.1609/icaps.v29i1.3487"/>
-    <hyperlink ref="E77" r:id="rId79" display="https://www.ijcai.org/proceedings/2019/0063.pdf"/>
-    <hyperlink ref="E198" r:id="rId80" display="https://doi.org/10.1609/socs.v15i1.21759"/>
-    <hyperlink ref="F198" r:id="rId81" display="https://github.com/NitzanMadar/exPBS-exRHCR"/>
-    <hyperlink ref="E197" r:id="rId82" display="https://doi.org/10.1609/socs.v17i1.31565"/>
-    <hyperlink ref="E196" r:id="rId83" display="https://doi.org/10.1609/aaai.v38i18.30054"/>
-    <hyperlink ref="F195" r:id="rId84" display="https://github.com/lunjohnzhang/ggo_public"/>
-    <hyperlink ref="E193" r:id="rId85" display="https://doi.org/10.1609/aaai.v35i13.17344"/>
-    <hyperlink ref="F193" r:id="rId86" display="https://github.com/Jiaoyang-Li/RHCR"/>
-    <hyperlink ref="F192" r:id="rId87" display="https://github.com/ct2034/cobra"/>
-    <hyperlink ref="E189" r:id="rId88" display="https://doi.org/10.1609/icaps.v33i1.27175"/>
-    <hyperlink ref="E79" r:id="rId89" display="https://par.nsf.gov/servlets/purl/10107498" tooltip="https://par.nsf.gov/servlets/purl/10107498"/>
-    <hyperlink ref="E80" r:id="rId90" display="https://par.nsf.gov/servlets/purl/10118766" tooltip="https://par.nsf.gov/servlets/purl/10118766"/>
-    <hyperlink ref="E82" r:id="rId91" display="https://doi.org/10.1609/aaai.v33i01.33017627" tooltip="https://doi.org/10.1609/aaai.v33i01.33017627"/>
-    <hyperlink ref="E83" r:id="rId92" display="https://doi.org/10.48550/arXiv.1812.06356" tooltip="https://doi.org/10.48550/arXiv.1812.06356"/>
-    <hyperlink ref="E84" r:id="rId93" display="https://doi.org/10.24963/ijcai.2020/562" tooltip="https://doi.org/10.24963/ijcai.2020/562"/>
-    <hyperlink ref="E85" r:id="rId94" display="https://doi.org/10.24963/ijcai.2020/565" tooltip="https://doi.org/10.24963/ijcai.2020/565"/>
-    <hyperlink ref="E86" r:id="rId55" display="https://doi.org/10.1609/icaps.v30i1.6661" tooltip="https://doi.org/10.1609/icaps.v30i1.6661"/>
-    <hyperlink ref="E87" r:id="rId95" display="https://doi.org/10.1609/socs.v11i1.18525" tooltip="https://doi.org/10.1609/socs.v11i1.18525"/>
-    <hyperlink ref="E88" r:id="rId96" display="https://shchan13.github.io/files/ChanWoMAPF20.pdf" tooltip="https://shchan13.github.io/files/ChanWoMAPF20.pdf"/>
-    <hyperlink ref="E89" r:id="rId97" display="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16" tooltip="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16"/>
-    <hyperlink ref="E90" r:id="rId98" display="https://doi.org/10.24963/ijcai.2021/568" tooltip="https://doi.org/10.24963/ijcai.2021/568"/>
-    <hyperlink ref="E187" r:id="rId29" display="https://doi.org/10.1609/socs.v15i1.21747"/>
-    <hyperlink ref="E186" r:id="rId99" display="https://doi.org/10.1609/icaps.v31i1.15942"/>
-    <hyperlink ref="E185" r:id="rId100" display="https://doi.org/10.1613/jair.1.12397"/>
-    <hyperlink ref="E184" r:id="rId101" display="https://doi.org/10.1609/icaps.v30i1.6642"/>
-    <hyperlink ref="E181" r:id="rId102" display="https://doi.org/10.1609/aaai.v33i01.33017732"/>
-    <hyperlink ref="E182" r:id="rId103" display="https://doi.org/10.1613/jair.1.11734"/>
-    <hyperlink ref="E180" r:id="rId104" display="https://doi.org/10.1609/socs.v9i1.18445"/>
-    <hyperlink ref="E179" r:id="rId105" display="https://doi.org/10.1609/aaai.v38i16.29676"/>
-    <hyperlink ref="F178" r:id="rId106" display="https://github.com/PathPlanning/Continuous-CBS/"/>
-    <hyperlink ref="F176" r:id="rId107" display="https://github.com/PathPlanning/Push-and-Rotate--CBS--PrioritizedPlanning"/>
-    <hyperlink ref="E173" r:id="rId108" display="https://doi.org/10.1609/aaai.v35i13.17338"/>
-    <hyperlink ref="E170" r:id="rId109" display="https://doi.org/10.1613/jair.1.13318"/>
-    <hyperlink ref="E169" r:id="rId110" display="https://doi.org/10.1016/j.artint.2022.103662"/>
-    <hyperlink ref="E168" r:id="rId111" display="https://doi.org/10.1609/socs.v12i1.18583"/>
-    <hyperlink ref="E167" r:id="rId112" display="https://doi.org/10.1609/socs.v12i1.18567"/>
-    <hyperlink ref="E91" r:id="rId113" display="https://doi.org/10.1609/icaps.v31i1.15984"/>
-    <hyperlink ref="E92" r:id="rId114" display="https://doi.org/10.1609/aaai.v35i14.17466" tooltip="https://doi.org/10.1609/aaai.v35i14.17466"/>
-    <hyperlink ref="E93" r:id="rId115" display="https://doi.org/10.1609/aaai.v35i13.17340" tooltip="https://doi.org/10.1609/aaai.v35i13.17340"/>
-    <hyperlink ref="E94" r:id="rId116" display="https://doi.org/10.1609/aaai.v35i14.17456" tooltip="https://doi.org/10.1609/aaai.v35i14.17456"/>
-    <hyperlink ref="E95" r:id="rId117" display="https://doi.org/10.1609/socs.v12i1.18586" tooltip="https://doi.org/10.1609/socs.v12i1.18586"/>
-    <hyperlink ref="E96" r:id="rId118" display="https://doi.org/10.1016/j.artint.2022.103766" tooltip="https://doi.org/10.1016/j.artint.2022.103766"/>
-    <hyperlink ref="E97" r:id="rId119" display="https://ieeexplore.ieee.org/abstract/document/9926661" tooltip="https://ieeexplore.ieee.org/abstract/document/9926661"/>
-    <hyperlink ref="E98" r:id="rId120" display="https://doi.org/10.1609/socs.v15i1.21750" tooltip="https://doi.org/10.1609/socs.v15i1.21750"/>
-    <hyperlink ref="F162" r:id="rId121" display="https://github.com/surynek/boOX"/>
-    <hyperlink ref="E161" r:id="rId122" display="https://doi.org/10.1609/aaai.v35i14.17472"/>
-    <hyperlink ref="E153" r:id="rId123" display="https://doi.org/10.48550/arXiv.1903.09820"/>
-    <hyperlink ref="E151" r:id="rId124" display="https://doi.org/10.1609/socs.v10i1.18490"/>
-    <hyperlink ref="E145" r:id="rId125" display="https://doi.org/10.48550/arXiv.1907.07631"/>
-    <hyperlink ref="E141" r:id="rId126" display="https://doi.org/10.48550/arXiv.1812.10851"/>
-    <hyperlink ref="E140" r:id="rId127" display="https://doi.org/10.1609/socs.v9i1.18456"/>
-    <hyperlink ref="E139" r:id="rId128" display="https://doi.org/10.1609/socs.v16i1.27287"/>
-    <hyperlink ref="E137" r:id="rId129" display="https://doi.org/10.1609/socs.v12i1.18596"/>
-    <hyperlink ref="E136" r:id="rId130" display="https://doi.org/10.1609/icaps.v34i1.31534"/>
-    <hyperlink ref="E135" r:id="rId131" display="https://doi.org/10.1609/socs.v16i1.27290"/>
-    <hyperlink ref="E134" r:id="rId132" display="https://doi.org/10.1609/icaps.v32i1.19798"/>
-    <hyperlink ref="E133" r:id="rId133" display="https://doi.org/10.1016/j.cor.2022.105809"/>
-    <hyperlink ref="E132" r:id="rId134" display="https://doi.org/10.48550/arXiv.2308.04292"/>
-    <hyperlink ref="F132" r:id="rId135" display="https://github.com/Kei18/lacam3"/>
-    <hyperlink ref="E131" r:id="rId136" display="https://doi.org/10.48550/arXiv.2305.03632"/>
-    <hyperlink ref="F131" r:id="rId137" display="https://github.com/Kei18/lacam2"/>
-    <hyperlink ref="E130" r:id="rId138" display="https://doi.org/10.1016/j.artint.2023.103946"/>
-    <hyperlink ref="F130" r:id="rId139" display="https://github.com/Kei18/tswap"/>
-    <hyperlink ref="E129" r:id="rId140" display="https://doi.org/10.1609/aaai.v37i10.26377"/>
-    <hyperlink ref="F129" r:id="rId141" display="https://github.com/Kei18/lacam"/>
-    <hyperlink ref="E128" r:id="rId142" display="https://doi.org/10.1609/aaai.v37i10.26376"/>
-    <hyperlink ref="F128" r:id="rId143" display="https://github.com/Kei18/mappcf"/>
-    <hyperlink ref="E127" r:id="rId26" display="https://doi.org/10.1016/j.artint.2022.103752"/>
-    <hyperlink ref="F127" r:id="rId27" display="https://github.com/Kei18/pibt2"/>
-    <hyperlink ref="E126" r:id="rId144" display="https://doi.org/10.24963/ijcai.2022/645"/>
-    <hyperlink ref="F126" r:id="rId145" display="https://github.com/Kei18/otimapp"/>
-    <hyperlink ref="F125" r:id="rId146" display="https://github.com/Kei18/mapf-IR"/>
-    <hyperlink ref="E124" r:id="rId147" display="https://doi.org/10.1609/aaai.v35i13.17347"/>
-    <hyperlink ref="F124" r:id="rId148" display="https://github.com/Kei18/time-independent-planning"/>
-    <hyperlink ref="E123" r:id="rId149" display="https://doi.org/10.48550/arXiv.1905.10149"/>
-    <hyperlink ref="F123" r:id="rId150" display="https://github.com/Kei18/pibt"/>
-    <hyperlink ref="E122" r:id="rId151" display="https://doi.org/10.1609/aaai.v38i16.29706" tooltip="https://doi.org/10.1609/aaai.v38i16.29706"/>
-    <hyperlink ref="F122" r:id="rId152" display="https://github.com/YifanSu1301/BTPG"/>
-    <hyperlink ref="E121" r:id="rId153" display="https://doi.org/10.48550/arXiv.2402.08772"/>
-    <hyperlink ref="F120" r:id="rId154" display="https://github.com/JingtianYan/PSB-RAL"/>
-    <hyperlink ref="E119" r:id="rId155" display="https://doi.org/10.1609/icaps.v34i1.31524"/>
-    <hyperlink ref="E118" r:id="rId156" display="https://doi.org/10.1609/icaps.v34i1.31513"/>
-    <hyperlink ref="E117" r:id="rId157" display="https://doi.org/10.1609/icaps.v34i1.31477"/>
-    <hyperlink ref="F117" r:id="rId158" display="https://github.com/YinggggFeng/Switchable-Edge-Search"/>
-    <hyperlink ref="E116" r:id="rId159" display="https://doi.org/10.1609/socs.v17i1.31551"/>
-    <hyperlink ref="F116" r:id="rId20" display="https://github.com/whoenig/libMultiRobotPlanning" tooltip="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="E115" r:id="rId160" display="https://doi.org/10.1609/socs.v17i1.31548"/>
-    <hyperlink ref="E114" r:id="rId161" display="https://doi.org/10.48550/arXiv.2401.17044"/>
-    <hyperlink ref="F114" r:id="rId162" display="https://github.com/lunjohnzhang/MAPF-Mechanism"/>
-    <hyperlink ref="E113" r:id="rId163" display="https://doi.org/10.1609/socs.v17i1.31593"/>
-    <hyperlink ref="F113" r:id="rId164" display="https://github.com/lunjohnzhang/warehouse_env_gen_public"/>
-    <hyperlink ref="E112" r:id="rId165" display="https://doi.org/10.1609/aaai.v37i10.26368"/>
-    <hyperlink ref="E111" r:id="rId166" display="https://doi.org/10.1609/icaps.v33i1.27194"/>
-    <hyperlink ref="E110" r:id="rId167" display="https://doi.org/10.1609/icaps.v33i1.27187"/>
-    <hyperlink ref="E109" r:id="rId168" display="https://doi.org/10.1609/icaps.v33i1.27214"/>
-    <hyperlink ref="E108" r:id="rId169" display="https://doi.org/10.1609/icaps.v33i1.27217"/>
-    <hyperlink ref="E107" r:id="rId34" display="https://doi.org/10.1609/icaps.v33i1.27202"/>
-    <hyperlink ref="F105" r:id="rId20" display="https://github.com/whoenig/libMultiRobotPlanning"/>
-    <hyperlink ref="E104" r:id="rId170" display="https://doi.org/10.1609/aaai.v36i9.21162"/>
-    <hyperlink ref="E103" r:id="rId171" display="https://doi.org/10.1609/aaai.v36i9.21170"/>
-    <hyperlink ref="E102" r:id="rId32" display="https://doi.org/10.1609/aaai.v36i9.21266"/>
-    <hyperlink ref="F102" r:id="rId33" display="https://github.com/Jiaoyang-Li/MAPF-LNS2"/>
-    <hyperlink ref="E99" r:id="rId172" display="https://doi.org/10.1609/socs.v15i1.21776"/>
-    <hyperlink ref="E106" r:id="rId173" display="https://doi.org/10.1016/j.artint.2023.103950"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" tooltip="https://github.com/potassco/asprilo" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="E20" r:id="rId16" tooltip="https://doi.org/10.1609/socs.v15i1.21767" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="E23" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="E27" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="E35" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="E36" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="F37" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="E37" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="E38" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="F38" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="E39" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="E40" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="E41" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="F41" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="E42" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="F42" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="E43" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="E44" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="E45" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="E46" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="E47" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="E48" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
+    <hyperlink ref="E49" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
+    <hyperlink ref="E50" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
+    <hyperlink ref="F50" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
+    <hyperlink ref="E51" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
+    <hyperlink ref="E52" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
+    <hyperlink ref="E53" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
+    <hyperlink ref="E54" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
+    <hyperlink ref="E55" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
+    <hyperlink ref="E56" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
+    <hyperlink ref="E57" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
+    <hyperlink ref="E58" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
+    <hyperlink ref="E34" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
+    <hyperlink ref="F34" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
+    <hyperlink ref="E33" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
+    <hyperlink ref="E32" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
+    <hyperlink ref="E31" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
+    <hyperlink ref="E30" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
+    <hyperlink ref="E29" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
+    <hyperlink ref="E28" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
+    <hyperlink ref="E59" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
+    <hyperlink ref="E60" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
+    <hyperlink ref="F60" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
+    <hyperlink ref="E61" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
+    <hyperlink ref="E62" r:id="rId63" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
+    <hyperlink ref="F62" r:id="rId64" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
+    <hyperlink ref="E63" r:id="rId65" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
+    <hyperlink ref="E64" r:id="rId66" xr:uid="{00000000-0004-0000-0500-000041000000}"/>
+    <hyperlink ref="F64" r:id="rId67" xr:uid="{00000000-0004-0000-0500-000042000000}"/>
+    <hyperlink ref="E65" r:id="rId68" xr:uid="{00000000-0004-0000-0500-000043000000}"/>
+    <hyperlink ref="E66" r:id="rId69" xr:uid="{00000000-0004-0000-0500-000044000000}"/>
+    <hyperlink ref="E67" r:id="rId70" xr:uid="{00000000-0004-0000-0500-000045000000}"/>
+    <hyperlink ref="E68" r:id="rId71" xr:uid="{00000000-0004-0000-0500-000046000000}"/>
+    <hyperlink ref="E69" r:id="rId72" xr:uid="{00000000-0004-0000-0500-000047000000}"/>
+    <hyperlink ref="E70" r:id="rId73" xr:uid="{00000000-0004-0000-0500-000048000000}"/>
+    <hyperlink ref="E71" r:id="rId74" xr:uid="{00000000-0004-0000-0500-000049000000}"/>
+    <hyperlink ref="E72" r:id="rId75" xr:uid="{00000000-0004-0000-0500-00004A000000}"/>
+    <hyperlink ref="F72" r:id="rId76" xr:uid="{00000000-0004-0000-0500-00004B000000}"/>
+    <hyperlink ref="E73" r:id="rId77" xr:uid="{00000000-0004-0000-0500-00004C000000}"/>
+    <hyperlink ref="E74" r:id="rId78" xr:uid="{00000000-0004-0000-0500-00004D000000}"/>
+    <hyperlink ref="E75" r:id="rId79" tooltip="https://doi.org/10.1609/icaps.v28i1.13883" xr:uid="{00000000-0004-0000-0500-00004E000000}"/>
+    <hyperlink ref="E76" r:id="rId80" xr:uid="{00000000-0004-0000-0500-00004F000000}"/>
+    <hyperlink ref="E78" r:id="rId81" tooltip="https://doi.org/10.1609/icaps.v29i1.3487" xr:uid="{00000000-0004-0000-0500-000050000000}"/>
+    <hyperlink ref="E77" r:id="rId82" xr:uid="{00000000-0004-0000-0500-000051000000}"/>
+    <hyperlink ref="E198" r:id="rId83" xr:uid="{00000000-0004-0000-0500-000052000000}"/>
+    <hyperlink ref="F198" r:id="rId84" xr:uid="{00000000-0004-0000-0500-000053000000}"/>
+    <hyperlink ref="E197" r:id="rId85" xr:uid="{00000000-0004-0000-0500-000054000000}"/>
+    <hyperlink ref="E196" r:id="rId86" xr:uid="{00000000-0004-0000-0500-000055000000}"/>
+    <hyperlink ref="F195" r:id="rId87" xr:uid="{00000000-0004-0000-0500-000056000000}"/>
+    <hyperlink ref="E193" r:id="rId88" xr:uid="{00000000-0004-0000-0500-000057000000}"/>
+    <hyperlink ref="F193" r:id="rId89" xr:uid="{00000000-0004-0000-0500-000058000000}"/>
+    <hyperlink ref="F192" r:id="rId90" xr:uid="{00000000-0004-0000-0500-000059000000}"/>
+    <hyperlink ref="E189" r:id="rId91" xr:uid="{00000000-0004-0000-0500-00005A000000}"/>
+    <hyperlink ref="E79" r:id="rId92" tooltip="https://par.nsf.gov/servlets/purl/10107498" xr:uid="{00000000-0004-0000-0500-00005B000000}"/>
+    <hyperlink ref="E80" r:id="rId93" tooltip="https://par.nsf.gov/servlets/purl/10118766" xr:uid="{00000000-0004-0000-0500-00005C000000}"/>
+    <hyperlink ref="E82" r:id="rId94" tooltip="https://doi.org/10.1609/aaai.v33i01.33017627" xr:uid="{00000000-0004-0000-0500-00005D000000}"/>
+    <hyperlink ref="E83" r:id="rId95" tooltip="https://doi.org/10.48550/arXiv.1812.06356" xr:uid="{00000000-0004-0000-0500-00005E000000}"/>
+    <hyperlink ref="E84" r:id="rId96" tooltip="https://doi.org/10.24963/ijcai.2020/562" xr:uid="{00000000-0004-0000-0500-00005F000000}"/>
+    <hyperlink ref="E85" r:id="rId97" tooltip="https://doi.org/10.24963/ijcai.2020/565" xr:uid="{00000000-0004-0000-0500-000060000000}"/>
+    <hyperlink ref="E86" r:id="rId98" tooltip="https://doi.org/10.1609/icaps.v30i1.6661" xr:uid="{00000000-0004-0000-0500-000061000000}"/>
+    <hyperlink ref="E87" r:id="rId99" tooltip="https://doi.org/10.1609/socs.v11i1.18525" xr:uid="{00000000-0004-0000-0500-000062000000}"/>
+    <hyperlink ref="E88" r:id="rId100" tooltip="https://shchan13.github.io/files/ChanWoMAPF20.pdf" xr:uid="{00000000-0004-0000-0500-000063000000}"/>
+    <hyperlink ref="E89" r:id="rId101" tooltip="https://link.springer.com/chapter/10.1007/978-3-030-69322-0_16" xr:uid="{00000000-0004-0000-0500-000064000000}"/>
+    <hyperlink ref="E90" r:id="rId102" tooltip="https://doi.org/10.24963/ijcai.2021/568" xr:uid="{00000000-0004-0000-0500-000065000000}"/>
+    <hyperlink ref="E187" r:id="rId103" xr:uid="{00000000-0004-0000-0500-000066000000}"/>
+    <hyperlink ref="E186" r:id="rId104" xr:uid="{00000000-0004-0000-0500-000067000000}"/>
+    <hyperlink ref="E185" r:id="rId105" xr:uid="{00000000-0004-0000-0500-000068000000}"/>
+    <hyperlink ref="E184" r:id="rId106" xr:uid="{00000000-0004-0000-0500-000069000000}"/>
+    <hyperlink ref="E181" r:id="rId107" xr:uid="{00000000-0004-0000-0500-00006A000000}"/>
+    <hyperlink ref="E182" r:id="rId108" xr:uid="{00000000-0004-0000-0500-00006B000000}"/>
+    <hyperlink ref="E180" r:id="rId109" xr:uid="{00000000-0004-0000-0500-00006C000000}"/>
+    <hyperlink ref="E179" r:id="rId110" xr:uid="{00000000-0004-0000-0500-00006D000000}"/>
+    <hyperlink ref="F178" r:id="rId111" xr:uid="{00000000-0004-0000-0500-00006E000000}"/>
+    <hyperlink ref="F176" r:id="rId112" xr:uid="{00000000-0004-0000-0500-00006F000000}"/>
+    <hyperlink ref="E173" r:id="rId113" xr:uid="{00000000-0004-0000-0500-000070000000}"/>
+    <hyperlink ref="E170" r:id="rId114" xr:uid="{00000000-0004-0000-0500-000071000000}"/>
+    <hyperlink ref="E169" r:id="rId115" xr:uid="{00000000-0004-0000-0500-000072000000}"/>
+    <hyperlink ref="E168" r:id="rId116" xr:uid="{00000000-0004-0000-0500-000073000000}"/>
+    <hyperlink ref="E167" r:id="rId117" xr:uid="{00000000-0004-0000-0500-000074000000}"/>
+    <hyperlink ref="E91" r:id="rId118" xr:uid="{00000000-0004-0000-0500-000075000000}"/>
+    <hyperlink ref="E92" r:id="rId119" tooltip="https://doi.org/10.1609/aaai.v35i14.17466" xr:uid="{00000000-0004-0000-0500-000076000000}"/>
+    <hyperlink ref="E93" r:id="rId120" tooltip="https://doi.org/10.1609/aaai.v35i13.17340" xr:uid="{00000000-0004-0000-0500-000077000000}"/>
+    <hyperlink ref="E94" r:id="rId121" tooltip="https://doi.org/10.1609/aaai.v35i14.17456" xr:uid="{00000000-0004-0000-0500-000078000000}"/>
+    <hyperlink ref="E95" r:id="rId122" tooltip="https://doi.org/10.1609/socs.v12i1.18586" xr:uid="{00000000-0004-0000-0500-000079000000}"/>
+    <hyperlink ref="E96" r:id="rId123" tooltip="https://doi.org/10.1016/j.artint.2022.103766" xr:uid="{00000000-0004-0000-0500-00007A000000}"/>
+    <hyperlink ref="E97" r:id="rId124" tooltip="https://ieeexplore.ieee.org/abstract/document/9926661" xr:uid="{00000000-0004-0000-0500-00007B000000}"/>
+    <hyperlink ref="E98" r:id="rId125" tooltip="https://doi.org/10.1609/socs.v15i1.21750" xr:uid="{00000000-0004-0000-0500-00007C000000}"/>
+    <hyperlink ref="F162" r:id="rId126" xr:uid="{00000000-0004-0000-0500-00007D000000}"/>
+    <hyperlink ref="E161" r:id="rId127" xr:uid="{00000000-0004-0000-0500-00007E000000}"/>
+    <hyperlink ref="E153" r:id="rId128" xr:uid="{00000000-0004-0000-0500-00007F000000}"/>
+    <hyperlink ref="E151" r:id="rId129" xr:uid="{00000000-0004-0000-0500-000080000000}"/>
+    <hyperlink ref="E145" r:id="rId130" xr:uid="{00000000-0004-0000-0500-000081000000}"/>
+    <hyperlink ref="E141" r:id="rId131" xr:uid="{00000000-0004-0000-0500-000082000000}"/>
+    <hyperlink ref="E140" r:id="rId132" xr:uid="{00000000-0004-0000-0500-000083000000}"/>
+    <hyperlink ref="E139" r:id="rId133" xr:uid="{00000000-0004-0000-0500-000084000000}"/>
+    <hyperlink ref="E137" r:id="rId134" xr:uid="{00000000-0004-0000-0500-000085000000}"/>
+    <hyperlink ref="E136" r:id="rId135" xr:uid="{00000000-0004-0000-0500-000086000000}"/>
+    <hyperlink ref="E135" r:id="rId136" xr:uid="{00000000-0004-0000-0500-000087000000}"/>
+    <hyperlink ref="E134" r:id="rId137" xr:uid="{00000000-0004-0000-0500-000088000000}"/>
+    <hyperlink ref="E133" r:id="rId138" xr:uid="{00000000-0004-0000-0500-000089000000}"/>
+    <hyperlink ref="E132" r:id="rId139" xr:uid="{00000000-0004-0000-0500-00008A000000}"/>
+    <hyperlink ref="F132" r:id="rId140" xr:uid="{00000000-0004-0000-0500-00008B000000}"/>
+    <hyperlink ref="E131" r:id="rId141" xr:uid="{00000000-0004-0000-0500-00008C000000}"/>
+    <hyperlink ref="F131" r:id="rId142" xr:uid="{00000000-0004-0000-0500-00008D000000}"/>
+    <hyperlink ref="E130" r:id="rId143" xr:uid="{00000000-0004-0000-0500-00008E000000}"/>
+    <hyperlink ref="F130" r:id="rId144" xr:uid="{00000000-0004-0000-0500-00008F000000}"/>
+    <hyperlink ref="E129" r:id="rId145" xr:uid="{00000000-0004-0000-0500-000090000000}"/>
+    <hyperlink ref="F129" r:id="rId146" xr:uid="{00000000-0004-0000-0500-000091000000}"/>
+    <hyperlink ref="E128" r:id="rId147" xr:uid="{00000000-0004-0000-0500-000092000000}"/>
+    <hyperlink ref="F128" r:id="rId148" xr:uid="{00000000-0004-0000-0500-000093000000}"/>
+    <hyperlink ref="E127" r:id="rId149" xr:uid="{00000000-0004-0000-0500-000094000000}"/>
+    <hyperlink ref="F127" r:id="rId150" xr:uid="{00000000-0004-0000-0500-000095000000}"/>
+    <hyperlink ref="E126" r:id="rId151" xr:uid="{00000000-0004-0000-0500-000096000000}"/>
+    <hyperlink ref="F126" r:id="rId152" xr:uid="{00000000-0004-0000-0500-000097000000}"/>
+    <hyperlink ref="F125" r:id="rId153" xr:uid="{00000000-0004-0000-0500-000098000000}"/>
+    <hyperlink ref="E124" r:id="rId154" xr:uid="{00000000-0004-0000-0500-000099000000}"/>
+    <hyperlink ref="F124" r:id="rId155" xr:uid="{00000000-0004-0000-0500-00009A000000}"/>
+    <hyperlink ref="E123" r:id="rId156" xr:uid="{00000000-0004-0000-0500-00009B000000}"/>
+    <hyperlink ref="F123" r:id="rId157" xr:uid="{00000000-0004-0000-0500-00009C000000}"/>
+    <hyperlink ref="E122" r:id="rId158" tooltip="https://doi.org/10.1609/aaai.v38i16.29706" xr:uid="{00000000-0004-0000-0500-00009D000000}"/>
+    <hyperlink ref="F122" r:id="rId159" xr:uid="{00000000-0004-0000-0500-00009E000000}"/>
+    <hyperlink ref="E121" r:id="rId160" xr:uid="{00000000-0004-0000-0500-00009F000000}"/>
+    <hyperlink ref="F120" r:id="rId161" xr:uid="{00000000-0004-0000-0500-0000A0000000}"/>
+    <hyperlink ref="E119" r:id="rId162" xr:uid="{00000000-0004-0000-0500-0000A1000000}"/>
+    <hyperlink ref="E118" r:id="rId163" xr:uid="{00000000-0004-0000-0500-0000A2000000}"/>
+    <hyperlink ref="E117" r:id="rId164" xr:uid="{00000000-0004-0000-0500-0000A3000000}"/>
+    <hyperlink ref="F117" r:id="rId165" xr:uid="{00000000-0004-0000-0500-0000A4000000}"/>
+    <hyperlink ref="E116" r:id="rId166" xr:uid="{00000000-0004-0000-0500-0000A5000000}"/>
+    <hyperlink ref="F116" r:id="rId167" tooltip="https://github.com/whoenig/libMultiRobotPlanning" xr:uid="{00000000-0004-0000-0500-0000A6000000}"/>
+    <hyperlink ref="E115" r:id="rId168" xr:uid="{00000000-0004-0000-0500-0000A7000000}"/>
+    <hyperlink ref="E114" r:id="rId169" xr:uid="{00000000-0004-0000-0500-0000A8000000}"/>
+    <hyperlink ref="F114" r:id="rId170" xr:uid="{00000000-0004-0000-0500-0000A9000000}"/>
+    <hyperlink ref="E113" r:id="rId171" xr:uid="{00000000-0004-0000-0500-0000AA000000}"/>
+    <hyperlink ref="F113" r:id="rId172" xr:uid="{00000000-0004-0000-0500-0000AB000000}"/>
+    <hyperlink ref="E112" r:id="rId173" xr:uid="{00000000-0004-0000-0500-0000AC000000}"/>
+    <hyperlink ref="E111" r:id="rId174" xr:uid="{00000000-0004-0000-0500-0000AD000000}"/>
+    <hyperlink ref="E110" r:id="rId175" xr:uid="{00000000-0004-0000-0500-0000AE000000}"/>
+    <hyperlink ref="E109" r:id="rId176" xr:uid="{00000000-0004-0000-0500-0000AF000000}"/>
+    <hyperlink ref="E108" r:id="rId177" xr:uid="{00000000-0004-0000-0500-0000B0000000}"/>
+    <hyperlink ref="E107" r:id="rId178" xr:uid="{00000000-0004-0000-0500-0000B1000000}"/>
+    <hyperlink ref="F105" r:id="rId179" xr:uid="{00000000-0004-0000-0500-0000B2000000}"/>
+    <hyperlink ref="E104" r:id="rId180" xr:uid="{00000000-0004-0000-0500-0000B3000000}"/>
+    <hyperlink ref="E103" r:id="rId181" xr:uid="{00000000-0004-0000-0500-0000B4000000}"/>
+    <hyperlink ref="E102" r:id="rId182" xr:uid="{00000000-0004-0000-0500-0000B5000000}"/>
+    <hyperlink ref="F102" r:id="rId183" xr:uid="{00000000-0004-0000-0500-0000B6000000}"/>
+    <hyperlink ref="E99" r:id="rId184" xr:uid="{00000000-0004-0000-0500-0000B7000000}"/>
+    <hyperlink ref="E106" r:id="rId185" xr:uid="{00000000-0004-0000-0500-0000B8000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId186"/>
 </worksheet>
 </file>
 
